--- a/output/basis_character_new.xlsx
+++ b/output/basis_character_new.xlsx
@@ -10,6 +10,7 @@
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14085" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="character_table" sheetId="2" r:id="rId1"/>
@@ -20740,10 +20741,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -21028,14 +21029,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CU324"/>
   <sheetViews>
-    <sheetView topLeftCell="M133" workbookViewId="0">
-      <selection activeCell="AA150" sqref="AA150"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="P167" sqref="P167"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="Z127" workbookViewId="1">
+      <selection activeCell="AM153" sqref="AM153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>130</v>
       </c>
       <c r="B1" t="s">
@@ -21067,10 +21071,10 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="29"/>
+      <c r="A2" s="30"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="29"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="18" t="s">
         <v>140</v>
       </c>
@@ -21112,7 +21116,7 @@
       <c r="T3" s="11"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="29"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="11"/>
       <c r="C4" s="21"/>
       <c r="D4" s="11"/>
@@ -21133,7 +21137,7 @@
       <c r="T4" s="11"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="29"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="18" t="s">
         <v>150</v>
       </c>
@@ -21175,7 +21179,7 @@
       <c r="T5" s="11"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="29"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="11"/>
       <c r="C6" s="21"/>
       <c r="D6" s="11"/>
@@ -21196,7 +21200,7 @@
       <c r="T6" s="11"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="29"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="18" t="s">
         <v>158</v>
       </c>
@@ -21238,7 +21242,7 @@
       <c r="T7" s="11"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="29"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="11"/>
       <c r="C8" s="21"/>
       <c r="D8" s="11"/>
@@ -21259,7 +21263,7 @@
       <c r="T8" s="11"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="29"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="18" t="s">
         <v>166</v>
       </c>
@@ -21301,7 +21305,7 @@
       <c r="T9" s="11"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="29"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="11"/>
       <c r="C10" s="21"/>
       <c r="D10" s="11"/>
@@ -21322,7 +21326,7 @@
       <c r="T10" s="11"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="29"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="18" t="s">
         <v>174</v>
       </c>
@@ -21364,7 +21368,7 @@
       <c r="T11" s="11"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="29"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="11"/>
       <c r="C12" s="21"/>
       <c r="D12" s="11"/>
@@ -21385,7 +21389,7 @@
       <c r="T12" s="11"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="29"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="18" t="s">
         <v>180</v>
       </c>
@@ -21427,7 +21431,7 @@
       <c r="T13" s="11"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="29"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="11"/>
       <c r="C14" s="21"/>
       <c r="D14" s="11"/>
@@ -21448,7 +21452,7 @@
       <c r="T14" s="11"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="29"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="20" t="s">
         <v>188</v>
       </c>
@@ -21490,7 +21494,7 @@
       <c r="T15" s="11"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="29"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="11"/>
       <c r="C16" s="21"/>
       <c r="D16" s="11"/>
@@ -21511,7 +21515,7 @@
       <c r="T16" s="11"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="29"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="18" t="s">
         <v>196</v>
       </c>
@@ -21553,7 +21557,7 @@
       <c r="T17" s="11"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="29"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="11"/>
       <c r="C18" s="21"/>
       <c r="D18" s="11"/>
@@ -21574,7 +21578,7 @@
       <c r="T18" s="11"/>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="29"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="18" t="s">
         <v>204</v>
       </c>
@@ -21616,7 +21620,7 @@
       <c r="T19" s="11"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="29"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="11"/>
       <c r="C20" s="21"/>
       <c r="D20" s="11"/>
@@ -21637,7 +21641,7 @@
       <c r="T20" s="11"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="29"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="18" t="s">
         <v>211</v>
       </c>
@@ -21679,7 +21683,7 @@
       <c r="T21" s="11"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="29"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="11"/>
       <c r="C22" s="21"/>
       <c r="D22" s="11"/>
@@ -21700,7 +21704,7 @@
       <c r="T22" s="11"/>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="29"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="20" t="s">
         <v>220</v>
       </c>
@@ -21742,7 +21746,7 @@
       <c r="T23" s="11"/>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="29"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="11"/>
       <c r="C24" s="21"/>
       <c r="D24" s="11"/>
@@ -21763,7 +21767,7 @@
       <c r="T24" s="11"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="29"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="18" t="s">
         <v>225</v>
       </c>
@@ -21805,7 +21809,7 @@
       <c r="T25" s="11"/>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="29"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="11"/>
       <c r="C26" s="21"/>
       <c r="D26" s="11"/>
@@ -21826,7 +21830,7 @@
       <c r="T26" s="11"/>
     </row>
     <row r="27" spans="1:20">
-      <c r="A27" s="29"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="20" t="s">
         <v>234</v>
       </c>
@@ -21868,7 +21872,7 @@
       <c r="T27" s="11"/>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="29"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="11"/>
       <c r="C28" s="21"/>
       <c r="D28" s="11"/>
@@ -21889,7 +21893,7 @@
       <c r="T28" s="11"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="29"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="18" t="s">
         <v>243</v>
       </c>
@@ -21931,7 +21935,7 @@
       <c r="T29" s="11"/>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="29"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="11"/>
       <c r="C30" s="21"/>
       <c r="D30" s="11"/>
@@ -21952,7 +21956,7 @@
       <c r="T30" s="11"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="29"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="18" t="s">
         <v>250</v>
       </c>
@@ -21994,7 +21998,7 @@
       <c r="T31" s="11"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="29"/>
+      <c r="A32" s="30"/>
       <c r="B32" s="11"/>
       <c r="C32" s="21"/>
       <c r="D32" s="11"/>
@@ -22015,7 +22019,7 @@
       <c r="T32" s="11"/>
     </row>
     <row r="33" spans="1:41">
-      <c r="A33" s="29"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="18" t="s">
         <v>258</v>
       </c>
@@ -22057,7 +22061,7 @@
       <c r="T33" s="11"/>
     </row>
     <row r="34" spans="1:41">
-      <c r="A34" s="29"/>
+      <c r="A34" s="30"/>
       <c r="B34" s="11"/>
       <c r="C34" s="21"/>
       <c r="D34" s="11"/>
@@ -22078,7 +22082,7 @@
       <c r="T34" s="11"/>
     </row>
     <row r="35" spans="1:41">
-      <c r="A35" s="29"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="18" t="s">
         <v>266</v>
       </c>
@@ -22120,7 +22124,7 @@
       <c r="T35" s="11"/>
     </row>
     <row r="36" spans="1:41">
-      <c r="A36" s="29"/>
+      <c r="A36" s="30"/>
       <c r="B36" s="11"/>
       <c r="C36" s="21"/>
       <c r="D36" s="11"/>
@@ -22141,7 +22145,7 @@
       <c r="T36" s="11"/>
     </row>
     <row r="37" spans="1:41">
-      <c r="A37" s="29"/>
+      <c r="A37" s="30"/>
       <c r="B37" s="18" t="s">
         <v>274</v>
       </c>
@@ -22183,7 +22187,7 @@
       <c r="T37" s="11"/>
     </row>
     <row r="38" spans="1:41">
-      <c r="A38" s="29"/>
+      <c r="A38" s="30"/>
       <c r="B38" s="11"/>
       <c r="C38" s="21"/>
       <c r="D38" s="11"/>
@@ -22204,7 +22208,7 @@
       <c r="T38" s="11"/>
     </row>
     <row r="39" spans="1:41">
-      <c r="A39" s="29"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="18" t="s">
         <v>282</v>
       </c>
@@ -22246,7 +22250,7 @@
       <c r="T39" s="11"/>
     </row>
     <row r="40" spans="1:41">
-      <c r="A40" s="29"/>
+      <c r="A40" s="30"/>
       <c r="B40" s="11"/>
       <c r="C40" s="21"/>
       <c r="D40" s="11"/>
@@ -22380,12 +22384,12 @@
       </c>
     </row>
     <row r="42" spans="1:41">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="30" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:41">
-      <c r="A43" s="29"/>
+      <c r="A43" s="30"/>
       <c r="B43" t="s">
         <v>292</v>
       </c>
@@ -22403,10 +22407,10 @@
       </c>
     </row>
     <row r="44" spans="1:41">
-      <c r="A44" s="29"/>
+      <c r="A44" s="30"/>
     </row>
     <row r="45" spans="1:41">
-      <c r="A45" s="29"/>
+      <c r="A45" s="30"/>
       <c r="B45" s="18" t="s">
         <v>297</v>
       </c>
@@ -22451,7 +22455,7 @@
       </c>
     </row>
     <row r="46" spans="1:41">
-      <c r="A46" s="29"/>
+      <c r="A46" s="30"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
@@ -22459,7 +22463,7 @@
       <c r="F46" s="11"/>
     </row>
     <row r="47" spans="1:41">
-      <c r="A47" s="29"/>
+      <c r="A47" s="30"/>
       <c r="B47" s="18" t="s">
         <v>302</v>
       </c>
@@ -22504,7 +22508,7 @@
       </c>
     </row>
     <row r="48" spans="1:41">
-      <c r="A48" s="29"/>
+      <c r="A48" s="30"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -22512,7 +22516,7 @@
       <c r="F48" s="11"/>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="29"/>
+      <c r="A49" s="30"/>
       <c r="B49" s="20" t="s">
         <v>307</v>
       </c>
@@ -22557,7 +22561,7 @@
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="29"/>
+      <c r="A50" s="30"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -22565,7 +22569,7 @@
       <c r="F50" s="11"/>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="29"/>
+      <c r="A51" s="30"/>
       <c r="B51" s="18" t="s">
         <v>312</v>
       </c>
@@ -22610,7 +22614,7 @@
       </c>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="29"/>
+      <c r="A52" s="30"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
@@ -22618,7 +22622,7 @@
       <c r="F52" s="11"/>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="29"/>
+      <c r="A53" s="30"/>
       <c r="B53" s="20" t="s">
         <v>317</v>
       </c>
@@ -22657,7 +22661,7 @@
       </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="29"/>
+      <c r="A54" s="30"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -22665,7 +22669,7 @@
       <c r="F54" s="11"/>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="29"/>
+      <c r="A55" s="30"/>
       <c r="B55" s="18" t="s">
         <v>320</v>
       </c>
@@ -22710,7 +22714,7 @@
       </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="29"/>
+      <c r="A56" s="30"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -22718,7 +22722,7 @@
       <c r="F56" s="11"/>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="29"/>
+      <c r="A57" s="30"/>
       <c r="B57" s="18" t="s">
         <v>325</v>
       </c>
@@ -22763,7 +22767,7 @@
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="29"/>
+      <c r="A58" s="30"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -22771,7 +22775,7 @@
       <c r="F58" s="11"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="29"/>
+      <c r="A59" s="30"/>
       <c r="B59" s="18" t="s">
         <v>330</v>
       </c>
@@ -22816,7 +22820,7 @@
       </c>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="29"/>
+      <c r="A60" s="30"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -22824,7 +22828,7 @@
       <c r="F60" s="11"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="29"/>
+      <c r="A61" s="30"/>
       <c r="B61" s="20" t="s">
         <v>335</v>
       </c>
@@ -22869,7 +22873,7 @@
       </c>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="29"/>
+      <c r="A62" s="30"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -22877,7 +22881,7 @@
       <c r="F62" s="11"/>
     </row>
     <row r="63" spans="1:15">
-      <c r="A63" s="29"/>
+      <c r="A63" s="30"/>
       <c r="B63" s="18" t="s">
         <v>340</v>
       </c>
@@ -22922,7 +22926,7 @@
       </c>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="29"/>
+      <c r="A64" s="30"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
@@ -22930,7 +22934,7 @@
       <c r="F64" s="11"/>
     </row>
     <row r="65" spans="1:15">
-      <c r="A65" s="29"/>
+      <c r="A65" s="30"/>
       <c r="B65" s="18" t="s">
         <v>345</v>
       </c>
@@ -22972,7 +22976,7 @@
       </c>
     </row>
     <row r="66" spans="1:15">
-      <c r="A66" s="29"/>
+      <c r="A66" s="30"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -22980,7 +22984,7 @@
       <c r="F66" s="11"/>
     </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="29"/>
+      <c r="A67" s="30"/>
       <c r="B67" s="18" t="s">
         <v>349</v>
       </c>
@@ -23025,7 +23029,7 @@
       </c>
     </row>
     <row r="68" spans="1:15">
-      <c r="A68" s="29"/>
+      <c r="A68" s="30"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -23033,7 +23037,7 @@
       <c r="F68" s="11"/>
     </row>
     <row r="69" spans="1:15">
-      <c r="A69" s="29"/>
+      <c r="A69" s="30"/>
       <c r="B69" s="18" t="s">
         <v>354</v>
       </c>
@@ -23078,7 +23082,7 @@
       </c>
     </row>
     <row r="70" spans="1:15">
-      <c r="A70" s="29"/>
+      <c r="A70" s="30"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -23086,7 +23090,7 @@
       <c r="F70" s="11"/>
     </row>
     <row r="71" spans="1:15">
-      <c r="A71" s="29"/>
+      <c r="A71" s="30"/>
       <c r="B71" s="18" t="s">
         <v>359</v>
       </c>
@@ -23128,7 +23132,7 @@
       </c>
     </row>
     <row r="72" spans="1:15">
-      <c r="A72" s="29"/>
+      <c r="A72" s="30"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
@@ -23136,7 +23140,7 @@
       <c r="F72" s="11"/>
     </row>
     <row r="73" spans="1:15">
-      <c r="A73" s="29"/>
+      <c r="A73" s="30"/>
       <c r="B73" s="18" t="s">
         <v>363</v>
       </c>
@@ -23181,7 +23185,7 @@
       </c>
     </row>
     <row r="74" spans="1:15">
-      <c r="A74" s="29"/>
+      <c r="A74" s="30"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
@@ -23189,7 +23193,7 @@
       <c r="F74" s="11"/>
     </row>
     <row r="75" spans="1:15">
-      <c r="A75" s="29"/>
+      <c r="A75" s="30"/>
       <c r="B75" s="20" t="s">
         <v>368</v>
       </c>
@@ -23234,7 +23238,7 @@
       </c>
     </row>
     <row r="76" spans="1:15">
-      <c r="A76" s="29"/>
+      <c r="A76" s="30"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -23242,7 +23246,7 @@
       <c r="F76" s="11"/>
     </row>
     <row r="77" spans="1:15">
-      <c r="A77" s="29"/>
+      <c r="A77" s="30"/>
       <c r="B77" s="18" t="s">
         <v>373</v>
       </c>
@@ -23287,7 +23291,7 @@
       </c>
     </row>
     <row r="78" spans="1:15">
-      <c r="A78" s="29"/>
+      <c r="A78" s="30"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
@@ -23295,7 +23299,7 @@
       <c r="F78" s="11"/>
     </row>
     <row r="79" spans="1:15">
-      <c r="A79" s="29"/>
+      <c r="A79" s="30"/>
       <c r="B79" s="18" t="s">
         <v>378</v>
       </c>
@@ -23340,7 +23344,7 @@
       </c>
     </row>
     <row r="80" spans="1:15">
-      <c r="A80" s="29"/>
+      <c r="A80" s="30"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -23348,7 +23352,7 @@
       <c r="F80" s="11"/>
     </row>
     <row r="81" spans="1:41">
-      <c r="A81" s="29"/>
+      <c r="A81" s="30"/>
       <c r="B81" s="18" t="s">
         <v>383</v>
       </c>
@@ -23393,7 +23397,7 @@
       </c>
     </row>
     <row r="82" spans="1:41">
-      <c r="A82" s="29"/>
+      <c r="A82" s="30"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
@@ -23523,12 +23527,12 @@
       </c>
     </row>
     <row r="84" spans="1:41">
-      <c r="A84" s="29" t="s">
+      <c r="A84" s="30" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="85" spans="1:41">
-      <c r="A85" s="29"/>
+      <c r="A85" s="30"/>
       <c r="B85" t="s">
         <v>389</v>
       </c>
@@ -23552,10 +23556,10 @@
       </c>
     </row>
     <row r="86" spans="1:41">
-      <c r="A86" s="29"/>
+      <c r="A86" s="30"/>
     </row>
     <row r="87" spans="1:41">
-      <c r="A87" s="29"/>
+      <c r="A87" s="30"/>
       <c r="B87" s="18" t="s">
         <v>396</v>
       </c>
@@ -23606,7 +23610,7 @@
       </c>
     </row>
     <row r="88" spans="1:41">
-      <c r="A88" s="29"/>
+      <c r="A88" s="30"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -23616,7 +23620,7 @@
       <c r="H88" s="11"/>
     </row>
     <row r="89" spans="1:41">
-      <c r="A89" s="29"/>
+      <c r="A89" s="30"/>
       <c r="B89" s="18" t="s">
         <v>403</v>
       </c>
@@ -23664,7 +23668,7 @@
       </c>
     </row>
     <row r="90" spans="1:41">
-      <c r="A90" s="29"/>
+      <c r="A90" s="30"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -23674,7 +23678,7 @@
       <c r="H90" s="11"/>
     </row>
     <row r="91" spans="1:41">
-      <c r="A91" s="29"/>
+      <c r="A91" s="30"/>
       <c r="B91" s="18" t="s">
         <v>409</v>
       </c>
@@ -23722,7 +23726,7 @@
       </c>
     </row>
     <row r="92" spans="1:41">
-      <c r="A92" s="29"/>
+      <c r="A92" s="30"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
@@ -23732,7 +23736,7 @@
       <c r="H92" s="11"/>
     </row>
     <row r="93" spans="1:41">
-      <c r="A93" s="29"/>
+      <c r="A93" s="30"/>
       <c r="B93" s="20" t="s">
         <v>415</v>
       </c>
@@ -23783,7 +23787,7 @@
       </c>
     </row>
     <row r="94" spans="1:41">
-      <c r="A94" s="29"/>
+      <c r="A94" s="30"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
@@ -23793,7 +23797,7 @@
       <c r="H94" s="11"/>
     </row>
     <row r="95" spans="1:41">
-      <c r="A95" s="29"/>
+      <c r="A95" s="30"/>
       <c r="B95" s="20" t="s">
         <v>422</v>
       </c>
@@ -23841,7 +23845,7 @@
       </c>
     </row>
     <row r="96" spans="1:41">
-      <c r="A96" s="29"/>
+      <c r="A96" s="30"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
@@ -23851,7 +23855,7 @@
       <c r="H96" s="11"/>
     </row>
     <row r="97" spans="1:17">
-      <c r="A97" s="29"/>
+      <c r="A97" s="30"/>
       <c r="B97" s="18" t="s">
         <v>428</v>
       </c>
@@ -23896,7 +23900,7 @@
       </c>
     </row>
     <row r="98" spans="1:17">
-      <c r="A98" s="29"/>
+      <c r="A98" s="30"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
@@ -23906,7 +23910,7 @@
       <c r="H98" s="11"/>
     </row>
     <row r="99" spans="1:17">
-      <c r="A99" s="29"/>
+      <c r="A99" s="30"/>
       <c r="B99" s="18" t="s">
         <v>433</v>
       </c>
@@ -23951,7 +23955,7 @@
       </c>
     </row>
     <row r="100" spans="1:17">
-      <c r="A100" s="29"/>
+      <c r="A100" s="30"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
@@ -23961,7 +23965,7 @@
       <c r="H100" s="11"/>
     </row>
     <row r="101" spans="1:17">
-      <c r="A101" s="29"/>
+      <c r="A101" s="30"/>
       <c r="B101" s="18" t="s">
         <v>438</v>
       </c>
@@ -24009,7 +24013,7 @@
       </c>
     </row>
     <row r="102" spans="1:17">
-      <c r="A102" s="29"/>
+      <c r="A102" s="30"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
@@ -24019,7 +24023,7 @@
       <c r="H102" s="11"/>
     </row>
     <row r="103" spans="1:17">
-      <c r="A103" s="29"/>
+      <c r="A103" s="30"/>
       <c r="B103" s="18" t="s">
         <v>149</v>
       </c>
@@ -24052,7 +24056,7 @@
       </c>
     </row>
     <row r="104" spans="1:17">
-      <c r="A104" s="29"/>
+      <c r="A104" s="30"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
@@ -24062,7 +24066,7 @@
       <c r="H104" s="11"/>
     </row>
     <row r="105" spans="1:17">
-      <c r="A105" s="29"/>
+      <c r="A105" s="30"/>
       <c r="B105" s="18" t="s">
         <v>445</v>
       </c>
@@ -24110,7 +24114,7 @@
       </c>
     </row>
     <row r="106" spans="1:17">
-      <c r="A106" s="29"/>
+      <c r="A106" s="30"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
@@ -24120,7 +24124,7 @@
       <c r="H106" s="11"/>
     </row>
     <row r="107" spans="1:17">
-      <c r="A107" s="29"/>
+      <c r="A107" s="30"/>
       <c r="B107" s="18" t="s">
         <v>451</v>
       </c>
@@ -24171,7 +24175,7 @@
       </c>
     </row>
     <row r="108" spans="1:17">
-      <c r="A108" s="29"/>
+      <c r="A108" s="30"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
@@ -24181,7 +24185,7 @@
       <c r="H108" s="11"/>
     </row>
     <row r="109" spans="1:17">
-      <c r="A109" s="29"/>
+      <c r="A109" s="30"/>
       <c r="B109" s="18" t="s">
         <v>458</v>
       </c>
@@ -24232,7 +24236,7 @@
       </c>
     </row>
     <row r="110" spans="1:17">
-      <c r="A110" s="29"/>
+      <c r="A110" s="30"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
@@ -24242,7 +24246,7 @@
       <c r="H110" s="11"/>
     </row>
     <row r="111" spans="1:17">
-      <c r="A111" s="29"/>
+      <c r="A111" s="30"/>
       <c r="B111" s="18" t="s">
         <v>465</v>
       </c>
@@ -24290,7 +24294,7 @@
       </c>
     </row>
     <row r="112" spans="1:17">
-      <c r="A112" s="29"/>
+      <c r="A112" s="30"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
@@ -24300,7 +24304,7 @@
       <c r="H112" s="11"/>
     </row>
     <row r="113" spans="1:99">
-      <c r="A113" s="29"/>
+      <c r="A113" s="30"/>
       <c r="B113" s="18" t="s">
         <v>471</v>
       </c>
@@ -24345,7 +24349,7 @@
       </c>
     </row>
     <row r="114" spans="1:99">
-      <c r="A114" s="29"/>
+      <c r="A114" s="30"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
@@ -24355,7 +24359,7 @@
       <c r="H114" s="11"/>
     </row>
     <row r="115" spans="1:99">
-      <c r="A115" s="29"/>
+      <c r="A115" s="30"/>
       <c r="B115" s="18" t="s">
         <v>476</v>
       </c>
@@ -24400,7 +24404,7 @@
       </c>
     </row>
     <row r="116" spans="1:99">
-      <c r="A116" s="29"/>
+      <c r="A116" s="30"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
@@ -24410,7 +24414,7 @@
       <c r="H116" s="11"/>
     </row>
     <row r="117" spans="1:99">
-      <c r="A117" s="29"/>
+      <c r="A117" s="30"/>
       <c r="B117" s="18" t="s">
         <v>481</v>
       </c>
@@ -24458,7 +24462,7 @@
       </c>
     </row>
     <row r="118" spans="1:99">
-      <c r="A118" s="29"/>
+      <c r="A118" s="30"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
@@ -24468,7 +24472,7 @@
       <c r="H118" s="11"/>
     </row>
     <row r="119" spans="1:99">
-      <c r="A119" s="29"/>
+      <c r="A119" s="30"/>
       <c r="B119" s="18" t="s">
         <v>487</v>
       </c>
@@ -24519,7 +24523,7 @@
       </c>
     </row>
     <row r="120" spans="1:99">
-      <c r="A120" s="29"/>
+      <c r="A120" s="30"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
       <c r="D120" s="11"/>
@@ -24529,7 +24533,7 @@
       <c r="H120" s="11"/>
     </row>
     <row r="121" spans="1:99">
-      <c r="A121" s="29"/>
+      <c r="A121" s="30"/>
       <c r="B121" s="20" t="s">
         <v>494</v>
       </c>
@@ -24571,7 +24575,7 @@
       </c>
     </row>
     <row r="122" spans="1:99">
-      <c r="A122" s="29"/>
+      <c r="A122" s="30"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
@@ -24581,7 +24585,7 @@
       <c r="H122" s="11"/>
     </row>
     <row r="123" spans="1:99">
-      <c r="A123" s="29"/>
+      <c r="A123" s="30"/>
       <c r="B123" s="18" t="s">
         <v>498</v>
       </c>
@@ -24632,7 +24636,7 @@
       </c>
     </row>
     <row r="124" spans="1:99">
-      <c r="A124" s="29"/>
+      <c r="A124" s="30"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
@@ -24765,7 +24769,7 @@
       </c>
     </row>
     <row r="126" spans="1:99">
-      <c r="A126" s="30" t="s">
+      <c r="A126" s="29" t="s">
         <v>505</v>
       </c>
       <c r="B126" s="11"/>
@@ -24868,7 +24872,7 @@
       <c r="CU126" s="11"/>
     </row>
     <row r="127" spans="1:99">
-      <c r="A127" s="30"/>
+      <c r="A127" s="29"/>
       <c r="B127" s="11" t="s">
         <v>131</v>
       </c>
@@ -24987,7 +24991,7 @@
       <c r="CU127" s="11"/>
     </row>
     <row r="128" spans="1:99">
-      <c r="A128" s="30"/>
+      <c r="A128" s="29"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
@@ -25088,7 +25092,7 @@
       <c r="CU128" s="11"/>
     </row>
     <row r="129" spans="1:99">
-      <c r="A129" s="30"/>
+      <c r="A129" s="29"/>
       <c r="B129" s="19" t="s">
         <v>506</v>
       </c>
@@ -25347,7 +25351,7 @@
       <c r="CU129" s="11"/>
     </row>
     <row r="130" spans="1:99">
-      <c r="A130" s="30"/>
+      <c r="A130" s="29"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
       <c r="D130" s="11"/>
@@ -25448,7 +25452,7 @@
       <c r="CU130" s="11"/>
     </row>
     <row r="131" spans="1:99">
-      <c r="A131" s="30"/>
+      <c r="A131" s="29"/>
       <c r="B131" s="11" t="s">
         <v>585</v>
       </c>
@@ -25643,7 +25647,7 @@
       <c r="CU131" s="11"/>
     </row>
     <row r="132" spans="1:99">
-      <c r="A132" s="30"/>
+      <c r="A132" s="29"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
       <c r="D132" s="11"/>
@@ -25744,7 +25748,7 @@
       <c r="CU132" s="11"/>
     </row>
     <row r="133" spans="1:99">
-      <c r="A133" s="30"/>
+      <c r="A133" s="29"/>
       <c r="B133" s="18" t="s">
         <v>632</v>
       </c>
@@ -25979,7 +25983,7 @@
       <c r="CU133" s="11"/>
     </row>
     <row r="134" spans="1:99">
-      <c r="A134" s="30"/>
+      <c r="A134" s="29"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
       <c r="D134" s="11"/>
@@ -26080,7 +26084,7 @@
       <c r="CU134" s="11"/>
     </row>
     <row r="135" spans="1:99">
-      <c r="A135" s="30"/>
+      <c r="A135" s="29"/>
       <c r="B135" s="11" t="s">
         <v>699</v>
       </c>
@@ -26303,7 +26307,7 @@
       <c r="CU135" s="11"/>
     </row>
     <row r="136" spans="1:99">
-      <c r="A136" s="30"/>
+      <c r="A136" s="29"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
       <c r="D136" s="11"/>
@@ -26404,7 +26408,7 @@
       <c r="CU136" s="11"/>
     </row>
     <row r="137" spans="1:99">
-      <c r="A137" s="30"/>
+      <c r="A137" s="29"/>
       <c r="B137" s="18" t="s">
         <v>760</v>
       </c>
@@ -26591,7 +26595,7 @@
       <c r="CU137" s="11"/>
     </row>
     <row r="138" spans="1:99">
-      <c r="A138" s="30"/>
+      <c r="A138" s="29"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
@@ -26692,7 +26696,7 @@
       <c r="CU138" s="11"/>
     </row>
     <row r="139" spans="1:99">
-      <c r="A139" s="30"/>
+      <c r="A139" s="29"/>
       <c r="B139" s="11" t="s">
         <v>803</v>
       </c>
@@ -26907,7 +26911,7 @@
       <c r="CU139" s="11"/>
     </row>
     <row r="140" spans="1:99">
-      <c r="A140" s="30"/>
+      <c r="A140" s="29"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
@@ -27008,7 +27012,7 @@
       <c r="CU140" s="11"/>
     </row>
     <row r="141" spans="1:99">
-      <c r="A141" s="30"/>
+      <c r="A141" s="29"/>
       <c r="B141" s="18" t="s">
         <v>860</v>
       </c>
@@ -27235,7 +27239,7 @@
       <c r="CU141" s="11"/>
     </row>
     <row r="142" spans="1:99">
-      <c r="A142" s="30"/>
+      <c r="A142" s="29"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
@@ -27336,7 +27340,7 @@
       <c r="CU142" s="11"/>
     </row>
     <row r="143" spans="1:99">
-      <c r="A143" s="30"/>
+      <c r="A143" s="29"/>
       <c r="B143" s="19" t="s">
         <v>923</v>
       </c>
@@ -27565,7 +27569,7 @@
       <c r="CU143" s="11"/>
     </row>
     <row r="144" spans="1:99">
-      <c r="A144" s="30"/>
+      <c r="A144" s="29"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
@@ -27666,7 +27670,7 @@
       <c r="CU144" s="11"/>
     </row>
     <row r="145" spans="1:99">
-      <c r="A145" s="30"/>
+      <c r="A145" s="29"/>
       <c r="B145" s="11" t="s">
         <v>987</v>
       </c>
@@ -27851,7 +27855,7 @@
       <c r="CU145" s="11"/>
     </row>
     <row r="146" spans="1:99">
-      <c r="A146" s="30"/>
+      <c r="A146" s="29"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
       <c r="D146" s="11"/>
@@ -27952,7 +27956,7 @@
       <c r="CU146" s="11"/>
     </row>
     <row r="147" spans="1:99">
-      <c r="A147" s="30"/>
+      <c r="A147" s="29"/>
       <c r="B147" s="18" t="s">
         <v>1029</v>
       </c>
@@ -28203,7 +28207,7 @@
       <c r="CU147" s="11"/>
     </row>
     <row r="148" spans="1:99">
-      <c r="A148" s="30"/>
+      <c r="A148" s="29"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
@@ -28304,7 +28308,7 @@
       <c r="CU148" s="11"/>
     </row>
     <row r="149" spans="1:99">
-      <c r="A149" s="30"/>
+      <c r="A149" s="29"/>
       <c r="B149" s="11" t="s">
         <v>1104</v>
       </c>
@@ -28475,7 +28479,7 @@
       <c r="CU149" s="11"/>
     </row>
     <row r="150" spans="1:99">
-      <c r="A150" s="30"/>
+      <c r="A150" s="29"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
@@ -28576,7 +28580,7 @@
       <c r="CU150" s="11"/>
     </row>
     <row r="151" spans="1:99">
-      <c r="A151" s="30"/>
+      <c r="A151" s="29"/>
       <c r="B151" s="18" t="s">
         <v>1139</v>
       </c>
@@ -28861,7 +28865,7 @@
       <c r="CU151" s="11"/>
     </row>
     <row r="152" spans="1:99">
-      <c r="A152" s="30"/>
+      <c r="A152" s="29"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
@@ -28962,7 +28966,7 @@
       <c r="CU152" s="11"/>
     </row>
     <row r="153" spans="1:99">
-      <c r="A153" s="30"/>
+      <c r="A153" s="29"/>
       <c r="B153" s="11" t="s">
         <v>1231</v>
       </c>
@@ -29187,7 +29191,7 @@
       <c r="CU153" s="11"/>
     </row>
     <row r="154" spans="1:99">
-      <c r="A154" s="30"/>
+      <c r="A154" s="29"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
       <c r="D154" s="11"/>
@@ -29288,119 +29292,119 @@
       <c r="CU154" s="11"/>
     </row>
     <row r="155" spans="1:99">
-      <c r="A155" s="30"/>
-      <c r="B155" s="11" t="s">
+      <c r="A155" s="29"/>
+      <c r="B155" s="18" t="s">
         <v>1293</v>
       </c>
-      <c r="C155" s="11" t="s">
+      <c r="C155" s="18" t="s">
         <v>1294</v>
       </c>
-      <c r="D155" s="11" t="s">
+      <c r="D155" s="18" t="s">
         <v>1295</v>
       </c>
-      <c r="E155" s="11" t="s">
+      <c r="E155" s="18" t="s">
         <v>1296</v>
       </c>
-      <c r="F155" s="11" t="s">
+      <c r="F155" s="18" t="s">
         <v>1297</v>
       </c>
-      <c r="G155" s="11" t="s">
+      <c r="G155" s="18" t="s">
         <v>1298</v>
       </c>
-      <c r="H155" s="11" t="s">
+      <c r="H155" s="18" t="s">
         <v>1299</v>
       </c>
-      <c r="I155" s="11" t="s">
+      <c r="I155" s="18" t="s">
         <v>1300</v>
       </c>
-      <c r="J155" s="11" t="s">
+      <c r="J155" s="18" t="s">
         <v>1301</v>
       </c>
-      <c r="K155" s="11" t="s">
+      <c r="K155" s="18" t="s">
         <v>1302</v>
       </c>
-      <c r="L155" s="11" t="s">
+      <c r="L155" s="18" t="s">
         <v>1303</v>
       </c>
-      <c r="M155" s="11" t="s">
+      <c r="M155" s="18" t="s">
         <v>1304</v>
       </c>
-      <c r="N155" s="11" t="s">
+      <c r="N155" s="18" t="s">
         <v>1305</v>
       </c>
-      <c r="O155" s="11" t="s">
+      <c r="O155" s="18" t="s">
         <v>1306</v>
       </c>
-      <c r="P155" s="11" t="s">
+      <c r="P155" s="18" t="s">
         <v>1307</v>
       </c>
-      <c r="Q155" s="11" t="s">
+      <c r="Q155" s="18" t="s">
         <v>1308</v>
       </c>
-      <c r="R155" s="11" t="s">
+      <c r="R155" s="18" t="s">
         <v>1309</v>
       </c>
-      <c r="S155" s="11" t="s">
+      <c r="S155" s="18" t="s">
         <v>1310</v>
       </c>
-      <c r="T155" s="11" t="s">
+      <c r="T155" s="18" t="s">
         <v>1311</v>
       </c>
-      <c r="U155" s="11" t="s">
+      <c r="U155" s="18" t="s">
         <v>1312</v>
       </c>
-      <c r="V155" s="11" t="s">
+      <c r="V155" s="18" t="s">
         <v>1313</v>
       </c>
-      <c r="W155" s="11" t="s">
+      <c r="W155" s="18" t="s">
         <v>1314</v>
       </c>
-      <c r="X155" s="11" t="s">
+      <c r="X155" s="18" t="s">
         <v>1315</v>
       </c>
-      <c r="Y155" s="11" t="s">
+      <c r="Y155" s="18" t="s">
         <v>1316</v>
       </c>
-      <c r="Z155" s="11" t="s">
+      <c r="Z155" s="18" t="s">
         <v>1317</v>
       </c>
-      <c r="AA155" s="11" t="s">
+      <c r="AA155" s="18" t="s">
         <v>1318</v>
       </c>
-      <c r="AB155" s="11" t="s">
+      <c r="AB155" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="AC155" s="11" t="s">
+      <c r="AC155" s="18" t="s">
         <v>1320</v>
       </c>
-      <c r="AD155" s="11" t="s">
+      <c r="AD155" s="18" t="s">
         <v>1321</v>
       </c>
-      <c r="AE155" s="11" t="s">
+      <c r="AE155" s="18" t="s">
         <v>1322</v>
       </c>
-      <c r="AF155" s="11" t="s">
+      <c r="AF155" s="18" t="s">
         <v>1323</v>
       </c>
-      <c r="AG155" s="11" t="s">
+      <c r="AG155" s="18" t="s">
         <v>1324</v>
       </c>
-      <c r="AH155" s="11" t="s">
+      <c r="AH155" s="18" t="s">
         <v>1325</v>
       </c>
-      <c r="AI155" s="11" t="s">
+      <c r="AI155" s="18" t="s">
         <v>1326</v>
       </c>
-      <c r="AJ155" s="11" t="s">
+      <c r="AJ155" s="18" t="s">
         <v>1327</v>
       </c>
-      <c r="AK155" s="11" t="s">
+      <c r="AK155" s="18" t="s">
         <v>1328</v>
       </c>
-      <c r="AL155" s="11" t="s">
+      <c r="AL155" s="18" t="s">
         <v>1329</v>
       </c>
-      <c r="AM155" s="11" t="s">
+      <c r="AM155" s="20" t="s">
         <v>1330</v>
       </c>
       <c r="AN155" s="11"/>
@@ -29465,7 +29469,7 @@
       <c r="CU155" s="11"/>
     </row>
     <row r="156" spans="1:99">
-      <c r="A156" s="30"/>
+      <c r="A156" s="29"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
       <c r="D156" s="11"/>
@@ -29566,158 +29570,158 @@
       <c r="CU156" s="11"/>
     </row>
     <row r="157" spans="1:99">
-      <c r="A157" s="30"/>
-      <c r="B157" s="21" t="s">
+      <c r="A157" s="29"/>
+      <c r="B157" s="19" t="s">
         <v>1331</v>
       </c>
-      <c r="C157" s="23" t="s">
+      <c r="C157" s="25" t="s">
         <v>1332</v>
       </c>
-      <c r="D157" s="23" t="s">
+      <c r="D157" s="25" t="s">
         <v>1333</v>
       </c>
-      <c r="E157" s="23" t="s">
+      <c r="E157" s="25" t="s">
         <v>1334</v>
       </c>
-      <c r="F157" s="23" t="s">
+      <c r="F157" s="25" t="s">
         <v>1335</v>
       </c>
-      <c r="G157" s="23" t="s">
+      <c r="G157" s="25" t="s">
         <v>1336</v>
       </c>
-      <c r="H157" s="23" t="s">
+      <c r="H157" s="25" t="s">
         <v>1337</v>
       </c>
-      <c r="I157" s="23" t="s">
+      <c r="I157" s="25" t="s">
         <v>1338</v>
       </c>
-      <c r="J157" s="23" t="s">
+      <c r="J157" s="25" t="s">
         <v>1339</v>
       </c>
-      <c r="K157" s="23" t="s">
+      <c r="K157" s="22" t="s">
         <v>1340</v>
       </c>
-      <c r="L157" s="23" t="s">
+      <c r="L157" s="25" t="s">
         <v>1341</v>
       </c>
-      <c r="M157" s="23" t="s">
+      <c r="M157" s="25" t="s">
         <v>1342</v>
       </c>
-      <c r="N157" s="23" t="s">
+      <c r="N157" s="25" t="s">
         <v>1343</v>
       </c>
-      <c r="O157" s="23" t="s">
+      <c r="O157" s="25" t="s">
         <v>1344</v>
       </c>
-      <c r="P157" s="23" t="s">
+      <c r="P157" s="25" t="s">
         <v>1345</v>
       </c>
-      <c r="Q157" s="23" t="s">
+      <c r="Q157" s="25" t="s">
         <v>1346</v>
       </c>
-      <c r="R157" s="23" t="s">
+      <c r="R157" s="25" t="s">
         <v>1347</v>
       </c>
-      <c r="S157" s="23" t="s">
+      <c r="S157" s="25" t="s">
         <v>1348</v>
       </c>
-      <c r="T157" s="23" t="s">
+      <c r="T157" s="25" t="s">
         <v>1349</v>
       </c>
-      <c r="U157" s="11" t="s">
+      <c r="U157" s="18" t="s">
         <v>1350</v>
       </c>
-      <c r="V157" s="11" t="s">
+      <c r="V157" s="18" t="s">
         <v>1351</v>
       </c>
-      <c r="W157" s="11" t="s">
+      <c r="W157" s="18" t="s">
         <v>1352</v>
       </c>
-      <c r="X157" s="11" t="s">
+      <c r="X157" s="18" t="s">
         <v>1353</v>
       </c>
-      <c r="Y157" s="11" t="s">
+      <c r="Y157" s="18" t="s">
         <v>1354</v>
       </c>
-      <c r="Z157" s="11" t="s">
+      <c r="Z157" s="18" t="s">
         <v>1355</v>
       </c>
-      <c r="AA157" s="11" t="s">
+      <c r="AA157" s="18" t="s">
         <v>1356</v>
       </c>
-      <c r="AB157" s="11" t="s">
+      <c r="AB157" s="18" t="s">
         <v>1357</v>
       </c>
-      <c r="AC157" s="11" t="s">
+      <c r="AC157" s="18" t="s">
         <v>1358</v>
       </c>
-      <c r="AD157" s="11" t="s">
+      <c r="AD157" s="18" t="s">
         <v>1359</v>
       </c>
-      <c r="AE157" s="11" t="s">
+      <c r="AE157" s="18" t="s">
         <v>1360</v>
       </c>
-      <c r="AF157" s="11" t="s">
+      <c r="AF157" s="18" t="s">
         <v>1361</v>
       </c>
-      <c r="AG157" s="11" t="s">
+      <c r="AG157" s="18" t="s">
         <v>1362</v>
       </c>
-      <c r="AH157" s="11" t="s">
+      <c r="AH157" s="18" t="s">
         <v>1363</v>
       </c>
-      <c r="AI157" s="11" t="s">
+      <c r="AI157" s="18" t="s">
         <v>1364</v>
       </c>
-      <c r="AJ157" s="11" t="s">
+      <c r="AJ157" s="18" t="s">
         <v>1365</v>
       </c>
-      <c r="AK157" s="11" t="s">
+      <c r="AK157" s="18" t="s">
         <v>1366</v>
       </c>
-      <c r="AL157" s="11" t="s">
+      <c r="AL157" s="18" t="s">
         <v>1367</v>
       </c>
-      <c r="AM157" s="11" t="s">
+      <c r="AM157" s="18" t="s">
         <v>1368</v>
       </c>
-      <c r="AN157" s="11" t="s">
+      <c r="AN157" s="18" t="s">
         <v>1369</v>
       </c>
-      <c r="AO157" s="11" t="s">
+      <c r="AO157" s="18" t="s">
         <v>1370</v>
       </c>
-      <c r="AP157" s="11" t="s">
+      <c r="AP157" s="18" t="s">
         <v>1371</v>
       </c>
-      <c r="AQ157" s="11" t="s">
+      <c r="AQ157" s="18" t="s">
         <v>1372</v>
       </c>
-      <c r="AR157" s="11" t="s">
+      <c r="AR157" s="18" t="s">
         <v>1373</v>
       </c>
-      <c r="AS157" s="11" t="s">
+      <c r="AS157" s="18" t="s">
         <v>1374</v>
       </c>
-      <c r="AT157" s="11" t="s">
+      <c r="AT157" s="18" t="s">
         <v>1375</v>
       </c>
-      <c r="AU157" s="11" t="s">
+      <c r="AU157" s="18" t="s">
         <v>1376</v>
       </c>
-      <c r="AV157" s="11" t="s">
+      <c r="AV157" s="18" t="s">
         <v>1377</v>
       </c>
-      <c r="AW157" s="11" t="s">
+      <c r="AW157" s="18" t="s">
         <v>1378</v>
       </c>
-      <c r="AX157" s="11" t="s">
+      <c r="AX157" s="18" t="s">
         <v>1379</v>
       </c>
-      <c r="AY157" s="11" t="s">
+      <c r="AY157" s="18" t="s">
         <v>1380</v>
       </c>
-      <c r="AZ157" s="11" t="s">
+      <c r="AZ157" s="18" t="s">
         <v>1381</v>
       </c>
       <c r="BA157" s="11"/>
@@ -29769,7 +29773,7 @@
       <c r="CU157" s="11"/>
     </row>
     <row r="158" spans="1:99">
-      <c r="A158" s="30"/>
+      <c r="A158" s="29"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
@@ -29870,7 +29874,7 @@
       <c r="CU158" s="11"/>
     </row>
     <row r="159" spans="1:99">
-      <c r="A159" s="30"/>
+      <c r="A159" s="29"/>
       <c r="B159" s="11" t="s">
         <v>1382</v>
       </c>
@@ -30065,7 +30069,7 @@
       <c r="CU159" s="11"/>
     </row>
     <row r="160" spans="1:99">
-      <c r="A160" s="30"/>
+      <c r="A160" s="29"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
@@ -30166,7 +30170,7 @@
       <c r="CU160" s="11"/>
     </row>
     <row r="161" spans="1:99">
-      <c r="A161" s="30"/>
+      <c r="A161" s="29"/>
       <c r="B161" s="11" t="s">
         <v>1429</v>
       </c>
@@ -30355,7 +30359,7 @@
       <c r="CU161" s="11"/>
     </row>
     <row r="162" spans="1:99">
-      <c r="A162" s="30"/>
+      <c r="A162" s="29"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
@@ -30456,7 +30460,7 @@
       <c r="CU162" s="11"/>
     </row>
     <row r="163" spans="1:99">
-      <c r="A163" s="30"/>
+      <c r="A163" s="29"/>
       <c r="B163" s="11" t="s">
         <v>1473</v>
       </c>
@@ -30659,7 +30663,7 @@
       <c r="CU163" s="11"/>
     </row>
     <row r="164" spans="1:99">
-      <c r="A164" s="30"/>
+      <c r="A164" s="29"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
@@ -30760,7 +30764,7 @@
       <c r="CU164" s="11"/>
     </row>
     <row r="165" spans="1:99">
-      <c r="A165" s="30"/>
+      <c r="A165" s="29"/>
       <c r="B165" s="11" t="s">
         <v>1524</v>
       </c>
@@ -30961,7 +30965,7 @@
       <c r="CU165" s="11"/>
     </row>
     <row r="166" spans="1:99">
-      <c r="A166" s="30"/>
+      <c r="A166" s="29"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
@@ -31243,7 +31247,7 @@
       <c r="CU167" s="11"/>
     </row>
     <row r="168" spans="1:99">
-      <c r="A168" s="30" t="s">
+      <c r="A168" s="29" t="s">
         <v>1574</v>
       </c>
       <c r="B168" s="11"/>
@@ -31346,7 +31350,7 @@
       <c r="CU168" s="11"/>
     </row>
     <row r="169" spans="1:99">
-      <c r="A169" s="30"/>
+      <c r="A169" s="29"/>
       <c r="B169" s="11" t="s">
         <v>292</v>
       </c>
@@ -31457,7 +31461,7 @@
       <c r="CU169" s="11"/>
     </row>
     <row r="170" spans="1:99">
-      <c r="A170" s="30"/>
+      <c r="A170" s="29"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
@@ -31558,7 +31562,7 @@
       <c r="CU170" s="11"/>
     </row>
     <row r="171" spans="1:99">
-      <c r="A171" s="30"/>
+      <c r="A171" s="29"/>
       <c r="B171" s="11" t="s">
         <v>1575</v>
       </c>
@@ -31737,7 +31741,7 @@
       <c r="CU171" s="11"/>
     </row>
     <row r="172" spans="1:99">
-      <c r="A172" s="30"/>
+      <c r="A172" s="29"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
@@ -31838,7 +31842,7 @@
       <c r="CU172" s="11"/>
     </row>
     <row r="173" spans="1:99">
-      <c r="A173" s="30"/>
+      <c r="A173" s="29"/>
       <c r="B173" s="18" t="s">
         <v>1614</v>
       </c>
@@ -31999,7 +32003,7 @@
       <c r="CU173" s="11"/>
     </row>
     <row r="174" spans="1:99">
-      <c r="A174" s="30"/>
+      <c r="A174" s="29"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
       <c r="D174" s="11"/>
@@ -32100,7 +32104,7 @@
       <c r="CU174" s="11"/>
     </row>
     <row r="175" spans="1:99">
-      <c r="A175" s="30"/>
+      <c r="A175" s="29"/>
       <c r="B175" s="11" t="s">
         <v>1644</v>
       </c>
@@ -32281,7 +32285,7 @@
       <c r="CU175" s="11"/>
     </row>
     <row r="176" spans="1:99">
-      <c r="A176" s="30"/>
+      <c r="A176" s="29"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
       <c r="D176" s="11"/>
@@ -32382,7 +32386,7 @@
       <c r="CU176" s="11"/>
     </row>
     <row r="177" spans="1:99">
-      <c r="A177" s="30"/>
+      <c r="A177" s="29"/>
       <c r="B177" s="18" t="s">
         <v>1684</v>
       </c>
@@ -32547,7 +32551,7 @@
       <c r="CU177" s="11"/>
     </row>
     <row r="178" spans="1:99">
-      <c r="A178" s="30"/>
+      <c r="A178" s="29"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
       <c r="D178" s="11"/>
@@ -32648,7 +32652,7 @@
       <c r="CU178" s="11"/>
     </row>
     <row r="179" spans="1:99">
-      <c r="A179" s="30"/>
+      <c r="A179" s="29"/>
       <c r="B179" s="18" t="s">
         <v>1716</v>
       </c>
@@ -32783,7 +32787,7 @@
       <c r="CU179" s="11"/>
     </row>
     <row r="180" spans="1:99">
-      <c r="A180" s="30"/>
+      <c r="A180" s="29"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
       <c r="D180" s="11"/>
@@ -32884,7 +32888,7 @@
       <c r="CU180" s="11"/>
     </row>
     <row r="181" spans="1:99">
-      <c r="A181" s="30"/>
+      <c r="A181" s="29"/>
       <c r="B181" s="19" t="s">
         <v>1733</v>
       </c>
@@ -33057,7 +33061,7 @@
       <c r="CU181" s="11"/>
     </row>
     <row r="182" spans="1:99">
-      <c r="A182" s="30"/>
+      <c r="A182" s="29"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
@@ -33158,7 +33162,7 @@
       <c r="CU182" s="11"/>
     </row>
     <row r="183" spans="1:99">
-      <c r="A183" s="30"/>
+      <c r="A183" s="29"/>
       <c r="B183" s="19" t="s">
         <v>1769</v>
       </c>
@@ -33327,7 +33331,7 @@
       <c r="CU183" s="11"/>
     </row>
     <row r="184" spans="1:99">
-      <c r="A184" s="30"/>
+      <c r="A184" s="29"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
@@ -33428,7 +33432,7 @@
       <c r="CU184" s="11"/>
     </row>
     <row r="185" spans="1:99">
-      <c r="A185" s="30"/>
+      <c r="A185" s="29"/>
       <c r="B185" s="18" t="s">
         <v>1803</v>
       </c>
@@ -33593,7 +33597,7 @@
       <c r="CU185" s="11"/>
     </row>
     <row r="186" spans="1:99">
-      <c r="A186" s="30"/>
+      <c r="A186" s="29"/>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
@@ -33694,7 +33698,7 @@
       <c r="CU186" s="11"/>
     </row>
     <row r="187" spans="1:99">
-      <c r="A187" s="30"/>
+      <c r="A187" s="29"/>
       <c r="B187" s="11" t="s">
         <v>1835</v>
       </c>
@@ -33831,7 +33835,7 @@
       <c r="CU187" s="11"/>
     </row>
     <row r="188" spans="1:99">
-      <c r="A188" s="30"/>
+      <c r="A188" s="29"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
@@ -33932,7 +33936,7 @@
       <c r="CU188" s="11"/>
     </row>
     <row r="189" spans="1:99">
-      <c r="A189" s="30"/>
+      <c r="A189" s="29"/>
       <c r="B189" s="11" t="s">
         <v>1853</v>
       </c>
@@ -34115,7 +34119,7 @@
       <c r="CU189" s="11"/>
     </row>
     <row r="190" spans="1:99">
-      <c r="A190" s="30"/>
+      <c r="A190" s="29"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
@@ -34216,7 +34220,7 @@
       <c r="CU190" s="11"/>
     </row>
     <row r="191" spans="1:99">
-      <c r="A191" s="30"/>
+      <c r="A191" s="29"/>
       <c r="B191" s="11" t="s">
         <v>1894</v>
       </c>
@@ -34361,7 +34365,7 @@
       <c r="CU191" s="11"/>
     </row>
     <row r="192" spans="1:99">
-      <c r="A192" s="30"/>
+      <c r="A192" s="29"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
       <c r="D192" s="11"/>
@@ -34462,7 +34466,7 @@
       <c r="CU192" s="11"/>
     </row>
     <row r="193" spans="1:99">
-      <c r="A193" s="30"/>
+      <c r="A193" s="29"/>
       <c r="B193" s="18" t="s">
         <v>1916</v>
       </c>
@@ -34663,7 +34667,7 @@
       <c r="CU193" s="11"/>
     </row>
     <row r="194" spans="1:99">
-      <c r="A194" s="30"/>
+      <c r="A194" s="29"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
@@ -34764,7 +34768,7 @@
       <c r="CU194" s="11"/>
     </row>
     <row r="195" spans="1:99">
-      <c r="A195" s="30"/>
+      <c r="A195" s="29"/>
       <c r="B195" s="18" t="s">
         <v>1966</v>
       </c>
@@ -34931,7 +34935,7 @@
       <c r="CU195" s="11"/>
     </row>
     <row r="196" spans="1:99">
-      <c r="A196" s="30"/>
+      <c r="A196" s="29"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
@@ -35032,7 +35036,7 @@
       <c r="CU196" s="11"/>
     </row>
     <row r="197" spans="1:99">
-      <c r="A197" s="30"/>
+      <c r="A197" s="29"/>
       <c r="B197" s="11" t="s">
         <v>1999</v>
       </c>
@@ -35169,7 +35173,7 @@
       <c r="CU197" s="11"/>
     </row>
     <row r="198" spans="1:99">
-      <c r="A198" s="30"/>
+      <c r="A198" s="29"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
       <c r="D198" s="11"/>
@@ -35270,7 +35274,7 @@
       <c r="CU198" s="11"/>
     </row>
     <row r="199" spans="1:99">
-      <c r="A199" s="30"/>
+      <c r="A199" s="29"/>
       <c r="B199" s="11" t="s">
         <v>2017</v>
       </c>
@@ -35423,7 +35427,7 @@
       <c r="CU199" s="11"/>
     </row>
     <row r="200" spans="1:99">
-      <c r="A200" s="30"/>
+      <c r="A200" s="29"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
       <c r="D200" s="11"/>
@@ -35524,7 +35528,7 @@
       <c r="CU200" s="11"/>
     </row>
     <row r="201" spans="1:99">
-      <c r="A201" s="30"/>
+      <c r="A201" s="29"/>
       <c r="B201" s="11" t="s">
         <v>2043</v>
       </c>
@@ -35671,7 +35675,7 @@
       <c r="CU201" s="11"/>
     </row>
     <row r="202" spans="1:99">
-      <c r="A202" s="30"/>
+      <c r="A202" s="29"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
       <c r="D202" s="11"/>
@@ -35772,7 +35776,7 @@
       <c r="CU202" s="11"/>
     </row>
     <row r="203" spans="1:99">
-      <c r="A203" s="30"/>
+      <c r="A203" s="29"/>
       <c r="B203" s="11" t="s">
         <v>2066</v>
       </c>
@@ -35927,7 +35931,7 @@
       <c r="CU203" s="11"/>
     </row>
     <row r="204" spans="1:99">
-      <c r="A204" s="30"/>
+      <c r="A204" s="29"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
       <c r="D204" s="11"/>
@@ -36028,7 +36032,7 @@
       <c r="CU204" s="11"/>
     </row>
     <row r="205" spans="1:99">
-      <c r="A205" s="30"/>
+      <c r="A205" s="29"/>
       <c r="B205" s="11" t="s">
         <v>2093</v>
       </c>
@@ -36189,7 +36193,7 @@
       <c r="CU205" s="11"/>
     </row>
     <row r="206" spans="1:99">
-      <c r="A206" s="30"/>
+      <c r="A206" s="29"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
       <c r="D206" s="11"/>
@@ -36290,7 +36294,7 @@
       <c r="CU206" s="11"/>
     </row>
     <row r="207" spans="1:99">
-      <c r="A207" s="30"/>
+      <c r="A207" s="29"/>
       <c r="B207" s="18" t="s">
         <v>2123</v>
       </c>
@@ -36465,7 +36469,7 @@
       <c r="CU207" s="11"/>
     </row>
     <row r="208" spans="1:99">
-      <c r="A208" s="30"/>
+      <c r="A208" s="29"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
       <c r="D208" s="11"/>
@@ -36747,7 +36751,7 @@
       <c r="CU209" s="11"/>
     </row>
     <row r="210" spans="1:99">
-      <c r="A210" s="30" t="s">
+      <c r="A210" s="29" t="s">
         <v>2160</v>
       </c>
       <c r="B210" s="11"/>
@@ -36850,7 +36854,7 @@
       <c r="CU210" s="11"/>
     </row>
     <row r="211" spans="1:99">
-      <c r="A211" s="30"/>
+      <c r="A211" s="29"/>
       <c r="B211" s="11" t="s">
         <v>389</v>
       </c>
@@ -36965,7 +36969,7 @@
       <c r="CU211" s="11"/>
     </row>
     <row r="212" spans="1:99">
-      <c r="A212" s="30"/>
+      <c r="A212" s="29"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
       <c r="D212" s="11"/>
@@ -37066,7 +37070,7 @@
       <c r="CU212" s="11"/>
     </row>
     <row r="213" spans="1:99">
-      <c r="A213" s="30"/>
+      <c r="A213" s="29"/>
       <c r="B213" s="11" t="s">
         <v>2161</v>
       </c>
@@ -37231,7 +37235,7 @@
       <c r="CU213" s="11"/>
     </row>
     <row r="214" spans="1:99">
-      <c r="A214" s="30"/>
+      <c r="A214" s="29"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
       <c r="D214" s="11"/>
@@ -37332,7 +37336,7 @@
       <c r="CU214" s="11"/>
     </row>
     <row r="215" spans="1:99">
-      <c r="A215" s="30"/>
+      <c r="A215" s="29"/>
       <c r="B215" s="18" t="s">
         <v>2193</v>
       </c>
@@ -37481,7 +37485,7 @@
       <c r="CU215" s="11"/>
     </row>
     <row r="216" spans="1:99">
-      <c r="A216" s="30"/>
+      <c r="A216" s="29"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
       <c r="D216" s="11"/>
@@ -37582,7 +37586,7 @@
       <c r="CU216" s="11"/>
     </row>
     <row r="217" spans="1:99">
-      <c r="A217" s="30"/>
+      <c r="A217" s="29"/>
       <c r="B217" s="11" t="s">
         <v>2217</v>
       </c>
@@ -37713,7 +37717,7 @@
       <c r="CU217" s="11"/>
     </row>
     <row r="218" spans="1:99">
-      <c r="A218" s="30"/>
+      <c r="A218" s="29"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
       <c r="D218" s="11"/>
@@ -37814,7 +37818,7 @@
       <c r="CU218" s="11"/>
     </row>
     <row r="219" spans="1:99">
-      <c r="A219" s="30"/>
+      <c r="A219" s="29"/>
       <c r="B219" s="11" t="s">
         <v>2232</v>
       </c>
@@ -37945,7 +37949,7 @@
       <c r="CU219" s="11"/>
     </row>
     <row r="220" spans="1:99">
-      <c r="A220" s="30"/>
+      <c r="A220" s="29"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
       <c r="D220" s="11"/>
@@ -38046,7 +38050,7 @@
       <c r="CU220" s="11"/>
     </row>
     <row r="221" spans="1:99">
-      <c r="A221" s="30"/>
+      <c r="A221" s="29"/>
       <c r="B221" s="11" t="s">
         <v>2247</v>
       </c>
@@ -38169,7 +38173,7 @@
       <c r="CU221" s="11"/>
     </row>
     <row r="222" spans="1:99">
-      <c r="A222" s="30"/>
+      <c r="A222" s="29"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
       <c r="D222" s="11"/>
@@ -38270,7 +38274,7 @@
       <c r="CU222" s="11"/>
     </row>
     <row r="223" spans="1:99">
-      <c r="A223" s="30"/>
+      <c r="A223" s="29"/>
       <c r="B223" s="11" t="s">
         <v>2258</v>
       </c>
@@ -38403,7 +38407,7 @@
       <c r="CU223" s="11"/>
     </row>
     <row r="224" spans="1:99">
-      <c r="A224" s="30"/>
+      <c r="A224" s="29"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
       <c r="D224" s="11"/>
@@ -38504,7 +38508,7 @@
       <c r="CU224" s="11"/>
     </row>
     <row r="225" spans="1:99">
-      <c r="A225" s="30"/>
+      <c r="A225" s="29"/>
       <c r="B225" s="11" t="s">
         <v>2274</v>
       </c>
@@ -38633,7 +38637,7 @@
       <c r="CU225" s="11"/>
     </row>
     <row r="226" spans="1:99">
-      <c r="A226" s="30"/>
+      <c r="A226" s="29"/>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
       <c r="D226" s="11"/>
@@ -38734,7 +38738,7 @@
       <c r="CU226" s="11"/>
     </row>
     <row r="227" spans="1:99">
-      <c r="A227" s="30"/>
+      <c r="A227" s="29"/>
       <c r="B227" s="11" t="s">
         <v>2288</v>
       </c>
@@ -38863,7 +38867,7 @@
       <c r="CU227" s="11"/>
     </row>
     <row r="228" spans="1:99">
-      <c r="A228" s="30"/>
+      <c r="A228" s="29"/>
       <c r="B228" s="11"/>
       <c r="C228" s="11"/>
       <c r="D228" s="11"/>
@@ -38964,7 +38968,7 @@
       <c r="CU228" s="11"/>
     </row>
     <row r="229" spans="1:99">
-      <c r="A229" s="30"/>
+      <c r="A229" s="29"/>
       <c r="B229" s="11"/>
       <c r="C229" s="11"/>
       <c r="D229" s="11"/>
@@ -39065,7 +39069,7 @@
       <c r="CU229" s="11"/>
     </row>
     <row r="230" spans="1:99">
-      <c r="A230" s="30"/>
+      <c r="A230" s="29"/>
       <c r="B230" s="11"/>
       <c r="C230" s="11"/>
       <c r="D230" s="11"/>
@@ -39166,7 +39170,7 @@
       <c r="CU230" s="11"/>
     </row>
     <row r="231" spans="1:99">
-      <c r="A231" s="30"/>
+      <c r="A231" s="29"/>
       <c r="B231" s="11" t="s">
         <v>2302</v>
       </c>
@@ -39321,7 +39325,7 @@
       <c r="CU231" s="11"/>
     </row>
     <row r="232" spans="1:99">
-      <c r="A232" s="30"/>
+      <c r="A232" s="29"/>
       <c r="B232" s="11"/>
       <c r="C232" s="11"/>
       <c r="D232" s="11"/>
@@ -39422,7 +39426,7 @@
       <c r="CU232" s="11"/>
     </row>
     <row r="233" spans="1:99">
-      <c r="A233" s="30"/>
+      <c r="A233" s="29"/>
       <c r="B233" s="11" t="s">
         <v>2329</v>
       </c>
@@ -39549,7 +39553,7 @@
       <c r="CU233" s="11"/>
     </row>
     <row r="234" spans="1:99">
-      <c r="A234" s="30"/>
+      <c r="A234" s="29"/>
       <c r="B234" s="11"/>
       <c r="C234" s="11"/>
       <c r="D234" s="11"/>
@@ -39650,7 +39654,7 @@
       <c r="CU234" s="11"/>
     </row>
     <row r="235" spans="1:99">
-      <c r="A235" s="30"/>
+      <c r="A235" s="29"/>
       <c r="B235" s="18" t="s">
         <v>2342</v>
       </c>
@@ -39839,7 +39843,7 @@
       <c r="CU235" s="11"/>
     </row>
     <row r="236" spans="1:99">
-      <c r="A236" s="30"/>
+      <c r="A236" s="29"/>
       <c r="B236" s="11"/>
       <c r="C236" s="11"/>
       <c r="D236" s="11"/>
@@ -39940,7 +39944,7 @@
       <c r="CU236" s="11"/>
     </row>
     <row r="237" spans="1:99">
-      <c r="A237" s="30"/>
+      <c r="A237" s="29"/>
       <c r="B237" s="11" t="s">
         <v>2386</v>
       </c>
@@ -40081,7 +40085,7 @@
       <c r="CU237" s="11"/>
     </row>
     <row r="238" spans="1:99">
-      <c r="A238" s="30"/>
+      <c r="A238" s="29"/>
       <c r="B238" s="11"/>
       <c r="C238" s="11"/>
       <c r="D238" s="11"/>
@@ -40182,7 +40186,7 @@
       <c r="CU238" s="11"/>
     </row>
     <row r="239" spans="1:99">
-      <c r="A239" s="30"/>
+      <c r="A239" s="29"/>
       <c r="B239" s="11" t="s">
         <v>2406</v>
       </c>
@@ -40303,7 +40307,7 @@
       <c r="CU239" s="11"/>
     </row>
     <row r="240" spans="1:99">
-      <c r="A240" s="30"/>
+      <c r="A240" s="29"/>
       <c r="B240" s="11"/>
       <c r="C240" s="11"/>
       <c r="D240" s="11"/>
@@ -40404,7 +40408,7 @@
       <c r="CU240" s="11"/>
     </row>
     <row r="241" spans="1:99">
-      <c r="A241" s="30"/>
+      <c r="A241" s="29"/>
       <c r="B241" s="11" t="s">
         <v>2416</v>
       </c>
@@ -40539,7 +40543,7 @@
       <c r="CU241" s="11"/>
     </row>
     <row r="242" spans="1:99">
-      <c r="A242" s="30"/>
+      <c r="A242" s="29"/>
       <c r="B242" s="11"/>
       <c r="C242" s="11"/>
       <c r="D242" s="11"/>
@@ -40640,7 +40644,7 @@
       <c r="CU242" s="11"/>
     </row>
     <row r="243" spans="1:99">
-      <c r="A243" s="30"/>
+      <c r="A243" s="29"/>
       <c r="B243" s="11" t="s">
         <v>2433</v>
       </c>
@@ -40777,7 +40781,7 @@
       <c r="CU243" s="11"/>
     </row>
     <row r="244" spans="1:99">
-      <c r="A244" s="30"/>
+      <c r="A244" s="29"/>
       <c r="B244" s="11"/>
       <c r="C244" s="11"/>
       <c r="D244" s="11"/>
@@ -40878,7 +40882,7 @@
       <c r="CU244" s="11"/>
     </row>
     <row r="245" spans="1:99">
-      <c r="A245" s="30"/>
+      <c r="A245" s="29"/>
       <c r="B245" s="11" t="s">
         <v>2451</v>
       </c>
@@ -41009,7 +41013,7 @@
       <c r="CU245" s="11"/>
     </row>
     <row r="246" spans="1:99">
-      <c r="A246" s="30"/>
+      <c r="A246" s="29"/>
       <c r="B246" s="11"/>
       <c r="C246" s="11"/>
       <c r="D246" s="11"/>
@@ -41110,7 +41114,7 @@
       <c r="CU246" s="11"/>
     </row>
     <row r="247" spans="1:99">
-      <c r="A247" s="30"/>
+      <c r="A247" s="29"/>
       <c r="B247" s="11" t="s">
         <v>2466</v>
       </c>
@@ -41225,7 +41229,7 @@
       <c r="CU247" s="11"/>
     </row>
     <row r="248" spans="1:99">
-      <c r="A248" s="30"/>
+      <c r="A248" s="29"/>
       <c r="B248" s="11"/>
       <c r="C248" s="11"/>
       <c r="D248" s="11"/>
@@ -41326,7 +41330,7 @@
       <c r="CU248" s="11"/>
     </row>
     <row r="249" spans="1:99">
-      <c r="A249" s="30"/>
+      <c r="A249" s="29"/>
       <c r="B249" s="11" t="s">
         <v>2473</v>
       </c>
@@ -41497,7 +41501,7 @@
       <c r="CU249" s="11"/>
     </row>
     <row r="250" spans="1:99">
-      <c r="A250" s="30"/>
+      <c r="A250" s="29"/>
       <c r="B250" s="11"/>
       <c r="C250" s="11"/>
       <c r="D250" s="11"/>
@@ -49095,42 +49099,43 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N22" sqref="N22"/>
+      <selection pane="topRight" activeCell="E18" sqref="E18"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="1"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
       <c r="Q1" s="2"/>
-      <c r="R1" s="29" t="s">
+      <c r="R1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="3"/>

--- a/output/basis_character_new.xlsx
+++ b/output/basis_character_new.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="character_table" sheetId="2" r:id="rId1"/>
     <sheet name="case4~6" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3327" uniqueCount="2636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3679" uniqueCount="2813">
   <si>
     <t>Case4(2.11개)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -8006,10 +8009,6 @@
   </si>
   <si>
     <t>볶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄲ(1)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -8900,10 +8899,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ㅏ(2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -9366,10 +9361,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>여기부터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>check</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -9398,15 +9389,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ㅝ(1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>푤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄹ(1)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -10508,19 +10491,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ㅑ(1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄴ(1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>쫬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅘ(2)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -10713,23 +10684,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ㅚ(1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅟ(1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>뜁</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>뎄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅆ(3)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -11047,10 +11006,6 @@
   </si>
   <si>
     <t>쌩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅇ(2)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -13581,10 +13536,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ㅛ(2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ㅅ(3)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -13597,10 +13548,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ㄱ(3)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>틥</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -13614,10 +13561,6 @@
   </si>
   <si>
     <t>큠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅠ(2)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -19778,6 +19721,78 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>ㄹ(2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅠ(3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅝ(2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ(2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초성 ㅋ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초성 ㅊ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초성 ㅆ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">초성 ㄴ </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초성 ㄷ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초성 ㄹ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초성 ㅋ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초성 ㅈ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>팎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뿅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>츌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -20342,12 +20357,33 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>촐
+      <t xml:space="preserve">촐
 촬
 쵤
 출
 췰
-츌
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>츌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 츨</t>
     </r>
     <r>
@@ -20551,11 +20587,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ㄹ(2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅠ(3)</t>
+    <t>여기부터</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -20563,11 +20595,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ㅝ(2)</t>
+    <t>중성-&gt;종성 제거</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ㄴ(2)</t>
+    <t>캭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄱ(4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅑ(2)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -21168,14 +21208,80 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-촌
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>촌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 촨
 쵠
-춘
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>춘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 췐
 췬
-츈
-츤
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>츈
+츤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -21339,23 +21445,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>case4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초성 ㅋ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>case5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초성 ㅊ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>칵
+    <r>
+      <t xml:space="preserve">칵
 칸
 칼
 캄
@@ -21370,7 +21461,29 @@
 캣
 캤
 캥
-캭
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>캭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 컁
 컥
 컨
@@ -21395,29 +21508,280 @@
 켯
 켰
 켱
-콕
-콘
-콜
-콤
-콥
-콧
-콩
-콱
+킥
+킨
+킬
+킴
+킵
+킷
+킹</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쐴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">쏵
+쏸
+쐈
+쐤
+쐰
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>쐴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+쐼
+쐽
+쒔
+쒼
+씐
+씔
+씜</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅟ(2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">놘
+놜
+놨
+뇐
+뇔
+뇜
+뇝
+뇟
+눴
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>뉜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+뉠
+뉨
+뉩
+늰
+늴</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>됐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅙ(2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅆ(4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">돤
+돨
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>됐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+된
+될
+됨
+됩
+됫
+뒀
+뒝
+뒨
+뒬
+뒵
+뒷
+뒹</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뢍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">롼
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>뢍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+뢨
+뢴
+뢸
+룀
+룁
+룃
+룅
+뤘
+뤽
+륀
+륄
+륌
+륏
+륑</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뢨 -&gt; 뢍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅘ(3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ(4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>췐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ(4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅞ(3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅝ(3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄹ(4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">콱
 콴
 콸
 쾀
 쾅
 쾡
 쾰
-쿡
-쿤
-쿨
-쿰
-쿱
-쿳
-쿵
 퀀
-퀄
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>퀄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 퀑
 퀭
 퀵
@@ -21426,51 +21790,743 @@
 큄
 큅
 큇
-큉
-큔
-큘
-큠
-큭
-큰
-클
-큼
-큽
-킁
-킥
-킨
-킬
-킴
-킵
-킷
-킹</t>
+큉</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>초성 ㅆ</t>
+    <r>
+      <t xml:space="preserve">촨
+촬
+촹
+쵠
+쵤
+쵬
+쵭
+쵯
+쵱
+췄
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>췐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+췬
+췰
+췸
+췹
+췻
+췽</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">초성 ㄴ </t>
+    <t>죗</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>초성 ㄷ</t>
+    <t>ㅚ(2)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>초성 ㄹ</t>
+    <r>
+      <t xml:space="preserve">좍
+좔
+좝
+좟
+좡
+좼
+좽
+죈
+죌
+죔
+죕
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>죗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+죙
+줬
+쥑
+쥔
+쥘
+쥠
+쥡
+쥣</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>초성 ㅋ</t>
+    <t>ㄱ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>초성 ㅈ</t>
+    <t>ㄲ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>case6</t>
+    <t>ㄳ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄵ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄶ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄷ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄹ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄺ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄻ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄼ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄽ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄾ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄿ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅀ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅁ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅂ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅄ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅅ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅆ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅈ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅊ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅌ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅍ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅎ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅏ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅐ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅑ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅒ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅓ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅕ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅖ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅣ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅗ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅛ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅜ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅠ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅡ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅘ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅙ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅚ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅝ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅞ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅟ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅢ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄸ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄹ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅃ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅅ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅈ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅉ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅌ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>걔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>께</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>녀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뎨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>때</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뺘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>섀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쩌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>챠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>커</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>펴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>혜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>규</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>끄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>됴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>또</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>루</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뮤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>브</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뽀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쑈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쥬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쭈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>츠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>툐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>긔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>늬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>돠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>똬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뤄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>봬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뾔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쐐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쮜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>취</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>퉈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>퐈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>훼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>께</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>녀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뎨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>때</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쩌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>챠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>커</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>펴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>됴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>또</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>루</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>브</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쑈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쥬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>긔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>돠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뤄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>봬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뾔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>취</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>섐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>얹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>짚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뇻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뿅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>괆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>췐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>틥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>풩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄱ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅃ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅅ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅈ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅍ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -21478,7 +22534,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -21548,8 +22604,57 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -21574,13 +22679,453 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4BACC6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="31">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -21589,7 +23134,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -21683,6 +23228,237 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -21695,6 +23471,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF4BACC6"/>
+      <color rgb="FFFFC000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -21971,14 +23753,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CU324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="G224" sqref="G224"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="109" t="s">
         <v>82</v>
       </c>
       <c r="B1" t="s">
@@ -22010,10 +23792,10 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
+      <c r="A2" s="109"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
+      <c r="A3" s="109"/>
       <c r="B3" s="17" t="s">
         <v>92</v>
       </c>
@@ -22055,7 +23837,7 @@
       <c r="T3" s="10"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
+      <c r="A4" s="109"/>
       <c r="B4" s="10"/>
       <c r="C4" s="20"/>
       <c r="D4" s="10"/>
@@ -22076,7 +23858,7 @@
       <c r="T4" s="10"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
+      <c r="A5" s="109"/>
       <c r="B5" s="17" t="s">
         <v>102</v>
       </c>
@@ -22118,7 +23900,7 @@
       <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
+      <c r="A6" s="109"/>
       <c r="B6" s="10"/>
       <c r="C6" s="20"/>
       <c r="D6" s="10"/>
@@ -22139,7 +23921,7 @@
       <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
+      <c r="A7" s="109"/>
       <c r="B7" s="17" t="s">
         <v>110</v>
       </c>
@@ -22181,7 +23963,7 @@
       <c r="T7" s="10"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
+      <c r="A8" s="109"/>
       <c r="B8" s="10"/>
       <c r="C8" s="20"/>
       <c r="D8" s="10"/>
@@ -22202,7 +23984,7 @@
       <c r="T8" s="10"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
+      <c r="A9" s="109"/>
       <c r="B9" s="17" t="s">
         <v>118</v>
       </c>
@@ -22244,7 +24026,7 @@
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
+      <c r="A10" s="109"/>
       <c r="B10" s="10"/>
       <c r="C10" s="20"/>
       <c r="D10" s="10"/>
@@ -22265,7 +24047,7 @@
       <c r="T10" s="10"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
+      <c r="A11" s="109"/>
       <c r="B11" s="17" t="s">
         <v>126</v>
       </c>
@@ -22307,7 +24089,7 @@
       <c r="T11" s="10"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
+      <c r="A12" s="109"/>
       <c r="B12" s="10"/>
       <c r="C12" s="20"/>
       <c r="D12" s="10"/>
@@ -22328,7 +24110,7 @@
       <c r="T12" s="10"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="17" t="s">
         <v>132</v>
       </c>
@@ -22370,7 +24152,7 @@
       <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
+      <c r="A14" s="109"/>
       <c r="B14" s="10"/>
       <c r="C14" s="20"/>
       <c r="D14" s="10"/>
@@ -22391,7 +24173,7 @@
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
+      <c r="A15" s="109"/>
       <c r="B15" s="19" t="s">
         <v>140</v>
       </c>
@@ -22433,7 +24215,7 @@
       <c r="T15" s="10"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
+      <c r="A16" s="109"/>
       <c r="B16" s="10"/>
       <c r="C16" s="20"/>
       <c r="D16" s="10"/>
@@ -22454,7 +24236,7 @@
       <c r="T16" s="10"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
+      <c r="A17" s="109"/>
       <c r="B17" s="17" t="s">
         <v>148</v>
       </c>
@@ -22496,7 +24278,7 @@
       <c r="T17" s="10"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
+      <c r="A18" s="109"/>
       <c r="B18" s="10"/>
       <c r="C18" s="20"/>
       <c r="D18" s="10"/>
@@ -22517,7 +24299,7 @@
       <c r="T18" s="10"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
+      <c r="A19" s="109"/>
       <c r="B19" s="17" t="s">
         <v>156</v>
       </c>
@@ -22559,7 +24341,7 @@
       <c r="T19" s="10"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="32"/>
+      <c r="A20" s="109"/>
       <c r="B20" s="10"/>
       <c r="C20" s="20"/>
       <c r="D20" s="10"/>
@@ -22580,7 +24362,7 @@
       <c r="T20" s="10"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="32"/>
+      <c r="A21" s="109"/>
       <c r="B21" s="17" t="s">
         <v>163</v>
       </c>
@@ -22622,7 +24404,7 @@
       <c r="T21" s="10"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
+      <c r="A22" s="109"/>
       <c r="B22" s="10"/>
       <c r="C22" s="20"/>
       <c r="D22" s="10"/>
@@ -22643,7 +24425,7 @@
       <c r="T22" s="10"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
+      <c r="A23" s="109"/>
       <c r="B23" s="19" t="s">
         <v>172</v>
       </c>
@@ -22685,7 +24467,7 @@
       <c r="T23" s="10"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="32"/>
+      <c r="A24" s="109"/>
       <c r="B24" s="10"/>
       <c r="C24" s="20"/>
       <c r="D24" s="10"/>
@@ -22706,7 +24488,7 @@
       <c r="T24" s="10"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="32"/>
+      <c r="A25" s="109"/>
       <c r="B25" s="17" t="s">
         <v>177</v>
       </c>
@@ -22748,7 +24530,7 @@
       <c r="T25" s="10"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="32"/>
+      <c r="A26" s="109"/>
       <c r="B26" s="10"/>
       <c r="C26" s="20"/>
       <c r="D26" s="10"/>
@@ -22769,7 +24551,7 @@
       <c r="T26" s="10"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="32"/>
+      <c r="A27" s="109"/>
       <c r="B27" s="19" t="s">
         <v>186</v>
       </c>
@@ -22811,7 +24593,7 @@
       <c r="T27" s="10"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="32"/>
+      <c r="A28" s="109"/>
       <c r="B28" s="10"/>
       <c r="C28" s="20"/>
       <c r="D28" s="10"/>
@@ -22832,7 +24614,7 @@
       <c r="T28" s="10"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="32"/>
+      <c r="A29" s="109"/>
       <c r="B29" s="17" t="s">
         <v>195</v>
       </c>
@@ -22874,7 +24656,7 @@
       <c r="T29" s="10"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="32"/>
+      <c r="A30" s="109"/>
       <c r="B30" s="10"/>
       <c r="C30" s="20"/>
       <c r="D30" s="10"/>
@@ -22895,7 +24677,7 @@
       <c r="T30" s="10"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="32"/>
+      <c r="A31" s="109"/>
       <c r="B31" s="17" t="s">
         <v>202</v>
       </c>
@@ -22937,7 +24719,7 @@
       <c r="T31" s="10"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="32"/>
+      <c r="A32" s="109"/>
       <c r="B32" s="10"/>
       <c r="C32" s="20"/>
       <c r="D32" s="10"/>
@@ -22958,7 +24740,7 @@
       <c r="T32" s="10"/>
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A33" s="32"/>
+      <c r="A33" s="109"/>
       <c r="B33" s="17" t="s">
         <v>210</v>
       </c>
@@ -23000,7 +24782,7 @@
       <c r="T33" s="10"/>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A34" s="32"/>
+      <c r="A34" s="109"/>
       <c r="B34" s="10"/>
       <c r="C34" s="20"/>
       <c r="D34" s="10"/>
@@ -23021,7 +24803,7 @@
       <c r="T34" s="10"/>
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A35" s="32"/>
+      <c r="A35" s="109"/>
       <c r="B35" s="17" t="s">
         <v>218</v>
       </c>
@@ -23063,7 +24845,7 @@
       <c r="T35" s="10"/>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A36" s="32"/>
+      <c r="A36" s="109"/>
       <c r="B36" s="10"/>
       <c r="C36" s="20"/>
       <c r="D36" s="10"/>
@@ -23084,7 +24866,7 @@
       <c r="T36" s="10"/>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A37" s="32"/>
+      <c r="A37" s="109"/>
       <c r="B37" s="17" t="s">
         <v>226</v>
       </c>
@@ -23126,7 +24908,7 @@
       <c r="T37" s="10"/>
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A38" s="32"/>
+      <c r="A38" s="109"/>
       <c r="B38" s="10"/>
       <c r="C38" s="20"/>
       <c r="D38" s="10"/>
@@ -23147,7 +24929,7 @@
       <c r="T38" s="10"/>
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A39" s="32"/>
+      <c r="A39" s="109"/>
       <c r="B39" s="17" t="s">
         <v>234</v>
       </c>
@@ -23189,7 +24971,7 @@
       <c r="T39" s="10"/>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A40" s="32"/>
+      <c r="A40" s="109"/>
       <c r="B40" s="10"/>
       <c r="C40" s="20"/>
       <c r="D40" s="10"/>
@@ -23323,12 +25105,12 @@
       </c>
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="109" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A43" s="32"/>
+      <c r="A43" s="109"/>
       <c r="B43" t="s">
         <v>244</v>
       </c>
@@ -23346,10 +25128,10 @@
       </c>
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A44" s="32"/>
+      <c r="A44" s="109"/>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A45" s="32"/>
+      <c r="A45" s="109"/>
       <c r="B45" s="17" t="s">
         <v>249</v>
       </c>
@@ -23394,7 +25176,7 @@
       </c>
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A46" s="32"/>
+      <c r="A46" s="109"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -23402,7 +25184,7 @@
       <c r="F46" s="10"/>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A47" s="32"/>
+      <c r="A47" s="109"/>
       <c r="B47" s="17" t="s">
         <v>254</v>
       </c>
@@ -23447,7 +25229,7 @@
       </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A48" s="32"/>
+      <c r="A48" s="109"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -23455,7 +25237,7 @@
       <c r="F48" s="10"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="32"/>
+      <c r="A49" s="109"/>
       <c r="B49" s="19" t="s">
         <v>259</v>
       </c>
@@ -23500,7 +25282,7 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="32"/>
+      <c r="A50" s="109"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -23508,7 +25290,7 @@
       <c r="F50" s="10"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="32"/>
+      <c r="A51" s="109"/>
       <c r="B51" s="17" t="s">
         <v>264</v>
       </c>
@@ -23553,7 +25335,7 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="32"/>
+      <c r="A52" s="109"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -23561,7 +25343,7 @@
       <c r="F52" s="10"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="32"/>
+      <c r="A53" s="109"/>
       <c r="B53" s="19" t="s">
         <v>269</v>
       </c>
@@ -23600,7 +25382,7 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="32"/>
+      <c r="A54" s="109"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -23608,7 +25390,7 @@
       <c r="F54" s="10"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" s="32"/>
+      <c r="A55" s="109"/>
       <c r="B55" s="17" t="s">
         <v>272</v>
       </c>
@@ -23653,7 +25435,7 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" s="32"/>
+      <c r="A56" s="109"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -23661,7 +25443,7 @@
       <c r="F56" s="10"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57" s="32"/>
+      <c r="A57" s="109"/>
       <c r="B57" s="17" t="s">
         <v>277</v>
       </c>
@@ -23706,7 +25488,7 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" s="32"/>
+      <c r="A58" s="109"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -23714,7 +25496,7 @@
       <c r="F58" s="10"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59" s="32"/>
+      <c r="A59" s="109"/>
       <c r="B59" s="17" t="s">
         <v>282</v>
       </c>
@@ -23759,7 +25541,7 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60" s="32"/>
+      <c r="A60" s="109"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
@@ -23767,7 +25549,7 @@
       <c r="F60" s="10"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61" s="32"/>
+      <c r="A61" s="109"/>
       <c r="B61" s="19" t="s">
         <v>287</v>
       </c>
@@ -23812,7 +25594,7 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" s="32"/>
+      <c r="A62" s="109"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -23820,7 +25602,7 @@
       <c r="F62" s="10"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63" s="32"/>
+      <c r="A63" s="109"/>
       <c r="B63" s="17" t="s">
         <v>292</v>
       </c>
@@ -23865,7 +25647,7 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A64" s="32"/>
+      <c r="A64" s="109"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
@@ -23873,7 +25655,7 @@
       <c r="F64" s="10"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A65" s="32"/>
+      <c r="A65" s="109"/>
       <c r="B65" s="17" t="s">
         <v>297</v>
       </c>
@@ -23915,7 +25697,7 @@
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A66" s="32"/>
+      <c r="A66" s="109"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -23923,7 +25705,7 @@
       <c r="F66" s="10"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A67" s="32"/>
+      <c r="A67" s="109"/>
       <c r="B67" s="17" t="s">
         <v>301</v>
       </c>
@@ -23968,7 +25750,7 @@
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A68" s="32"/>
+      <c r="A68" s="109"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -23976,7 +25758,7 @@
       <c r="F68" s="10"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A69" s="32"/>
+      <c r="A69" s="109"/>
       <c r="B69" s="17" t="s">
         <v>306</v>
       </c>
@@ -24021,7 +25803,7 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A70" s="32"/>
+      <c r="A70" s="109"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -24029,7 +25811,7 @@
       <c r="F70" s="10"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71" s="32"/>
+      <c r="A71" s="109"/>
       <c r="B71" s="17" t="s">
         <v>311</v>
       </c>
@@ -24071,7 +25853,7 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" s="32"/>
+      <c r="A72" s="109"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
@@ -24079,7 +25861,7 @@
       <c r="F72" s="10"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A73" s="32"/>
+      <c r="A73" s="109"/>
       <c r="B73" s="17" t="s">
         <v>315</v>
       </c>
@@ -24124,7 +25906,7 @@
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A74" s="32"/>
+      <c r="A74" s="109"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
@@ -24132,7 +25914,7 @@
       <c r="F74" s="10"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A75" s="32"/>
+      <c r="A75" s="109"/>
       <c r="B75" s="19" t="s">
         <v>320</v>
       </c>
@@ -24177,7 +25959,7 @@
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A76" s="32"/>
+      <c r="A76" s="109"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
@@ -24185,7 +25967,7 @@
       <c r="F76" s="10"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A77" s="32"/>
+      <c r="A77" s="109"/>
       <c r="B77" s="17" t="s">
         <v>325</v>
       </c>
@@ -24230,7 +26012,7 @@
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A78" s="32"/>
+      <c r="A78" s="109"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
@@ -24238,7 +26020,7 @@
       <c r="F78" s="10"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A79" s="32"/>
+      <c r="A79" s="109"/>
       <c r="B79" s="17" t="s">
         <v>330</v>
       </c>
@@ -24283,7 +26065,7 @@
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A80" s="32"/>
+      <c r="A80" s="109"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
@@ -24291,7 +26073,7 @@
       <c r="F80" s="10"/>
     </row>
     <row r="81" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A81" s="32"/>
+      <c r="A81" s="109"/>
       <c r="B81" s="17" t="s">
         <v>335</v>
       </c>
@@ -24336,7 +26118,7 @@
       </c>
     </row>
     <row r="82" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A82" s="32"/>
+      <c r="A82" s="109"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
@@ -24466,12 +26248,12 @@
       </c>
     </row>
     <row r="84" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A84" s="32" t="s">
+      <c r="A84" s="109" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="85" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A85" s="32"/>
+      <c r="A85" s="109"/>
       <c r="B85" t="s">
         <v>341</v>
       </c>
@@ -24495,10 +26277,10 @@
       </c>
     </row>
     <row r="86" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A86" s="32"/>
+      <c r="A86" s="109"/>
     </row>
     <row r="87" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A87" s="32"/>
+      <c r="A87" s="109"/>
       <c r="B87" s="17" t="s">
         <v>348</v>
       </c>
@@ -24549,7 +26331,7 @@
       </c>
     </row>
     <row r="88" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A88" s="32"/>
+      <c r="A88" s="109"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
@@ -24559,7 +26341,7 @@
       <c r="H88" s="10"/>
     </row>
     <row r="89" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A89" s="32"/>
+      <c r="A89" s="109"/>
       <c r="B89" s="17" t="s">
         <v>355</v>
       </c>
@@ -24607,7 +26389,7 @@
       </c>
     </row>
     <row r="90" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A90" s="32"/>
+      <c r="A90" s="109"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
@@ -24617,7 +26399,7 @@
       <c r="H90" s="10"/>
     </row>
     <row r="91" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A91" s="32"/>
+      <c r="A91" s="109"/>
       <c r="B91" s="17" t="s">
         <v>361</v>
       </c>
@@ -24665,7 +26447,7 @@
       </c>
     </row>
     <row r="92" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A92" s="32"/>
+      <c r="A92" s="109"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
@@ -24675,7 +26457,7 @@
       <c r="H92" s="10"/>
     </row>
     <row r="93" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A93" s="32"/>
+      <c r="A93" s="109"/>
       <c r="B93" s="19" t="s">
         <v>367</v>
       </c>
@@ -24726,7 +26508,7 @@
       </c>
     </row>
     <row r="94" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A94" s="32"/>
+      <c r="A94" s="109"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
@@ -24736,7 +26518,7 @@
       <c r="H94" s="10"/>
     </row>
     <row r="95" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A95" s="32"/>
+      <c r="A95" s="109"/>
       <c r="B95" s="19" t="s">
         <v>374</v>
       </c>
@@ -24784,7 +26566,7 @@
       </c>
     </row>
     <row r="96" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A96" s="32"/>
+      <c r="A96" s="109"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
@@ -24794,7 +26576,7 @@
       <c r="H96" s="10"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A97" s="32"/>
+      <c r="A97" s="109"/>
       <c r="B97" s="17" t="s">
         <v>380</v>
       </c>
@@ -24839,7 +26621,7 @@
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A98" s="32"/>
+      <c r="A98" s="109"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
       <c r="D98" s="10"/>
@@ -24849,7 +26631,7 @@
       <c r="H98" s="10"/>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A99" s="32"/>
+      <c r="A99" s="109"/>
       <c r="B99" s="17" t="s">
         <v>385</v>
       </c>
@@ -24894,7 +26676,7 @@
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A100" s="32"/>
+      <c r="A100" s="109"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
@@ -24904,7 +26686,7 @@
       <c r="H100" s="10"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A101" s="32"/>
+      <c r="A101" s="109"/>
       <c r="B101" s="17" t="s">
         <v>390</v>
       </c>
@@ -24952,7 +26734,7 @@
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A102" s="32"/>
+      <c r="A102" s="109"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
@@ -24962,7 +26744,7 @@
       <c r="H102" s="10"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A103" s="32"/>
+      <c r="A103" s="109"/>
       <c r="B103" s="17" t="s">
         <v>101</v>
       </c>
@@ -24995,7 +26777,7 @@
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A104" s="32"/>
+      <c r="A104" s="109"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
       <c r="D104" s="10"/>
@@ -25005,7 +26787,7 @@
       <c r="H104" s="10"/>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A105" s="32"/>
+      <c r="A105" s="109"/>
       <c r="B105" s="17" t="s">
         <v>397</v>
       </c>
@@ -25053,7 +26835,7 @@
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A106" s="32"/>
+      <c r="A106" s="109"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
       <c r="D106" s="10"/>
@@ -25063,7 +26845,7 @@
       <c r="H106" s="10"/>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A107" s="32"/>
+      <c r="A107" s="109"/>
       <c r="B107" s="17" t="s">
         <v>403</v>
       </c>
@@ -25114,7 +26896,7 @@
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A108" s="32"/>
+      <c r="A108" s="109"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
       <c r="D108" s="10"/>
@@ -25124,7 +26906,7 @@
       <c r="H108" s="10"/>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A109" s="32"/>
+      <c r="A109" s="109"/>
       <c r="B109" s="17" t="s">
         <v>410</v>
       </c>
@@ -25175,7 +26957,7 @@
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A110" s="32"/>
+      <c r="A110" s="109"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
@@ -25185,7 +26967,7 @@
       <c r="H110" s="10"/>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A111" s="32"/>
+      <c r="A111" s="109"/>
       <c r="B111" s="17" t="s">
         <v>417</v>
       </c>
@@ -25233,7 +27015,7 @@
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A112" s="32"/>
+      <c r="A112" s="109"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
@@ -25243,7 +27025,7 @@
       <c r="H112" s="10"/>
     </row>
     <row r="113" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A113" s="32"/>
+      <c r="A113" s="109"/>
       <c r="B113" s="17" t="s">
         <v>423</v>
       </c>
@@ -25288,7 +27070,7 @@
       </c>
     </row>
     <row r="114" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A114" s="32"/>
+      <c r="A114" s="109"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
       <c r="D114" s="10"/>
@@ -25298,7 +27080,7 @@
       <c r="H114" s="10"/>
     </row>
     <row r="115" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A115" s="32"/>
+      <c r="A115" s="109"/>
       <c r="B115" s="17" t="s">
         <v>428</v>
       </c>
@@ -25343,7 +27125,7 @@
       </c>
     </row>
     <row r="116" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A116" s="32"/>
+      <c r="A116" s="109"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
       <c r="D116" s="10"/>
@@ -25353,7 +27135,7 @@
       <c r="H116" s="10"/>
     </row>
     <row r="117" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A117" s="32"/>
+      <c r="A117" s="109"/>
       <c r="B117" s="17" t="s">
         <v>433</v>
       </c>
@@ -25401,7 +27183,7 @@
       </c>
     </row>
     <row r="118" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A118" s="32"/>
+      <c r="A118" s="109"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
       <c r="D118" s="10"/>
@@ -25411,7 +27193,7 @@
       <c r="H118" s="10"/>
     </row>
     <row r="119" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A119" s="32"/>
+      <c r="A119" s="109"/>
       <c r="B119" s="17" t="s">
         <v>439</v>
       </c>
@@ -25462,7 +27244,7 @@
       </c>
     </row>
     <row r="120" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A120" s="32"/>
+      <c r="A120" s="109"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
       <c r="D120" s="10"/>
@@ -25472,7 +27254,7 @@
       <c r="H120" s="10"/>
     </row>
     <row r="121" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A121" s="32"/>
+      <c r="A121" s="109"/>
       <c r="B121" s="19" t="s">
         <v>446</v>
       </c>
@@ -25514,7 +27296,7 @@
       </c>
     </row>
     <row r="122" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A122" s="32"/>
+      <c r="A122" s="109"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
       <c r="D122" s="10"/>
@@ -25524,7 +27306,7 @@
       <c r="H122" s="10"/>
     </row>
     <row r="123" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A123" s="32"/>
+      <c r="A123" s="109"/>
       <c r="B123" s="17" t="s">
         <v>450</v>
       </c>
@@ -25575,7 +27357,7 @@
       </c>
     </row>
     <row r="124" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A124" s="32"/>
+      <c r="A124" s="109"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
       <c r="D124" s="10"/>
@@ -25708,7 +27490,7 @@
       </c>
     </row>
     <row r="126" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A126" s="31" t="s">
+      <c r="A126" s="108" t="s">
         <v>457</v>
       </c>
       <c r="B126" s="10"/>
@@ -25811,7 +27593,7 @@
       <c r="CU126" s="10"/>
     </row>
     <row r="127" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A127" s="31"/>
+      <c r="A127" s="108"/>
       <c r="B127" s="10" t="s">
         <v>83</v>
       </c>
@@ -25930,7 +27712,7 @@
       <c r="CU127" s="10"/>
     </row>
     <row r="128" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A128" s="31"/>
+      <c r="A128" s="108"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
       <c r="D128" s="10"/>
@@ -26031,7 +27813,7 @@
       <c r="CU128" s="10"/>
     </row>
     <row r="129" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A129" s="31"/>
+      <c r="A129" s="108"/>
       <c r="B129" s="18" t="s">
         <v>458</v>
       </c>
@@ -26290,7 +28072,7 @@
       <c r="CU129" s="10"/>
     </row>
     <row r="130" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A130" s="31"/>
+      <c r="A130" s="108"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
       <c r="D130" s="10"/>
@@ -26391,7 +28173,7 @@
       <c r="CU130" s="10"/>
     </row>
     <row r="131" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A131" s="31"/>
+      <c r="A131" s="108"/>
       <c r="B131" s="17" t="s">
         <v>537</v>
       </c>
@@ -26586,7 +28368,7 @@
       <c r="CU131" s="10"/>
     </row>
     <row r="132" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A132" s="31"/>
+      <c r="A132" s="108"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
       <c r="D132" s="10"/>
@@ -26687,7 +28469,7 @@
       <c r="CU132" s="10"/>
     </row>
     <row r="133" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A133" s="31"/>
+      <c r="A133" s="108"/>
       <c r="B133" s="17" t="s">
         <v>584</v>
       </c>
@@ -26922,7 +28704,7 @@
       <c r="CU133" s="10"/>
     </row>
     <row r="134" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A134" s="31"/>
+      <c r="A134" s="108"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
       <c r="D134" s="10"/>
@@ -27023,7 +28805,7 @@
       <c r="CU134" s="10"/>
     </row>
     <row r="135" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A135" s="31"/>
+      <c r="A135" s="108"/>
       <c r="B135" s="17" t="s">
         <v>651</v>
       </c>
@@ -27246,7 +29028,7 @@
       <c r="CU135" s="10"/>
     </row>
     <row r="136" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A136" s="31"/>
+      <c r="A136" s="108"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
       <c r="D136" s="10"/>
@@ -27347,7 +29129,7 @@
       <c r="CU136" s="10"/>
     </row>
     <row r="137" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A137" s="31"/>
+      <c r="A137" s="108"/>
       <c r="B137" s="17" t="s">
         <v>712</v>
       </c>
@@ -27534,7 +29316,7 @@
       <c r="CU137" s="10"/>
     </row>
     <row r="138" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A138" s="31"/>
+      <c r="A138" s="108"/>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
       <c r="D138" s="10"/>
@@ -27635,7 +29417,7 @@
       <c r="CU138" s="10"/>
     </row>
     <row r="139" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A139" s="31"/>
+      <c r="A139" s="108"/>
       <c r="B139" s="17" t="s">
         <v>755</v>
       </c>
@@ -27850,7 +29632,7 @@
       <c r="CU139" s="10"/>
     </row>
     <row r="140" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A140" s="31"/>
+      <c r="A140" s="108"/>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
       <c r="D140" s="10"/>
@@ -27951,7 +29733,7 @@
       <c r="CU140" s="10"/>
     </row>
     <row r="141" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A141" s="31"/>
+      <c r="A141" s="108"/>
       <c r="B141" s="17" t="s">
         <v>812</v>
       </c>
@@ -28178,7 +29960,7 @@
       <c r="CU141" s="10"/>
     </row>
     <row r="142" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A142" s="31"/>
+      <c r="A142" s="108"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
       <c r="D142" s="10"/>
@@ -28279,7 +30061,7 @@
       <c r="CU142" s="10"/>
     </row>
     <row r="143" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A143" s="31"/>
+      <c r="A143" s="108"/>
       <c r="B143" s="18" t="s">
         <v>875</v>
       </c>
@@ -28508,7 +30290,7 @@
       <c r="CU143" s="10"/>
     </row>
     <row r="144" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A144" s="31"/>
+      <c r="A144" s="108"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
       <c r="D144" s="10"/>
@@ -28609,7 +30391,7 @@
       <c r="CU144" s="10"/>
     </row>
     <row r="145" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A145" s="31"/>
+      <c r="A145" s="108"/>
       <c r="B145" s="17" t="s">
         <v>939</v>
       </c>
@@ -28794,7 +30576,7 @@
       <c r="CU145" s="10"/>
     </row>
     <row r="146" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A146" s="31"/>
+      <c r="A146" s="108"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
       <c r="D146" s="10"/>
@@ -28895,7 +30677,7 @@
       <c r="CU146" s="10"/>
     </row>
     <row r="147" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A147" s="31"/>
+      <c r="A147" s="108"/>
       <c r="B147" s="17" t="s">
         <v>981</v>
       </c>
@@ -28909,7 +30691,7 @@
         <v>984</v>
       </c>
       <c r="F147" s="17" t="s">
-        <v>2500</v>
+        <v>2495</v>
       </c>
       <c r="G147" s="17" t="s">
         <v>985</v>
@@ -29146,7 +30928,7 @@
       <c r="CU147" s="10"/>
     </row>
     <row r="148" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A148" s="31"/>
+      <c r="A148" s="108"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
       <c r="D148" s="10"/>
@@ -29247,7 +31029,7 @@
       <c r="CU148" s="10"/>
     </row>
     <row r="149" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A149" s="31"/>
+      <c r="A149" s="108"/>
       <c r="B149" s="17" t="s">
         <v>1055</v>
       </c>
@@ -29418,7 +31200,7 @@
       <c r="CU149" s="10"/>
     </row>
     <row r="150" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A150" s="31"/>
+      <c r="A150" s="108"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
       <c r="D150" s="10"/>
@@ -29519,7 +31301,7 @@
       <c r="CU150" s="10"/>
     </row>
     <row r="151" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A151" s="31"/>
+      <c r="A151" s="108"/>
       <c r="B151" s="17" t="s">
         <v>1090</v>
       </c>
@@ -29804,7 +31586,7 @@
       <c r="CU151" s="10"/>
     </row>
     <row r="152" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A152" s="31"/>
+      <c r="A152" s="108"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
       <c r="D152" s="10"/>
@@ -29905,7 +31687,7 @@
       <c r="CU152" s="10"/>
     </row>
     <row r="153" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A153" s="31"/>
+      <c r="A153" s="108"/>
       <c r="B153" s="17" t="s">
         <v>1182</v>
       </c>
@@ -30130,7 +31912,7 @@
       <c r="CU153" s="10"/>
     </row>
     <row r="154" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A154" s="31"/>
+      <c r="A154" s="108"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
       <c r="D154" s="10"/>
@@ -30231,7 +32013,7 @@
       <c r="CU154" s="10"/>
     </row>
     <row r="155" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A155" s="31"/>
+      <c r="A155" s="108"/>
       <c r="B155" s="17" t="s">
         <v>1244</v>
       </c>
@@ -30408,7 +32190,7 @@
       <c r="CU155" s="10"/>
     </row>
     <row r="156" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A156" s="31"/>
+      <c r="A156" s="108"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
       <c r="D156" s="10"/>
@@ -30509,7 +32291,7 @@
       <c r="CU156" s="10"/>
     </row>
     <row r="157" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A157" s="31"/>
+      <c r="A157" s="108"/>
       <c r="B157" s="18" t="s">
         <v>1282</v>
       </c>
@@ -30712,7 +32494,7 @@
       <c r="CU157" s="10"/>
     </row>
     <row r="158" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A158" s="31"/>
+      <c r="A158" s="108"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
       <c r="D158" s="10"/>
@@ -30813,146 +32595,146 @@
       <c r="CU158" s="10"/>
     </row>
     <row r="159" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A159" s="31"/>
-      <c r="B159" s="10" t="s">
+      <c r="A159" s="108"/>
+      <c r="B159" s="17" t="s">
         <v>1333</v>
       </c>
-      <c r="C159" s="10" t="s">
+      <c r="C159" s="17" t="s">
         <v>1334</v>
       </c>
-      <c r="D159" s="10" t="s">
+      <c r="D159" s="17" t="s">
         <v>1335</v>
       </c>
-      <c r="E159" s="10" t="s">
+      <c r="E159" s="17" t="s">
         <v>1336</v>
       </c>
-      <c r="F159" s="10" t="s">
+      <c r="F159" s="17" t="s">
         <v>1337</v>
       </c>
-      <c r="G159" s="10" t="s">
+      <c r="G159" s="17" t="s">
         <v>1338</v>
       </c>
-      <c r="H159" s="10" t="s">
+      <c r="H159" s="17" t="s">
         <v>1339</v>
       </c>
-      <c r="I159" s="10" t="s">
+      <c r="I159" s="17" t="s">
         <v>1340</v>
       </c>
-      <c r="J159" s="10" t="s">
+      <c r="J159" s="17" t="s">
         <v>1341</v>
       </c>
-      <c r="K159" s="10" t="s">
+      <c r="K159" s="17" t="s">
         <v>1342</v>
       </c>
-      <c r="L159" s="10" t="s">
+      <c r="L159" s="17" t="s">
         <v>1343</v>
       </c>
-      <c r="M159" s="10" t="s">
+      <c r="M159" s="17" t="s">
         <v>1344</v>
       </c>
-      <c r="N159" s="10" t="s">
+      <c r="N159" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="O159" s="10" t="s">
+      <c r="O159" s="17" t="s">
         <v>1346</v>
       </c>
-      <c r="P159" s="10" t="s">
+      <c r="P159" s="17" t="s">
         <v>1347</v>
       </c>
-      <c r="Q159" s="10" t="s">
+      <c r="Q159" s="19" t="s">
         <v>1348</v>
       </c>
-      <c r="R159" s="10" t="s">
+      <c r="R159" s="17" t="s">
         <v>1349</v>
       </c>
-      <c r="S159" s="10" t="s">
+      <c r="S159" s="17" t="s">
         <v>1350</v>
       </c>
-      <c r="T159" s="10" t="s">
+      <c r="T159" s="17" t="s">
         <v>1351</v>
       </c>
-      <c r="U159" s="10" t="s">
+      <c r="U159" s="17" t="s">
         <v>1352</v>
       </c>
-      <c r="V159" s="10" t="s">
+      <c r="V159" s="17" t="s">
         <v>1353</v>
       </c>
-      <c r="W159" s="10" t="s">
+      <c r="W159" s="17" t="s">
         <v>1354</v>
       </c>
-      <c r="X159" s="10" t="s">
+      <c r="X159" s="17" t="s">
         <v>1355</v>
       </c>
-      <c r="Y159" s="10" t="s">
+      <c r="Y159" s="17" t="s">
         <v>1356</v>
       </c>
-      <c r="Z159" s="10" t="s">
+      <c r="Z159" s="17" t="s">
         <v>1357</v>
       </c>
-      <c r="AA159" s="10" t="s">
+      <c r="AA159" s="17" t="s">
         <v>1358</v>
       </c>
-      <c r="AB159" s="10" t="s">
+      <c r="AB159" s="17" t="s">
         <v>1359</v>
       </c>
-      <c r="AC159" s="10" t="s">
+      <c r="AC159" s="17" t="s">
         <v>1360</v>
       </c>
-      <c r="AD159" s="10" t="s">
+      <c r="AD159" s="17" t="s">
         <v>1361</v>
       </c>
-      <c r="AE159" s="10" t="s">
+      <c r="AE159" s="17" t="s">
         <v>1362</v>
       </c>
-      <c r="AF159" s="10" t="s">
+      <c r="AF159" s="17" t="s">
         <v>1363</v>
       </c>
-      <c r="AG159" s="10" t="s">
+      <c r="AG159" s="17" t="s">
         <v>1364</v>
       </c>
-      <c r="AH159" s="10" t="s">
+      <c r="AH159" s="17" t="s">
         <v>1365</v>
       </c>
-      <c r="AI159" s="10" t="s">
+      <c r="AI159" s="17" t="s">
         <v>1366</v>
       </c>
-      <c r="AJ159" s="10" t="s">
+      <c r="AJ159" s="17" t="s">
         <v>1367</v>
       </c>
-      <c r="AK159" s="10" t="s">
+      <c r="AK159" s="17" t="s">
         <v>1368</v>
       </c>
-      <c r="AL159" s="10" t="s">
+      <c r="AL159" s="17" t="s">
         <v>1369</v>
       </c>
-      <c r="AM159" s="10" t="s">
+      <c r="AM159" s="17" t="s">
         <v>1370</v>
       </c>
-      <c r="AN159" s="10" t="s">
+      <c r="AN159" s="17" t="s">
         <v>1371</v>
       </c>
-      <c r="AO159" s="10" t="s">
+      <c r="AO159" s="17" t="s">
         <v>1372</v>
       </c>
-      <c r="AP159" s="10" t="s">
+      <c r="AP159" s="17" t="s">
         <v>1373</v>
       </c>
-      <c r="AQ159" s="10" t="s">
+      <c r="AQ159" s="17" t="s">
         <v>1374</v>
       </c>
-      <c r="AR159" s="10" t="s">
+      <c r="AR159" s="17" t="s">
         <v>1375</v>
       </c>
-      <c r="AS159" s="10" t="s">
+      <c r="AS159" s="17" t="s">
         <v>1376</v>
       </c>
-      <c r="AT159" s="10" t="s">
+      <c r="AT159" s="17" t="s">
         <v>1377</v>
       </c>
-      <c r="AU159" s="10" t="s">
+      <c r="AU159" s="17" t="s">
         <v>1378</v>
       </c>
-      <c r="AV159" s="10" t="s">
+      <c r="AV159" s="17" t="s">
         <v>1379</v>
       </c>
       <c r="AW159" s="10"/>
@@ -31008,7 +32790,7 @@
       <c r="CU159" s="10"/>
     </row>
     <row r="160" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A160" s="31"/>
+      <c r="A160" s="108"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
@@ -31109,7 +32891,7 @@
       <c r="CU160" s="10"/>
     </row>
     <row r="161" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A161" s="31"/>
+      <c r="A161" s="108"/>
       <c r="B161" s="17" t="s">
         <v>1380</v>
       </c>
@@ -31298,7 +33080,7 @@
       <c r="CU161" s="10"/>
     </row>
     <row r="162" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A162" s="31"/>
+      <c r="A162" s="108"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
       <c r="D162" s="10"/>
@@ -31399,7 +33181,7 @@
       <c r="CU162" s="10"/>
     </row>
     <row r="163" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A163" s="31"/>
+      <c r="A163" s="108"/>
       <c r="B163" s="17" t="s">
         <v>1424</v>
       </c>
@@ -31602,7 +33384,7 @@
       <c r="CU163" s="10"/>
     </row>
     <row r="164" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A164" s="31"/>
+      <c r="A164" s="108"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
       <c r="D164" s="10"/>
@@ -31703,7 +33485,7 @@
       <c r="CU164" s="10"/>
     </row>
     <row r="165" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A165" s="31"/>
+      <c r="A165" s="108"/>
       <c r="B165" s="17" t="s">
         <v>1475</v>
       </c>
@@ -31904,7 +33686,7 @@
       <c r="CU165" s="10"/>
     </row>
     <row r="166" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A166" s="31"/>
+      <c r="A166" s="108"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
       <c r="D166" s="10"/>
@@ -32186,7 +33968,7 @@
       <c r="CU167" s="10"/>
     </row>
     <row r="168" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A168" s="31" t="s">
+      <c r="A168" s="108" t="s">
         <v>1525</v>
       </c>
       <c r="B168" s="10"/>
@@ -32289,7 +34071,7 @@
       <c r="CU168" s="10"/>
     </row>
     <row r="169" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A169" s="31"/>
+      <c r="A169" s="108"/>
       <c r="B169" s="10" t="s">
         <v>244</v>
       </c>
@@ -32400,7 +34182,7 @@
       <c r="CU169" s="10"/>
     </row>
     <row r="170" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A170" s="31"/>
+      <c r="A170" s="108"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
@@ -32501,7 +34283,7 @@
       <c r="CU170" s="10"/>
     </row>
     <row r="171" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A171" s="31"/>
+      <c r="A171" s="108"/>
       <c r="B171" s="17" t="s">
         <v>1526</v>
       </c>
@@ -32680,7 +34462,7 @@
       <c r="CU171" s="10"/>
     </row>
     <row r="172" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A172" s="31"/>
+      <c r="A172" s="108"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
@@ -32781,7 +34563,7 @@
       <c r="CU172" s="10"/>
     </row>
     <row r="173" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A173" s="31"/>
+      <c r="A173" s="108"/>
       <c r="B173" s="17" t="s">
         <v>1565</v>
       </c>
@@ -32942,7 +34724,7 @@
       <c r="CU173" s="10"/>
     </row>
     <row r="174" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A174" s="31"/>
+      <c r="A174" s="108"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
       <c r="D174" s="10"/>
@@ -33043,7 +34825,7 @@
       <c r="CU174" s="10"/>
     </row>
     <row r="175" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A175" s="31"/>
+      <c r="A175" s="108"/>
       <c r="B175" s="17" t="s">
         <v>1595</v>
       </c>
@@ -33224,7 +35006,7 @@
       <c r="CU175" s="10"/>
     </row>
     <row r="176" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A176" s="31"/>
+      <c r="A176" s="108"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
@@ -33325,7 +35107,7 @@
       <c r="CU176" s="10"/>
     </row>
     <row r="177" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A177" s="31"/>
+      <c r="A177" s="108"/>
       <c r="B177" s="17" t="s">
         <v>1635</v>
       </c>
@@ -33490,7 +35272,7 @@
       <c r="CU177" s="10"/>
     </row>
     <row r="178" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A178" s="31"/>
+      <c r="A178" s="108"/>
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
       <c r="D178" s="10"/>
@@ -33591,7 +35373,7 @@
       <c r="CU178" s="10"/>
     </row>
     <row r="179" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A179" s="31"/>
+      <c r="A179" s="108"/>
       <c r="B179" s="17" t="s">
         <v>1667</v>
       </c>
@@ -33726,7 +35508,7 @@
       <c r="CU179" s="10"/>
     </row>
     <row r="180" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A180" s="31"/>
+      <c r="A180" s="108"/>
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
       <c r="D180" s="10"/>
@@ -33827,7 +35609,7 @@
       <c r="CU180" s="10"/>
     </row>
     <row r="181" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A181" s="31"/>
+      <c r="A181" s="108"/>
       <c r="B181" s="18" t="s">
         <v>1684</v>
       </c>
@@ -34000,7 +35782,7 @@
       <c r="CU181" s="10"/>
     </row>
     <row r="182" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A182" s="31"/>
+      <c r="A182" s="108"/>
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
       <c r="D182" s="10"/>
@@ -34101,7 +35883,7 @@
       <c r="CU182" s="10"/>
     </row>
     <row r="183" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A183" s="31"/>
+      <c r="A183" s="108"/>
       <c r="B183" s="18" t="s">
         <v>1720</v>
       </c>
@@ -34270,7 +36052,7 @@
       <c r="CU183" s="10"/>
     </row>
     <row r="184" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A184" s="31"/>
+      <c r="A184" s="108"/>
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
       <c r="D184" s="10"/>
@@ -34371,7 +36153,7 @@
       <c r="CU184" s="10"/>
     </row>
     <row r="185" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A185" s="31"/>
+      <c r="A185" s="108"/>
       <c r="B185" s="17" t="s">
         <v>1754</v>
       </c>
@@ -34536,7 +36318,7 @@
       <c r="CU185" s="10"/>
     </row>
     <row r="186" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A186" s="31"/>
+      <c r="A186" s="108"/>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
       <c r="D186" s="10"/>
@@ -34637,7 +36419,7 @@
       <c r="CU186" s="10"/>
     </row>
     <row r="187" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A187" s="31"/>
+      <c r="A187" s="108"/>
       <c r="B187" s="17" t="s">
         <v>1786</v>
       </c>
@@ -34774,7 +36556,7 @@
       <c r="CU187" s="10"/>
     </row>
     <row r="188" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A188" s="31"/>
+      <c r="A188" s="108"/>
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
       <c r="D188" s="10"/>
@@ -34875,7 +36657,7 @@
       <c r="CU188" s="10"/>
     </row>
     <row r="189" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A189" s="31"/>
+      <c r="A189" s="108"/>
       <c r="B189" s="17" t="s">
         <v>1804</v>
       </c>
@@ -35058,7 +36840,7 @@
       <c r="CU189" s="10"/>
     </row>
     <row r="190" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A190" s="31"/>
+      <c r="A190" s="108"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
       <c r="D190" s="10"/>
@@ -35159,7 +36941,7 @@
       <c r="CU190" s="10"/>
     </row>
     <row r="191" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A191" s="31"/>
+      <c r="A191" s="108"/>
       <c r="B191" s="17" t="s">
         <v>1845</v>
       </c>
@@ -35304,7 +37086,7 @@
       <c r="CU191" s="10"/>
     </row>
     <row r="192" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A192" s="31"/>
+      <c r="A192" s="108"/>
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
       <c r="D192" s="10"/>
@@ -35405,7 +37187,7 @@
       <c r="CU192" s="10"/>
     </row>
     <row r="193" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A193" s="31"/>
+      <c r="A193" s="108"/>
       <c r="B193" s="17" t="s">
         <v>1867</v>
       </c>
@@ -35606,7 +37388,7 @@
       <c r="CU193" s="10"/>
     </row>
     <row r="194" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A194" s="31"/>
+      <c r="A194" s="108"/>
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
       <c r="D194" s="10"/>
@@ -35707,7 +37489,7 @@
       <c r="CU194" s="10"/>
     </row>
     <row r="195" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A195" s="31"/>
+      <c r="A195" s="108"/>
       <c r="B195" s="17" t="s">
         <v>1917</v>
       </c>
@@ -35874,7 +37656,7 @@
       <c r="CU195" s="10"/>
     </row>
     <row r="196" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A196" s="31"/>
+      <c r="A196" s="108"/>
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
       <c r="D196" s="10"/>
@@ -35975,7 +37757,7 @@
       <c r="CU196" s="10"/>
     </row>
     <row r="197" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A197" s="31"/>
+      <c r="A197" s="108"/>
       <c r="B197" s="17" t="s">
         <v>1950</v>
       </c>
@@ -36112,7 +37894,7 @@
       <c r="CU197" s="10"/>
     </row>
     <row r="198" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A198" s="31"/>
+      <c r="A198" s="108"/>
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
       <c r="D198" s="10"/>
@@ -36213,83 +37995,83 @@
       <c r="CU198" s="10"/>
     </row>
     <row r="199" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A199" s="31"/>
-      <c r="B199" s="10" t="s">
+      <c r="A199" s="108"/>
+      <c r="B199" s="17" t="s">
         <v>1968</v>
       </c>
-      <c r="C199" s="10" t="s">
+      <c r="C199" s="17" t="s">
         <v>1969</v>
       </c>
-      <c r="D199" s="10" t="s">
+      <c r="D199" s="17" t="s">
         <v>1970</v>
       </c>
-      <c r="E199" s="10" t="s">
+      <c r="E199" s="17" t="s">
         <v>1971</v>
       </c>
-      <c r="F199" s="10" t="s">
+      <c r="F199" s="17" t="s">
         <v>1972</v>
       </c>
-      <c r="G199" s="10" t="s">
+      <c r="G199" s="17" t="s">
         <v>1973</v>
       </c>
-      <c r="H199" s="10" t="s">
+      <c r="H199" s="17" t="s">
         <v>1974</v>
       </c>
-      <c r="I199" s="10" t="s">
+      <c r="I199" s="17" t="s">
         <v>1975</v>
       </c>
-      <c r="J199" s="10" t="s">
+      <c r="J199" s="17" t="s">
         <v>1976</v>
       </c>
-      <c r="K199" s="10" t="s">
+      <c r="K199" s="17" t="s">
         <v>1977</v>
       </c>
-      <c r="L199" s="10" t="s">
+      <c r="L199" s="17" t="s">
         <v>1978</v>
       </c>
-      <c r="M199" s="10" t="s">
+      <c r="M199" s="17" t="s">
         <v>1979</v>
       </c>
-      <c r="N199" s="10" t="s">
+      <c r="N199" s="17" t="s">
         <v>1980</v>
       </c>
-      <c r="O199" s="10" t="s">
+      <c r="O199" s="17" t="s">
         <v>1981</v>
       </c>
-      <c r="P199" s="10" t="s">
+      <c r="P199" s="17" t="s">
         <v>1982</v>
       </c>
-      <c r="Q199" s="10" t="s">
+      <c r="Q199" s="17" t="s">
         <v>1983</v>
       </c>
-      <c r="R199" s="10" t="s">
+      <c r="R199" s="19" t="s">
         <v>1984</v>
       </c>
-      <c r="S199" s="10" t="s">
+      <c r="S199" s="17" t="s">
         <v>1985</v>
       </c>
-      <c r="T199" s="10" t="s">
+      <c r="T199" s="17" t="s">
         <v>1986</v>
       </c>
-      <c r="U199" s="10" t="s">
+      <c r="U199" s="17" t="s">
         <v>1987</v>
       </c>
-      <c r="V199" s="10" t="s">
+      <c r="V199" s="17" t="s">
         <v>1988</v>
       </c>
-      <c r="W199" s="10" t="s">
+      <c r="W199" s="17" t="s">
         <v>1989</v>
       </c>
-      <c r="X199" s="10" t="s">
+      <c r="X199" s="17" t="s">
         <v>1990</v>
       </c>
-      <c r="Y199" s="10" t="s">
+      <c r="Y199" s="17" t="s">
         <v>1991</v>
       </c>
-      <c r="Z199" s="10" t="s">
+      <c r="Z199" s="17" t="s">
         <v>1992</v>
       </c>
-      <c r="AA199" s="10" t="s">
+      <c r="AA199" s="17" t="s">
         <v>1993</v>
       </c>
       <c r="AB199" s="10"/>
@@ -36366,7 +38148,7 @@
       <c r="CU199" s="10"/>
     </row>
     <row r="200" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A200" s="31"/>
+      <c r="A200" s="108"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
       <c r="D200" s="10"/>
@@ -36467,7 +38249,7 @@
       <c r="CU200" s="10"/>
     </row>
     <row r="201" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A201" s="31"/>
+      <c r="A201" s="108"/>
       <c r="B201" s="17" t="s">
         <v>1994</v>
       </c>
@@ -36535,7 +38317,7 @@
         <v>2015</v>
       </c>
       <c r="X201" s="17" t="s">
-        <v>2559</v>
+        <v>2544</v>
       </c>
       <c r="Y201" s="10"/>
       <c r="Z201" s="10"/>
@@ -36614,7 +38396,7 @@
       <c r="CU201" s="10"/>
     </row>
     <row r="202" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A202" s="31"/>
+      <c r="A202" s="108"/>
       <c r="B202" s="10"/>
       <c r="C202" s="10"/>
       <c r="D202" s="10"/>
@@ -36715,7 +38497,7 @@
       <c r="CU202" s="10"/>
     </row>
     <row r="203" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A203" s="31"/>
+      <c r="A203" s="108"/>
       <c r="B203" s="17" t="s">
         <v>2016</v>
       </c>
@@ -36870,7 +38652,7 @@
       <c r="CU203" s="10"/>
     </row>
     <row r="204" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A204" s="31"/>
+      <c r="A204" s="108"/>
       <c r="B204" s="10"/>
       <c r="C204" s="10"/>
       <c r="D204" s="10"/>
@@ -36970,7 +38752,7 @@
       <c r="CU204" s="10"/>
     </row>
     <row r="205" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A205" s="31"/>
+      <c r="A205" s="108"/>
       <c r="B205" s="17" t="s">
         <v>2043</v>
       </c>
@@ -37131,7 +38913,7 @@
       <c r="CU205" s="10"/>
     </row>
     <row r="206" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A206" s="31"/>
+      <c r="A206" s="108"/>
       <c r="B206" s="10"/>
       <c r="C206" s="10"/>
       <c r="D206" s="10"/>
@@ -37232,7 +39014,7 @@
       <c r="CU206" s="10"/>
     </row>
     <row r="207" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A207" s="31"/>
+      <c r="A207" s="108"/>
       <c r="B207" s="17" t="s">
         <v>2073</v>
       </c>
@@ -37407,7 +39189,7 @@
       <c r="CU207" s="10"/>
     </row>
     <row r="208" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A208" s="31"/>
+      <c r="A208" s="108"/>
       <c r="B208" s="10"/>
       <c r="C208" s="10"/>
       <c r="D208" s="10"/>
@@ -37689,7 +39471,7 @@
       <c r="CU209" s="10"/>
     </row>
     <row r="210" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A210" s="31" t="s">
+      <c r="A210" s="108" t="s">
         <v>2110</v>
       </c>
       <c r="B210" s="10"/>
@@ -37792,7 +39574,7 @@
       <c r="CU210" s="10"/>
     </row>
     <row r="211" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A211" s="31"/>
+      <c r="A211" s="108"/>
       <c r="B211" s="10" t="s">
         <v>341</v>
       </c>
@@ -37907,7 +39689,7 @@
       <c r="CU211" s="10"/>
     </row>
     <row r="212" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A212" s="31"/>
+      <c r="A212" s="108"/>
       <c r="B212" s="10"/>
       <c r="C212" s="10"/>
       <c r="D212" s="10"/>
@@ -38008,7 +39790,7 @@
       <c r="CU212" s="10"/>
     </row>
     <row r="213" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A213" s="31"/>
+      <c r="A213" s="108"/>
       <c r="B213" s="17" t="s">
         <v>2111</v>
       </c>
@@ -38173,7 +39955,7 @@
       <c r="CU213" s="10"/>
     </row>
     <row r="214" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A214" s="31"/>
+      <c r="A214" s="108"/>
       <c r="B214" s="10"/>
       <c r="C214" s="10"/>
       <c r="D214" s="10"/>
@@ -38274,7 +40056,7 @@
       <c r="CU214" s="10"/>
     </row>
     <row r="215" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A215" s="31"/>
+      <c r="A215" s="108"/>
       <c r="B215" s="17" t="s">
         <v>2143</v>
       </c>
@@ -38423,7 +40205,7 @@
       <c r="CU215" s="10"/>
     </row>
     <row r="216" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A216" s="31"/>
+      <c r="A216" s="108"/>
       <c r="B216" s="10"/>
       <c r="C216" s="10"/>
       <c r="D216" s="10"/>
@@ -38524,50 +40306,50 @@
       <c r="CU216" s="10"/>
     </row>
     <row r="217" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A217" s="31"/>
-      <c r="B217" s="10" t="s">
+      <c r="A217" s="108"/>
+      <c r="B217" s="17" t="s">
         <v>2167</v>
       </c>
-      <c r="C217" s="10" t="s">
+      <c r="C217" s="17" t="s">
         <v>2168</v>
       </c>
-      <c r="D217" s="10" t="s">
+      <c r="D217" s="17" t="s">
         <v>2169</v>
       </c>
-      <c r="E217" s="10" t="s">
+      <c r="E217" s="17" t="s">
         <v>2170</v>
       </c>
-      <c r="F217" s="10" t="s">
+      <c r="F217" s="17" t="s">
         <v>2171</v>
       </c>
-      <c r="G217" s="10" t="s">
+      <c r="G217" s="17" t="s">
         <v>2172</v>
       </c>
-      <c r="H217" s="10" t="s">
+      <c r="H217" s="17" t="s">
         <v>2173</v>
       </c>
-      <c r="I217" s="10" t="s">
+      <c r="I217" s="17" t="s">
         <v>2174</v>
       </c>
-      <c r="J217" s="10" t="s">
+      <c r="J217" s="17" t="s">
         <v>2175</v>
       </c>
-      <c r="K217" s="10" t="s">
+      <c r="K217" s="19" t="s">
         <v>2176</v>
       </c>
-      <c r="L217" s="10" t="s">
+      <c r="L217" s="17" t="s">
         <v>2177</v>
       </c>
-      <c r="M217" s="10" t="s">
+      <c r="M217" s="17" t="s">
         <v>2178</v>
       </c>
-      <c r="N217" s="10" t="s">
+      <c r="N217" s="17" t="s">
         <v>2179</v>
       </c>
-      <c r="O217" s="10" t="s">
+      <c r="O217" s="17" t="s">
         <v>2180</v>
       </c>
-      <c r="P217" s="10" t="s">
+      <c r="P217" s="17" t="s">
         <v>2181</v>
       </c>
       <c r="Q217" s="10"/>
@@ -38655,7 +40437,7 @@
       <c r="CU217" s="10"/>
     </row>
     <row r="218" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A218" s="31"/>
+      <c r="A218" s="108"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
       <c r="D218" s="10"/>
@@ -38756,50 +40538,50 @@
       <c r="CU218" s="10"/>
     </row>
     <row r="219" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A219" s="31"/>
-      <c r="B219" s="10" t="s">
+      <c r="A219" s="108"/>
+      <c r="B219" s="17" t="s">
         <v>2182</v>
       </c>
-      <c r="C219" s="10" t="s">
+      <c r="C219" s="17" t="s">
         <v>2183</v>
       </c>
-      <c r="D219" s="10" t="s">
+      <c r="D219" s="19" t="s">
         <v>2184</v>
       </c>
-      <c r="E219" s="10" t="s">
+      <c r="E219" s="17" t="s">
         <v>2185</v>
       </c>
-      <c r="F219" s="10" t="s">
+      <c r="F219" s="17" t="s">
         <v>2186</v>
       </c>
-      <c r="G219" s="10" t="s">
+      <c r="G219" s="17" t="s">
         <v>2187</v>
       </c>
-      <c r="H219" s="10" t="s">
+      <c r="H219" s="17" t="s">
         <v>2188</v>
       </c>
-      <c r="I219" s="10" t="s">
+      <c r="I219" s="17" t="s">
         <v>2189</v>
       </c>
-      <c r="J219" s="10" t="s">
+      <c r="J219" s="17" t="s">
         <v>2190</v>
       </c>
-      <c r="K219" s="10" t="s">
+      <c r="K219" s="17" t="s">
         <v>2191</v>
       </c>
-      <c r="L219" s="10" t="s">
+      <c r="L219" s="17" t="s">
         <v>2192</v>
       </c>
-      <c r="M219" s="10" t="s">
+      <c r="M219" s="17" t="s">
         <v>2193</v>
       </c>
-      <c r="N219" s="10" t="s">
+      <c r="N219" s="17" t="s">
         <v>2194</v>
       </c>
-      <c r="O219" s="10" t="s">
+      <c r="O219" s="17" t="s">
         <v>2195</v>
       </c>
-      <c r="P219" s="10" t="s">
+      <c r="P219" s="17" t="s">
         <v>2196</v>
       </c>
       <c r="Q219" s="10"/>
@@ -38887,7 +40669,7 @@
       <c r="CU219" s="10"/>
     </row>
     <row r="220" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A220" s="31"/>
+      <c r="A220" s="108"/>
       <c r="B220" s="10"/>
       <c r="C220" s="10"/>
       <c r="D220" s="10"/>
@@ -38988,7 +40770,7 @@
       <c r="CU220" s="10"/>
     </row>
     <row r="221" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A221" s="31"/>
+      <c r="A221" s="108"/>
       <c r="B221" s="17" t="s">
         <v>2197</v>
       </c>
@@ -39111,7 +40893,7 @@
       <c r="CU221" s="10"/>
     </row>
     <row r="222" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A222" s="31"/>
+      <c r="A222" s="108"/>
       <c r="B222" s="10"/>
       <c r="C222" s="10"/>
       <c r="D222" s="10"/>
@@ -39212,53 +40994,53 @@
       <c r="CU222" s="10"/>
     </row>
     <row r="223" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A223" s="31"/>
-      <c r="B223" s="10" t="s">
+      <c r="A223" s="108"/>
+      <c r="B223" s="17" t="s">
         <v>2208</v>
       </c>
-      <c r="C223" s="10" t="s">
+      <c r="C223" s="19" t="s">
         <v>2209</v>
       </c>
-      <c r="D223" s="10" t="s">
+      <c r="D223" s="17" t="s">
         <v>2210</v>
       </c>
-      <c r="E223" s="10" t="s">
+      <c r="E223" s="17" t="s">
         <v>2211</v>
       </c>
-      <c r="F223" s="10" t="s">
+      <c r="F223" s="17" t="s">
         <v>2212</v>
       </c>
-      <c r="G223" s="10" t="s">
+      <c r="G223" s="17" t="s">
         <v>2213</v>
       </c>
-      <c r="H223" s="10" t="s">
+      <c r="H223" s="17" t="s">
         <v>2214</v>
       </c>
-      <c r="I223" s="10" t="s">
+      <c r="I223" s="17" t="s">
         <v>2215</v>
       </c>
-      <c r="J223" s="10" t="s">
+      <c r="J223" s="17" t="s">
         <v>2216</v>
       </c>
-      <c r="K223" s="10" t="s">
+      <c r="K223" s="17" t="s">
         <v>2217</v>
       </c>
-      <c r="L223" s="10" t="s">
+      <c r="L223" s="17" t="s">
         <v>2218</v>
       </c>
-      <c r="M223" s="10" t="s">
+      <c r="M223" s="17" t="s">
         <v>2219</v>
       </c>
-      <c r="N223" s="10" t="s">
+      <c r="N223" s="17" t="s">
         <v>2220</v>
       </c>
-      <c r="O223" s="10" t="s">
+      <c r="O223" s="17" t="s">
         <v>2221</v>
       </c>
-      <c r="P223" s="10" t="s">
+      <c r="P223" s="17" t="s">
         <v>2222</v>
       </c>
-      <c r="Q223" s="10" t="s">
+      <c r="Q223" s="17" t="s">
         <v>2223</v>
       </c>
       <c r="R223" s="10"/>
@@ -39345,7 +41127,7 @@
       <c r="CU223" s="10"/>
     </row>
     <row r="224" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A224" s="31"/>
+      <c r="A224" s="108"/>
       <c r="B224" s="10"/>
       <c r="C224" s="10"/>
       <c r="D224" s="10"/>
@@ -39446,7 +41228,7 @@
       <c r="CU224" s="10"/>
     </row>
     <row r="225" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A225" s="31"/>
+      <c r="A225" s="108"/>
       <c r="B225" s="17" t="s">
         <v>2224</v>
       </c>
@@ -39575,7 +41357,7 @@
       <c r="CU225" s="10"/>
     </row>
     <row r="226" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A226" s="31"/>
+      <c r="A226" s="108"/>
       <c r="B226" s="10"/>
       <c r="C226" s="10"/>
       <c r="D226" s="10"/>
@@ -39676,7 +41458,7 @@
       <c r="CU226" s="10"/>
     </row>
     <row r="227" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A227" s="31"/>
+      <c r="A227" s="108"/>
       <c r="B227" s="17" t="s">
         <v>2238</v>
       </c>
@@ -39805,7 +41587,7 @@
       <c r="CU227" s="10"/>
     </row>
     <row r="228" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A228" s="31"/>
+      <c r="A228" s="108"/>
       <c r="B228" s="10"/>
       <c r="C228" s="10"/>
       <c r="D228" s="10"/>
@@ -39906,7 +41688,7 @@
       <c r="CU228" s="10"/>
     </row>
     <row r="229" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A229" s="31"/>
+      <c r="A229" s="108"/>
       <c r="B229" s="10"/>
       <c r="C229" s="10"/>
       <c r="D229" s="10"/>
@@ -40007,7 +41789,7 @@
       <c r="CU229" s="10"/>
     </row>
     <row r="230" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A230" s="31"/>
+      <c r="A230" s="108"/>
       <c r="B230" s="10"/>
       <c r="C230" s="10"/>
       <c r="D230" s="10"/>
@@ -40108,7 +41890,7 @@
       <c r="CU230" s="10"/>
     </row>
     <row r="231" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A231" s="31"/>
+      <c r="A231" s="108"/>
       <c r="B231" s="17" t="s">
         <v>2252</v>
       </c>
@@ -40263,7 +42045,7 @@
       <c r="CU231" s="10"/>
     </row>
     <row r="232" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A232" s="31"/>
+      <c r="A232" s="108"/>
       <c r="B232" s="10"/>
       <c r="C232" s="10"/>
       <c r="D232" s="10"/>
@@ -40364,44 +42146,44 @@
       <c r="CU232" s="10"/>
     </row>
     <row r="233" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A233" s="31"/>
-      <c r="B233" s="10" t="s">
+      <c r="A233" s="108"/>
+      <c r="B233" s="17" t="s">
         <v>2279</v>
       </c>
-      <c r="C233" s="10" t="s">
+      <c r="C233" s="17" t="s">
         <v>2280</v>
       </c>
-      <c r="D233" s="10" t="s">
+      <c r="D233" s="17" t="s">
         <v>2281</v>
       </c>
-      <c r="E233" s="10" t="s">
+      <c r="E233" s="17" t="s">
         <v>2282</v>
       </c>
-      <c r="F233" s="10" t="s">
+      <c r="F233" s="17" t="s">
         <v>2283</v>
       </c>
-      <c r="G233" s="10" t="s">
+      <c r="G233" s="19" t="s">
         <v>2284</v>
       </c>
-      <c r="H233" s="10" t="s">
+      <c r="H233" s="17" t="s">
         <v>2285</v>
       </c>
-      <c r="I233" s="10" t="s">
+      <c r="I233" s="17" t="s">
         <v>2286</v>
       </c>
-      <c r="J233" s="10" t="s">
+      <c r="J233" s="17" t="s">
         <v>2287</v>
       </c>
-      <c r="K233" s="10" t="s">
+      <c r="K233" s="17" t="s">
         <v>2288</v>
       </c>
-      <c r="L233" s="10" t="s">
+      <c r="L233" s="17" t="s">
         <v>2289</v>
       </c>
-      <c r="M233" s="10" t="s">
+      <c r="M233" s="17" t="s">
         <v>2290</v>
       </c>
-      <c r="N233" s="10" t="s">
+      <c r="N233" s="17" t="s">
         <v>2291</v>
       </c>
       <c r="O233" s="10"/>
@@ -40491,7 +42273,7 @@
       <c r="CU233" s="10"/>
     </row>
     <row r="234" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A234" s="31"/>
+      <c r="A234" s="108"/>
       <c r="B234" s="10"/>
       <c r="C234" s="10"/>
       <c r="D234" s="10"/>
@@ -40592,7 +42374,7 @@
       <c r="CU234" s="10"/>
     </row>
     <row r="235" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A235" s="31"/>
+      <c r="A235" s="108"/>
       <c r="B235" s="17" t="s">
         <v>2292</v>
       </c>
@@ -40781,7 +42563,7 @@
       <c r="CU235" s="10"/>
     </row>
     <row r="236" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A236" s="31"/>
+      <c r="A236" s="108"/>
       <c r="B236" s="10"/>
       <c r="C236" s="10"/>
       <c r="D236" s="10"/>
@@ -40882,65 +42664,65 @@
       <c r="CU236" s="10"/>
     </row>
     <row r="237" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A237" s="31"/>
-      <c r="B237" s="10" t="s">
+      <c r="A237" s="108"/>
+      <c r="B237" s="17" t="s">
         <v>2336</v>
       </c>
-      <c r="C237" s="10" t="s">
+      <c r="C237" s="17" t="s">
         <v>2337</v>
       </c>
-      <c r="D237" s="10" t="s">
+      <c r="D237" s="17" t="s">
         <v>2338</v>
       </c>
-      <c r="E237" s="10" t="s">
+      <c r="E237" s="17" t="s">
         <v>2339</v>
       </c>
-      <c r="F237" s="10" t="s">
+      <c r="F237" s="17" t="s">
         <v>2340</v>
       </c>
-      <c r="G237" s="10" t="s">
+      <c r="G237" s="17" t="s">
         <v>2341</v>
       </c>
-      <c r="H237" s="10" t="s">
+      <c r="H237" s="17" t="s">
         <v>2342</v>
       </c>
-      <c r="I237" s="10" t="s">
+      <c r="I237" s="17" t="s">
         <v>2343</v>
       </c>
-      <c r="J237" s="10" t="s">
+      <c r="J237" s="17" t="s">
         <v>2344</v>
       </c>
-      <c r="K237" s="10" t="s">
+      <c r="K237" s="17" t="s">
         <v>2345</v>
       </c>
-      <c r="L237" s="10" t="s">
+      <c r="L237" s="17" t="s">
         <v>2346</v>
       </c>
-      <c r="M237" s="10" t="s">
+      <c r="M237" s="19" t="s">
         <v>2347</v>
       </c>
-      <c r="N237" s="10" t="s">
+      <c r="N237" s="17" t="s">
         <v>2348</v>
       </c>
-      <c r="O237" s="10" t="s">
+      <c r="O237" s="17" t="s">
         <v>2349</v>
       </c>
-      <c r="P237" s="10" t="s">
+      <c r="P237" s="17" t="s">
         <v>2350</v>
       </c>
-      <c r="Q237" s="10" t="s">
+      <c r="Q237" s="17" t="s">
         <v>2351</v>
       </c>
-      <c r="R237" s="10" t="s">
+      <c r="R237" s="17" t="s">
         <v>2352</v>
       </c>
-      <c r="S237" s="10" t="s">
+      <c r="S237" s="17" t="s">
         <v>2353</v>
       </c>
-      <c r="T237" s="10" t="s">
+      <c r="T237" s="17" t="s">
         <v>2354</v>
       </c>
-      <c r="U237" s="10" t="s">
+      <c r="U237" s="17" t="s">
         <v>2355</v>
       </c>
       <c r="V237" s="10"/>
@@ -41023,7 +42805,7 @@
       <c r="CU237" s="10"/>
     </row>
     <row r="238" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A238" s="31"/>
+      <c r="A238" s="108"/>
       <c r="B238" s="10"/>
       <c r="C238" s="10"/>
       <c r="D238" s="10"/>
@@ -41124,7 +42906,7 @@
       <c r="CU238" s="10"/>
     </row>
     <row r="239" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A239" s="31"/>
+      <c r="A239" s="108"/>
       <c r="B239" s="17" t="s">
         <v>2356</v>
       </c>
@@ -41245,7 +43027,7 @@
       <c r="CU239" s="10"/>
     </row>
     <row r="240" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A240" s="31"/>
+      <c r="A240" s="108"/>
       <c r="B240" s="10"/>
       <c r="C240" s="10"/>
       <c r="D240" s="10"/>
@@ -41346,56 +43128,56 @@
       <c r="CU240" s="10"/>
     </row>
     <row r="241" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A241" s="31"/>
-      <c r="B241" s="10" t="s">
+      <c r="A241" s="108"/>
+      <c r="B241" s="17" t="s">
         <v>2366</v>
       </c>
-      <c r="C241" s="10" t="s">
+      <c r="C241" s="17" t="s">
         <v>2367</v>
       </c>
-      <c r="D241" s="10" t="s">
+      <c r="D241" s="17" t="s">
         <v>2368</v>
       </c>
-      <c r="E241" s="10" t="s">
+      <c r="E241" s="17" t="s">
         <v>2369</v>
       </c>
-      <c r="F241" s="10" t="s">
+      <c r="F241" s="17" t="s">
         <v>2370</v>
       </c>
-      <c r="G241" s="10" t="s">
+      <c r="G241" s="17" t="s">
         <v>2371</v>
       </c>
-      <c r="H241" s="10" t="s">
+      <c r="H241" s="17" t="s">
         <v>2372</v>
       </c>
-      <c r="I241" s="10" t="s">
+      <c r="I241" s="17" t="s">
         <v>2373</v>
       </c>
-      <c r="J241" s="10" t="s">
+      <c r="J241" s="17" t="s">
         <v>2374</v>
       </c>
-      <c r="K241" s="10" t="s">
+      <c r="K241" s="17" t="s">
         <v>2375</v>
       </c>
-      <c r="L241" s="10" t="s">
+      <c r="L241" s="19" t="s">
         <v>2376</v>
       </c>
-      <c r="M241" s="10" t="s">
+      <c r="M241" s="17" t="s">
         <v>2377</v>
       </c>
-      <c r="N241" s="10" t="s">
+      <c r="N241" s="17" t="s">
         <v>2378</v>
       </c>
-      <c r="O241" s="10" t="s">
+      <c r="O241" s="17" t="s">
         <v>2379</v>
       </c>
-      <c r="P241" s="10" t="s">
+      <c r="P241" s="17" t="s">
         <v>2380</v>
       </c>
-      <c r="Q241" s="10" t="s">
+      <c r="Q241" s="17" t="s">
         <v>2381</v>
       </c>
-      <c r="R241" s="10" t="s">
+      <c r="R241" s="17" t="s">
         <v>2382</v>
       </c>
       <c r="S241" s="10"/>
@@ -41481,7 +43263,7 @@
       <c r="CU241" s="10"/>
     </row>
     <row r="242" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A242" s="31"/>
+      <c r="A242" s="108"/>
       <c r="B242" s="10"/>
       <c r="C242" s="10"/>
       <c r="D242" s="10"/>
@@ -41582,59 +43364,59 @@
       <c r="CU242" s="10"/>
     </row>
     <row r="243" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A243" s="31"/>
-      <c r="B243" s="10" t="s">
+      <c r="A243" s="108"/>
+      <c r="B243" s="17" t="s">
         <v>2383</v>
       </c>
-      <c r="C243" s="10" t="s">
+      <c r="C243" s="17" t="s">
         <v>2384</v>
       </c>
-      <c r="D243" s="10" t="s">
+      <c r="D243" s="17" t="s">
         <v>2385</v>
       </c>
-      <c r="E243" s="20" t="s">
+      <c r="E243" s="18" t="s">
         <v>2386</v>
       </c>
-      <c r="F243" s="10" t="s">
+      <c r="F243" s="17" t="s">
         <v>2387</v>
       </c>
-      <c r="G243" s="10" t="s">
+      <c r="G243" s="17" t="s">
         <v>2388</v>
       </c>
-      <c r="H243" s="10" t="s">
+      <c r="H243" s="17" t="s">
         <v>2389</v>
       </c>
-      <c r="I243" s="10" t="s">
+      <c r="I243" s="17" t="s">
         <v>2390</v>
       </c>
-      <c r="J243" s="10" t="s">
+      <c r="J243" s="19" t="s">
         <v>2391</v>
       </c>
-      <c r="K243" s="10" t="s">
+      <c r="K243" s="17" t="s">
         <v>2392</v>
       </c>
-      <c r="L243" s="10" t="s">
+      <c r="L243" s="17" t="s">
         <v>2393</v>
       </c>
-      <c r="M243" s="10" t="s">
+      <c r="M243" s="17" t="s">
         <v>2394</v>
       </c>
-      <c r="N243" s="10" t="s">
+      <c r="N243" s="17" t="s">
         <v>2395</v>
       </c>
-      <c r="O243" s="10" t="s">
+      <c r="O243" s="17" t="s">
         <v>2396</v>
       </c>
-      <c r="P243" s="10" t="s">
+      <c r="P243" s="17" t="s">
         <v>2397</v>
       </c>
-      <c r="Q243" s="10" t="s">
+      <c r="Q243" s="17" t="s">
         <v>2398</v>
       </c>
-      <c r="R243" s="10" t="s">
+      <c r="R243" s="17" t="s">
         <v>2399</v>
       </c>
-      <c r="S243" s="10" t="s">
+      <c r="S243" s="17" t="s">
         <v>2400</v>
       </c>
       <c r="T243" s="10"/>
@@ -41719,7 +43501,7 @@
       <c r="CU243" s="10"/>
     </row>
     <row r="244" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A244" s="31"/>
+      <c r="A244" s="108"/>
       <c r="B244" s="10"/>
       <c r="C244" s="10"/>
       <c r="D244" s="10"/>
@@ -41820,7 +43602,7 @@
       <c r="CU244" s="10"/>
     </row>
     <row r="245" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A245" s="31"/>
+      <c r="A245" s="108"/>
       <c r="B245" s="17" t="s">
         <v>2401</v>
       </c>
@@ -41951,7 +43733,7 @@
       <c r="CU245" s="10"/>
     </row>
     <row r="246" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A246" s="31"/>
+      <c r="A246" s="108"/>
       <c r="B246" s="10"/>
       <c r="C246" s="10"/>
       <c r="D246" s="10"/>
@@ -42052,7 +43834,7 @@
       <c r="CU246" s="10"/>
     </row>
     <row r="247" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A247" s="31"/>
+      <c r="A247" s="108"/>
       <c r="B247" s="17" t="s">
         <v>2416</v>
       </c>
@@ -42167,7 +43949,7 @@
       <c r="CU247" s="10"/>
     </row>
     <row r="248" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A248" s="31"/>
+      <c r="A248" s="108"/>
       <c r="B248" s="10"/>
       <c r="C248" s="10"/>
       <c r="D248" s="10"/>
@@ -42268,7 +44050,7 @@
       <c r="CU248" s="10"/>
     </row>
     <row r="249" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A249" s="31"/>
+      <c r="A249" s="108"/>
       <c r="B249" s="17" t="s">
         <v>2423</v>
       </c>
@@ -42439,7 +44221,7 @@
       <c r="CU249" s="10"/>
     </row>
     <row r="250" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A250" s="31"/>
+      <c r="A250" s="108"/>
       <c r="B250" s="10"/>
       <c r="C250" s="10"/>
       <c r="D250" s="10"/>
@@ -50033,121 +51815,123 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF65"/>
+  <dimension ref="A1:BG65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
       <c r="Q1" s="2"/>
-      <c r="R1" s="32" t="s">
+      <c r="R1" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>2610</v>
+        <v>2595</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>2528</v>
+        <v>2516</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>2505</v>
+        <v>2626</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>2544</v>
+        <v>2532</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>2522</v>
+        <v>2511</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>2518</v>
+        <v>2507</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>2483</v>
+        <v>2480</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>2539</v>
+        <v>2527</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4" t="s">
-        <v>2536</v>
+        <v>2524</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>2615</v>
+        <v>2600</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>2533</v>
+        <v>2521</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>2619</v>
+        <v>2603</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>2524</v>
+        <v>2513</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="1" t="s">
-        <v>2508</v>
+        <v>2641</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>2485</v>
+        <v>2635</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>2512</v>
+        <v>2652</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>2621</v>
+        <v>2647</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>2551</v>
+        <v>2645</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>2513</v>
+        <v>2632</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>2554</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>2552</v>
+        <v>2625</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="7" t="s">
+        <v>2624</v>
+      </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -50163,24 +51947,24 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="3"/>
       <c r="S3" s="7" t="s">
-        <v>2484</v>
+        <v>2481</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>2511</v>
+        <v>2503</v>
       </c>
       <c r="U3" s="3"/>
       <c r="V3" s="27" t="s">
-        <v>2550</v>
+        <v>2537</v>
       </c>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>2611</v>
+        <v>2596</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2608</v>
+        <v>2593</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -50239,12 +52023,12 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>2622</v>
+        <v>2644</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="7" t="s">
-        <v>2504</v>
+        <v>2499</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -50263,10 +52047,14 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="27" t="s">
-        <v>2620</v>
-      </c>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
+        <v>2604</v>
+      </c>
+      <c r="V6" s="27" t="s">
+        <v>2643</v>
+      </c>
+      <c r="W6" s="27" t="s">
+        <v>2631</v>
+      </c>
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
@@ -50331,14 +52119,14 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>2543</v>
+        <v>2531</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="7" t="s">
-        <v>2542</v>
+        <v>2530</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -50350,7 +52138,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="7" t="s">
-        <v>2486</v>
+        <v>2483</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="3"/>
@@ -50363,7 +52151,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>2618</v>
+        <v>2648</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -50377,25 +52165,29 @@
       <c r="K10" s="2"/>
       <c r="L10" s="4"/>
       <c r="M10" s="7" t="s">
-        <v>2489</v>
+        <v>2485</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="7" t="s">
-        <v>2616</v>
+        <v>2601</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="9"/>
+      <c r="T10" s="32" t="s">
+        <v>2629</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>2646</v>
+      </c>
       <c r="V10" s="3"/>
       <c r="W10" s="6"/>
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -50410,7 +52202,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="7" t="s">
-        <v>2530</v>
+        <v>2518</v>
       </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -50425,7 +52217,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>2502</v>
+        <v>2497</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -50444,7 +52236,7 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="7" t="s">
-        <v>2501</v>
+        <v>2496</v>
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -50570,9 +52362,9 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>2525</v>
+        <v>2514</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -50591,7 +52383,7 @@
       </c>
       <c r="O17" s="4"/>
       <c r="P17" s="26" t="s">
-        <v>2523</v>
+        <v>2512</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="3"/>
@@ -50602,9 +52394,9 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>2558</v>
+        <v>2543</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -50614,7 +52406,7 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="7" t="s">
-        <v>2520</v>
+        <v>2509</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -50624,7 +52416,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="7" t="s">
-        <v>2556</v>
+        <v>2542</v>
       </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="2"/>
@@ -50636,9 +52428,9 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>2555</v>
+        <v>2541</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -50648,7 +52440,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="7" t="s">
-        <v>2482</v>
+        <v>2479</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="2"/>
@@ -50664,13 +52456,13 @@
       <c r="U19" s="5"/>
       <c r="V19" s="6"/>
       <c r="W19" s="27" t="s">
-        <v>2514</v>
+        <v>2504</v>
       </c>
       <c r="X19" s="27" t="s">
-        <v>2553</v>
+        <v>2539</v>
       </c>
     </row>
-    <row r="20" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
@@ -50700,9 +52492,9 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
     </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>2549</v>
+        <v>2536</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -50716,27 +52508,29 @@
       <c r="K21" s="2"/>
       <c r="L21" s="4"/>
       <c r="M21" s="7" t="s">
-        <v>2547</v>
+        <v>2535</v>
       </c>
       <c r="N21" s="4"/>
       <c r="O21" s="7" t="s">
-        <v>2510</v>
+        <v>2502</v>
       </c>
       <c r="P21" s="4"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
-      <c r="T21" s="6"/>
+      <c r="T21" s="7" t="s">
+        <v>2651</v>
+      </c>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="6"/>
       <c r="X21" s="27" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
     </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>2516</v>
+        <v>2636</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -50744,7 +52538,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="7" t="s">
-        <v>2515</v>
+        <v>2505</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -50757,24 +52551,26 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="27" t="s">
-        <v>2507</v>
-      </c>
-      <c r="S22" s="4"/>
+        <v>2500</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>2634</v>
+      </c>
       <c r="T22" s="3"/>
       <c r="U22" s="6"/>
       <c r="V22" s="27" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
     </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>2614</v>
+        <v>2642</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="7" t="s">
-        <v>2526</v>
+        <v>2515</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -50786,28 +52582,30 @@
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
       <c r="M23" s="26" t="s">
-        <v>2613</v>
+        <v>2598</v>
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="4"/>
+      <c r="R23" s="7" t="s">
+        <v>2638</v>
+      </c>
       <c r="S23" s="3"/>
       <c r="T23" s="10"/>
       <c r="U23" s="27" t="s">
-        <v>2487</v>
+        <v>2484</v>
       </c>
       <c r="V23" s="4"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
     </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>2532</v>
+        <v>2520</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -50821,7 +52619,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="7" t="s">
-        <v>2529</v>
+        <v>2517</v>
       </c>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
@@ -50834,9 +52632,9 @@
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
     </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>2537</v>
+        <v>2525</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -50847,11 +52645,11 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="7" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="7" t="s">
-        <v>2534</v>
+        <v>2522</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -50866,7 +52664,7 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
     </row>
-    <row r="26" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>22</v>
       </c>
@@ -50896,20 +52694,20 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
     </row>
-    <row r="27" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>2519</v>
+        <v>2508</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="7" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="7" t="s">
-        <v>2517</v>
+        <v>2506</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -50928,9 +52726,9 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>2540</v>
+        <v>2528</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -50941,7 +52739,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="27" t="s">
-        <v>2538</v>
+        <v>2526</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="4"/>
@@ -50949,7 +52747,7 @@
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="26" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="3"/>
@@ -50960,9 +52758,9 @@
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
     </row>
-    <row r="29" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -50973,7 +52771,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="7" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="4"/>
@@ -50989,25 +52787,27 @@
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
+      <c r="AX29" t="s">
+        <v>2623</v>
+      </c>
     </row>
-    <row r="31" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="AR31" t="s">
-        <v>2481</v>
-      </c>
+    <row r="30" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="AY30" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="31" spans="1:57" x14ac:dyDescent="0.3">
       <c r="AW31" t="s">
-        <v>2480</v>
-      </c>
-      <c r="AX31" t="s">
-        <v>2624</v>
-      </c>
-      <c r="AY31" t="s">
-        <v>2626</v>
-      </c>
-      <c r="AZ31" t="s">
-        <v>2635</v>
+        <v>2478</v>
+      </c>
+      <c r="AX31" s="31" t="s">
+        <v>2607</v>
+      </c>
+      <c r="AY31" s="31" t="s">
+        <v>2616</v>
       </c>
     </row>
-    <row r="32" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="11" t="s">
         <v>16</v>
@@ -51154,34 +52954,31 @@
         <v>70</v>
       </c>
       <c r="AX32" s="30" t="s">
-        <v>2625</v>
+        <v>2608</v>
       </c>
       <c r="AY32" s="30" t="s">
-        <v>2627</v>
+        <v>2610</v>
       </c>
       <c r="AZ32" s="30" t="s">
-        <v>2629</v>
+        <v>2611</v>
       </c>
       <c r="BA32" s="30" t="s">
-        <v>2630</v>
+        <v>2612</v>
       </c>
       <c r="BB32" s="30" t="s">
-        <v>2631</v>
+        <v>2613</v>
       </c>
       <c r="BC32" s="30" t="s">
-        <v>2632</v>
+        <v>2609</v>
       </c>
       <c r="BD32" s="30" t="s">
-        <v>2627</v>
+        <v>2614</v>
       </c>
       <c r="BE32" s="30" t="s">
-        <v>2633</v>
-      </c>
-      <c r="BF32" s="30" t="s">
-        <v>2634</v>
+        <v>2615</v>
       </c>
     </row>
-    <row r="33" spans="1:50" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:59" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>71</v>
       </c>
@@ -51213,234 +53010,260 @@
         <v>79</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="L33" s="14" t="s">
         <v>80</v>
       </c>
       <c r="M33" s="14" t="s">
+        <v>2461</v>
+      </c>
+      <c r="N33" s="14" t="s">
         <v>2462</v>
       </c>
-      <c r="N33" s="14" t="s">
-        <v>2463</v>
-      </c>
       <c r="O33" s="14" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="P33" s="14" t="s">
         <v>81</v>
       </c>
       <c r="Q33" s="14" t="s">
+        <v>2469</v>
+      </c>
+      <c r="R33" s="14" t="s">
         <v>2470</v>
       </c>
-      <c r="R33" s="14" t="s">
-        <v>2471</v>
-      </c>
       <c r="S33" s="14" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="T33" s="14" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="U33" s="14" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
       <c r="V33" s="14" t="s">
+        <v>2489</v>
+      </c>
+      <c r="W33" s="14" t="s">
+        <v>2488</v>
+      </c>
+      <c r="X33" s="14" t="s">
+        <v>2491</v>
+      </c>
+      <c r="Y33" s="14" t="s">
         <v>2494</v>
       </c>
-      <c r="W33" s="14" t="s">
-        <v>2493</v>
-      </c>
-      <c r="X33" s="14" t="s">
-        <v>2496</v>
-      </c>
-      <c r="Y33" s="14" t="s">
-        <v>2499</v>
-      </c>
       <c r="Z33" s="14" t="s">
-        <v>2560</v>
+        <v>2545</v>
       </c>
       <c r="AA33" s="14" t="s">
-        <v>2503</v>
+        <v>2498</v>
       </c>
       <c r="AB33" s="14" t="s">
+        <v>2548</v>
+      </c>
+      <c r="AC33" s="14" t="s">
+        <v>2501</v>
+      </c>
+      <c r="AD33" s="14" t="s">
+        <v>2554</v>
+      </c>
+      <c r="AE33" s="14" t="s">
+        <v>2557</v>
+      </c>
+      <c r="AF33" s="14" t="s">
+        <v>2558</v>
+      </c>
+      <c r="AG33" s="14" t="s">
         <v>2563</v>
       </c>
-      <c r="AC33" s="14" t="s">
-        <v>2509</v>
-      </c>
-      <c r="AD33" s="14" t="s">
-        <v>2569</v>
-      </c>
-      <c r="AE33" s="14" t="s">
+      <c r="AH33" s="14" t="s">
+        <v>2564</v>
+      </c>
+      <c r="AI33" s="14" t="s">
+        <v>2510</v>
+      </c>
+      <c r="AJ33" s="14" t="s">
+        <v>2570</v>
+      </c>
+      <c r="AK33" s="14" t="s">
         <v>2572</v>
       </c>
-      <c r="AF33" s="14" t="s">
-        <v>2573</v>
-      </c>
-      <c r="AG33" s="14" t="s">
-        <v>2578</v>
-      </c>
-      <c r="AH33" s="14" t="s">
-        <v>2579</v>
-      </c>
-      <c r="AI33" s="14" t="s">
-        <v>2521</v>
-      </c>
-      <c r="AJ33" s="14" t="s">
-        <v>2585</v>
-      </c>
-      <c r="AK33" s="14" t="s">
+      <c r="AL33" s="14" t="s">
+        <v>2519</v>
+      </c>
+      <c r="AM33" s="15" t="s">
+        <v>2523</v>
+      </c>
+      <c r="AN33" s="15" t="s">
+        <v>2529</v>
+      </c>
+      <c r="AO33" s="15" t="s">
+        <v>2533</v>
+      </c>
+      <c r="AP33" s="15" t="s">
+        <v>2534</v>
+      </c>
+      <c r="AQ33" s="15" t="s">
         <v>2587</v>
       </c>
-      <c r="AL33" s="14" t="s">
-        <v>2531</v>
-      </c>
-      <c r="AM33" s="15" t="s">
-        <v>2535</v>
-      </c>
-      <c r="AN33" s="15" t="s">
-        <v>2541</v>
-      </c>
-      <c r="AO33" s="15" t="s">
-        <v>2545</v>
-      </c>
-      <c r="AP33" s="15" t="s">
-        <v>2546</v>
-      </c>
-      <c r="AQ33" s="15" t="s">
-        <v>2602</v>
-      </c>
       <c r="AR33" s="15" t="s">
-        <v>2605</v>
+        <v>2590</v>
       </c>
       <c r="AS33" s="15" t="s">
-        <v>2607</v>
+        <v>2592</v>
       </c>
       <c r="AT33" s="16" t="s">
-        <v>2609</v>
+        <v>2594</v>
       </c>
       <c r="AU33" s="15" t="s">
-        <v>2612</v>
+        <v>2597</v>
       </c>
       <c r="AV33" s="15" t="s">
-        <v>2617</v>
+        <v>2620</v>
       </c>
       <c r="AW33" s="15" t="s">
-        <v>2623</v>
+        <v>2627</v>
       </c>
       <c r="AX33" s="12" t="s">
         <v>2628</v>
       </c>
+      <c r="AY33" s="12" t="s">
+        <v>2630</v>
+      </c>
+      <c r="AZ33" s="12" t="s">
+        <v>2633</v>
+      </c>
+      <c r="BA33" s="12" t="s">
+        <v>2637</v>
+      </c>
+      <c r="BB33" s="12" t="s">
+        <v>2639</v>
+      </c>
+      <c r="BC33" s="12" t="s">
+        <v>2650</v>
+      </c>
+      <c r="BD33" s="12" t="s">
+        <v>2649</v>
+      </c>
+      <c r="BE33" s="12" t="s">
+        <v>2653</v>
+      </c>
+      <c r="BF33" s="31"/>
+      <c r="BG33" s="31"/>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:59" x14ac:dyDescent="0.3">
       <c r="AL34" t="s">
-        <v>2588</v>
+        <v>2573</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>2640</v>
       </c>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A37" s="29"/>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="109"/>
+      <c r="G37" s="109"/>
+      <c r="H37" s="109"/>
+      <c r="I37" s="109"/>
+      <c r="J37" s="109"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="32" t="s">
+      <c r="L37" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
+      <c r="M37" s="109"/>
+      <c r="N37" s="109"/>
+      <c r="O37" s="109"/>
+      <c r="P37" s="109"/>
       <c r="Q37" s="2"/>
-      <c r="R37" s="32" t="s">
+      <c r="R37" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="S37" s="32"/>
-      <c r="T37" s="32"/>
-      <c r="U37" s="32"/>
-      <c r="V37" s="32"/>
-      <c r="W37" s="32"/>
-      <c r="X37" s="32"/>
+      <c r="S37" s="109"/>
+      <c r="T37" s="109"/>
+      <c r="U37" s="109"/>
+      <c r="V37" s="109"/>
+      <c r="W37" s="109"/>
+      <c r="X37" s="109"/>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A38" s="28"/>
       <c r="B38" s="4" t="s">
-        <v>2476</v>
+        <v>2595</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>2528</v>
+        <v>2516</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>2565</v>
+        <v>2550</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>2544</v>
+        <v>2532</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>2522</v>
+        <v>2511</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>2582</v>
+        <v>2567</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>2492</v>
+        <v>2487</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>2595</v>
+        <v>2580</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4" t="s">
-        <v>2593</v>
+        <v>2578</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>2548</v>
+        <v>2600</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>2590</v>
+        <v>2575</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>2557</v>
+        <v>2603</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>2524</v>
+        <v>2513</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="29" t="s">
-        <v>2567</v>
+        <v>2552</v>
       </c>
       <c r="S38" s="29" t="s">
-        <v>2485</v>
+        <v>2482</v>
       </c>
       <c r="T38" s="29" t="s">
-        <v>2571</v>
+        <v>2556</v>
       </c>
       <c r="U38" s="29" t="s">
-        <v>2488</v>
+        <v>2605</v>
       </c>
       <c r="V38" s="29" t="s">
-        <v>2551</v>
+        <v>2538</v>
       </c>
       <c r="W38" s="29" t="s">
-        <v>2575</v>
+        <v>2560</v>
       </c>
       <c r="X38" s="29" t="s">
-        <v>2604</v>
+        <v>2589</v>
       </c>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>2601</v>
+        <v>2586</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -51460,21 +53283,24 @@
       <c r="Q39" s="2"/>
       <c r="R39" s="28"/>
       <c r="S39" s="7" t="s">
-        <v>2495</v>
+        <v>2490</v>
       </c>
       <c r="T39" s="7" t="s">
-        <v>2570</v>
+        <v>2555</v>
       </c>
       <c r="U39" s="28"/>
       <c r="V39" s="27" t="s">
-        <v>2600</v>
+        <v>2585</v>
       </c>
       <c r="W39" s="28"/>
       <c r="X39" s="28"/>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>2459</v>
+        <v>2596</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>2617</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -51501,7 +53327,7 @@
       <c r="W40" s="28"/>
       <c r="X40" s="28"/>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>4</v>
       </c>
@@ -51531,14 +53357,14 @@
       <c r="W41" s="28"/>
       <c r="X41" s="28"/>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>2506</v>
+        <v>2606</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="7" t="s">
-        <v>2564</v>
+        <v>2549</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -51556,12 +53382,14 @@
       <c r="R42" s="6"/>
       <c r="S42" s="28"/>
       <c r="T42" s="28"/>
-      <c r="U42" s="28"/>
+      <c r="U42" s="27" t="s">
+        <v>2622</v>
+      </c>
       <c r="V42" s="28"/>
       <c r="W42" s="28"/>
       <c r="X42" s="28"/>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>6</v>
       </c>
@@ -51591,7 +53419,7 @@
       <c r="W43" s="28"/>
       <c r="X43" s="28"/>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>8</v>
       </c>
@@ -51621,16 +53449,16 @@
       <c r="W44" s="28"/>
       <c r="X44" s="28"/>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>2597</v>
+        <v>2582</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="7" t="s">
-        <v>2596</v>
+        <v>2581</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -51642,7 +53470,7 @@
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="7" t="s">
-        <v>2497</v>
+        <v>2492</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="28"/>
@@ -51653,9 +53481,9 @@
       <c r="W45" s="28"/>
       <c r="X45" s="28"/>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>2490</v>
+        <v>2602</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -51669,10 +53497,12 @@
       <c r="K46" s="2"/>
       <c r="L46" s="4"/>
       <c r="M46" s="7" t="s">
-        <v>2489</v>
+        <v>2485</v>
       </c>
       <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
+      <c r="O46" s="7" t="s">
+        <v>2619</v>
+      </c>
       <c r="P46" s="4"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="28"/>
@@ -51683,9 +53513,9 @@
       <c r="W46" s="6"/>
       <c r="X46" s="28"/>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -51700,7 +53530,7 @@
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="7" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
@@ -51713,9 +53543,9 @@
       <c r="W47" s="28"/>
       <c r="X47" s="28"/>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>2562</v>
+        <v>2547</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -51734,7 +53564,7 @@
       <c r="P48" s="4"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="27" t="s">
-        <v>2561</v>
+        <v>2546</v>
       </c>
       <c r="S48" s="28"/>
       <c r="T48" s="28"/>
@@ -51863,7 +53693,7 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>2525</v>
+        <v>2514</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -51882,7 +53712,7 @@
       </c>
       <c r="O53" s="4"/>
       <c r="P53" s="26" t="s">
-        <v>2584</v>
+        <v>2569</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" s="28"/>
@@ -51895,7 +53725,7 @@
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>2558</v>
+        <v>2543</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -51905,7 +53735,7 @@
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="7" t="s">
-        <v>2583</v>
+        <v>2568</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
@@ -51915,7 +53745,7 @@
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="7" t="s">
-        <v>2606</v>
+        <v>2591</v>
       </c>
       <c r="P54" s="4"/>
       <c r="Q54" s="2"/>
@@ -51929,7 +53759,7 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>2555</v>
+        <v>2541</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -51939,7 +53769,7 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="7" t="s">
-        <v>2491</v>
+        <v>2486</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="2"/>
@@ -51955,10 +53785,10 @@
       <c r="U55" s="5"/>
       <c r="V55" s="6"/>
       <c r="W55" s="27" t="s">
-        <v>2574</v>
+        <v>2559</v>
       </c>
       <c r="X55" s="27" t="s">
-        <v>2603</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.3">
@@ -51993,7 +53823,7 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>2599</v>
+        <v>2584</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -52007,11 +53837,11 @@
       <c r="K57" s="2"/>
       <c r="L57" s="4"/>
       <c r="M57" s="7" t="s">
-        <v>2598</v>
+        <v>2583</v>
       </c>
       <c r="N57" s="4"/>
       <c r="O57" s="7" t="s">
-        <v>2568</v>
+        <v>2553</v>
       </c>
       <c r="P57" s="4"/>
       <c r="Q57" s="2"/>
@@ -52022,12 +53852,12 @@
       <c r="V57" s="28"/>
       <c r="W57" s="6"/>
       <c r="X57" s="27" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>2577</v>
+        <v>2562</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -52035,7 +53865,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="7" t="s">
-        <v>2576</v>
+        <v>2561</v>
       </c>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
@@ -52048,24 +53878,24 @@
       <c r="P58" s="4"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="27" t="s">
-        <v>2566</v>
+        <v>2551</v>
       </c>
       <c r="S58" s="4"/>
       <c r="T58" s="28"/>
       <c r="U58" s="6"/>
       <c r="V58" s="27" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="W58" s="28"/>
       <c r="X58" s="28"/>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>2527</v>
+        <v>2599</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="7" t="s">
-        <v>2586</v>
+        <v>2571</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -52076,7 +53906,9 @@
       <c r="J59" s="4"/>
       <c r="K59" s="2"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="5"/>
+      <c r="M59" s="26" t="s">
+        <v>2618</v>
+      </c>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
@@ -52085,7 +53917,7 @@
       <c r="S59" s="28"/>
       <c r="T59" s="10"/>
       <c r="U59" s="27" t="s">
-        <v>2498</v>
+        <v>2493</v>
       </c>
       <c r="V59" s="4"/>
       <c r="W59" s="28"/>
@@ -52093,10 +53925,10 @@
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>2532</v>
+        <v>2520</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -52110,7 +53942,7 @@
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
       <c r="N60" s="7" t="s">
-        <v>2589</v>
+        <v>2574</v>
       </c>
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
@@ -52125,7 +53957,7 @@
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>2592</v>
+        <v>2577</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -52136,11 +53968,11 @@
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="7" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="7" t="s">
-        <v>2591</v>
+        <v>2576</v>
       </c>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
@@ -52187,18 +54019,18 @@
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>2581</v>
+        <v>2566</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="7" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="7" t="s">
-        <v>2580</v>
+        <v>2565</v>
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
@@ -52219,7 +54051,7 @@
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>2540</v>
+        <v>2528</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -52230,7 +54062,7 @@
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="27" t="s">
-        <v>2594</v>
+        <v>2579</v>
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="4"/>
@@ -52238,7 +54070,7 @@
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
       <c r="P64" s="26" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="28"/>
@@ -52251,7 +54083,7 @@
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -52262,7 +54094,7 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="7" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="4"/>
@@ -52292,4 +54124,2230 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="22" width="5.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="84"/>
+      <c r="B1" s="85" t="s">
+        <v>2681</v>
+      </c>
+      <c r="C1" s="86" t="s">
+        <v>2682</v>
+      </c>
+      <c r="D1" s="86" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1" s="86" t="s">
+        <v>2684</v>
+      </c>
+      <c r="F1" s="86" t="s">
+        <v>2685</v>
+      </c>
+      <c r="G1" s="86" t="s">
+        <v>2686</v>
+      </c>
+      <c r="H1" s="86" t="s">
+        <v>2687</v>
+      </c>
+      <c r="I1" s="86" t="s">
+        <v>2688</v>
+      </c>
+      <c r="J1" s="87" t="s">
+        <v>2689</v>
+      </c>
+      <c r="K1" s="85" t="s">
+        <v>2690</v>
+      </c>
+      <c r="L1" s="86" t="s">
+        <v>2691</v>
+      </c>
+      <c r="M1" s="86" t="s">
+        <v>2692</v>
+      </c>
+      <c r="N1" s="86" t="s">
+        <v>2693</v>
+      </c>
+      <c r="O1" s="87" t="s">
+        <v>2694</v>
+      </c>
+      <c r="P1" s="88" t="s">
+        <v>2695</v>
+      </c>
+      <c r="Q1" s="89" t="s">
+        <v>2696</v>
+      </c>
+      <c r="R1" s="89" t="s">
+        <v>2697</v>
+      </c>
+      <c r="S1" s="89" t="s">
+        <v>2698</v>
+      </c>
+      <c r="T1" s="89" t="s">
+        <v>2699</v>
+      </c>
+      <c r="U1" s="89" t="s">
+        <v>2700</v>
+      </c>
+      <c r="V1" s="90" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="92" t="s">
+        <v>2654</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38" t="s">
+        <v>2710</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="38" t="s">
+        <v>2729</v>
+      </c>
+      <c r="O2" s="39"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="66" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="93" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="51" t="s">
+        <v>2711</v>
+      </c>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="54" t="s">
+        <v>2730</v>
+      </c>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="53" t="s">
+        <v>2749</v>
+      </c>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="49"/>
+    </row>
+    <row r="4" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="93" t="s">
+        <v>2657</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="51" t="s">
+        <v>2712</v>
+      </c>
+      <c r="I4" s="45"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="44" t="s">
+        <v>2731</v>
+      </c>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="56" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="93" t="s">
+        <v>2660</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="51" t="s">
+        <v>2713</v>
+      </c>
+      <c r="J5" s="46"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="51" t="s">
+        <v>2732</v>
+      </c>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="57" t="s">
+        <v>2751</v>
+      </c>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="49"/>
+    </row>
+    <row r="6" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="93" t="s">
+        <v>2702</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51" t="s">
+        <v>2714</v>
+      </c>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="44" t="s">
+        <v>2733</v>
+      </c>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="57" t="s">
+        <v>2752</v>
+      </c>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="49"/>
+    </row>
+    <row r="7" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="93" t="s">
+        <v>2703</v>
+      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="54" t="s">
+        <v>2715</v>
+      </c>
+      <c r="K7" s="50"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="51" t="s">
+        <v>2734</v>
+      </c>
+      <c r="N7" s="45"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="53" t="s">
+        <v>2753</v>
+      </c>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="49"/>
+    </row>
+    <row r="8" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="93" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="51" t="s">
+        <v>2735</v>
+      </c>
+      <c r="O8" s="46"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="53" t="s">
+        <v>2754</v>
+      </c>
+      <c r="U8" s="48"/>
+      <c r="V8" s="49"/>
+    </row>
+    <row r="9" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="93" t="s">
+        <v>2670</v>
+      </c>
+      <c r="B9" s="50"/>
+      <c r="C9" s="51" t="s">
+        <v>2717</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="54" t="s">
+        <v>2736</v>
+      </c>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="53" t="s">
+        <v>2755</v>
+      </c>
+      <c r="R9" s="48"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="49"/>
+    </row>
+    <row r="10" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="93" t="s">
+        <v>2704</v>
+      </c>
+      <c r="B10" s="50"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="51" t="s">
+        <v>2718</v>
+      </c>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="44" t="s">
+        <v>2737</v>
+      </c>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="53" t="s">
+        <v>2756</v>
+      </c>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="49"/>
+    </row>
+    <row r="11" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="93" t="s">
+        <v>2705</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="51" t="s">
+        <v>2719</v>
+      </c>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="51" t="s">
+        <v>2738</v>
+      </c>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="53" t="s">
+        <v>2757</v>
+      </c>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="49"/>
+    </row>
+    <row r="12" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="93" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="51" t="s">
+        <v>2739</v>
+      </c>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="53" t="s">
+        <v>2758</v>
+      </c>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="49"/>
+    </row>
+    <row r="13" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="93" t="s">
+        <v>2706</v>
+      </c>
+      <c r="B13" s="50"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="54" t="s">
+        <v>2721</v>
+      </c>
+      <c r="K13" s="50"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="53" t="s">
+        <v>2740</v>
+      </c>
+      <c r="N13" s="45"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="53" t="s">
+        <v>2759</v>
+      </c>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="49"/>
+    </row>
+    <row r="14" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="93" t="s">
+        <v>2707</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>2722</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="51" t="s">
+        <v>2741</v>
+      </c>
+      <c r="O14" s="46"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="53" t="s">
+        <v>2760</v>
+      </c>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="49"/>
+    </row>
+    <row r="15" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="93" t="s">
+        <v>2708</v>
+      </c>
+      <c r="B15" s="50"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="51" t="s">
+        <v>2723</v>
+      </c>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="53" t="s">
+        <v>2742</v>
+      </c>
+      <c r="N15" s="45"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="53" t="s">
+        <v>2761</v>
+      </c>
+      <c r="V15" s="49"/>
+    </row>
+    <row r="16" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="93" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B16" s="50"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="51" t="s">
+        <v>2724</v>
+      </c>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="54" t="s">
+        <v>2743</v>
+      </c>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="53" t="s">
+        <v>2762</v>
+      </c>
+      <c r="V16" s="49"/>
+    </row>
+    <row r="17" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="93" t="s">
+        <v>2677</v>
+      </c>
+      <c r="B17" s="50"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="51" t="s">
+        <v>2725</v>
+      </c>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="44" t="s">
+        <v>2744</v>
+      </c>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="53" t="s">
+        <v>2763</v>
+      </c>
+      <c r="U17" s="48"/>
+      <c r="V17" s="49"/>
+    </row>
+    <row r="18" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="93" t="s">
+        <v>2709</v>
+      </c>
+      <c r="B18" s="50"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="51" t="s">
+        <v>2726</v>
+      </c>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="51" t="s">
+        <v>2745</v>
+      </c>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="51" t="s">
+        <v>2764</v>
+      </c>
+      <c r="T18" s="55"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="49"/>
+    </row>
+    <row r="19" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="93" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B19" s="50"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="51" t="s">
+        <v>2727</v>
+      </c>
+      <c r="I19" s="45"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="51" t="s">
+        <v>2746</v>
+      </c>
+      <c r="N19" s="45"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="57" t="s">
+        <v>2765</v>
+      </c>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="49"/>
+    </row>
+    <row r="20" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="94" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B20" s="59"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="67" t="s">
+        <v>2728</v>
+      </c>
+      <c r="J20" s="62"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="67" t="s">
+        <v>2747</v>
+      </c>
+      <c r="O20" s="62"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="64"/>
+      <c r="T20" s="68" t="s">
+        <v>2766</v>
+      </c>
+      <c r="U20" s="91"/>
+      <c r="V20" s="65"/>
+    </row>
+    <row r="21" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="77"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="79"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="79"/>
+      <c r="U21" s="79"/>
+      <c r="V21" s="79"/>
+    </row>
+    <row r="22" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="77"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="78"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
+    </row>
+    <row r="23" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="77"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
+    </row>
+    <row r="24" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="77"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="79"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="79"/>
+    </row>
+    <row r="25" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="77"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="78"/>
+      <c r="N25" s="78"/>
+      <c r="O25" s="78"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="79"/>
+      <c r="U25" s="79"/>
+      <c r="V25" s="79"/>
+    </row>
+    <row r="26" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="77"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="79"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="79"/>
+      <c r="U26" s="79"/>
+      <c r="V26" s="79"/>
+    </row>
+    <row r="27" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="77"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="79"/>
+      <c r="R27" s="79"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="79"/>
+      <c r="U27" s="79"/>
+      <c r="V27" s="79"/>
+    </row>
+    <row r="28" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="77"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="79"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="79"/>
+      <c r="U28" s="79"/>
+      <c r="V28" s="79"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z15" sqref="Z15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="22" width="5.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="70"/>
+      <c r="B1" s="71" t="s">
+        <v>2681</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>2682</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>2684</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>2685</v>
+      </c>
+      <c r="G1" s="72" t="s">
+        <v>2686</v>
+      </c>
+      <c r="H1" s="72" t="s">
+        <v>2687</v>
+      </c>
+      <c r="I1" s="72" t="s">
+        <v>2688</v>
+      </c>
+      <c r="J1" s="73" t="s">
+        <v>2689</v>
+      </c>
+      <c r="K1" s="71" t="s">
+        <v>2690</v>
+      </c>
+      <c r="L1" s="72" t="s">
+        <v>2691</v>
+      </c>
+      <c r="M1" s="72" t="s">
+        <v>2692</v>
+      </c>
+      <c r="N1" s="72" t="s">
+        <v>2693</v>
+      </c>
+      <c r="O1" s="73" t="s">
+        <v>2694</v>
+      </c>
+      <c r="P1" s="74" t="s">
+        <v>2695</v>
+      </c>
+      <c r="Q1" s="75" t="s">
+        <v>2696</v>
+      </c>
+      <c r="R1" s="75" t="s">
+        <v>2697</v>
+      </c>
+      <c r="S1" s="75" t="s">
+        <v>2698</v>
+      </c>
+      <c r="T1" s="75" t="s">
+        <v>2699</v>
+      </c>
+      <c r="U1" s="75" t="s">
+        <v>2700</v>
+      </c>
+      <c r="V1" s="76" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="82" t="s">
+        <v>2654</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
+        <v>2624</v>
+      </c>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="38" t="s">
+        <v>2481</v>
+      </c>
+      <c r="R2" s="38" t="s">
+        <v>2503</v>
+      </c>
+      <c r="S2" s="41"/>
+      <c r="T2" s="42" t="s">
+        <v>2537</v>
+      </c>
+      <c r="U2" s="41"/>
+      <c r="V2" s="43"/>
+    </row>
+    <row r="3" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="83" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>2593</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="44" t="s">
+        <v>2458</v>
+      </c>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="49"/>
+    </row>
+    <row r="4" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="83" t="s">
+        <v>2656</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="49"/>
+    </row>
+    <row r="5" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="83" t="s">
+        <v>2657</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="51" t="s">
+        <v>2499</v>
+      </c>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="53" t="s">
+        <v>2604</v>
+      </c>
+      <c r="T5" s="53" t="s">
+        <v>2643</v>
+      </c>
+      <c r="U5" s="53" t="s">
+        <v>2631</v>
+      </c>
+      <c r="V5" s="49"/>
+    </row>
+    <row r="6" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="83" t="s">
+        <v>2658</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="49"/>
+    </row>
+    <row r="7" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="83" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="49"/>
+    </row>
+    <row r="8" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="83" t="s">
+        <v>2660</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="51" t="s">
+        <v>2530</v>
+      </c>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="54" t="s">
+        <v>2483</v>
+      </c>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="49"/>
+    </row>
+    <row r="9" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="83" t="s">
+        <v>2661</v>
+      </c>
+      <c r="B9" s="50"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="51" t="s">
+        <v>2485</v>
+      </c>
+      <c r="M9" s="45"/>
+      <c r="N9" s="51" t="s">
+        <v>2601</v>
+      </c>
+      <c r="O9" s="46"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="53" t="s">
+        <v>2629</v>
+      </c>
+      <c r="S9" s="51" t="s">
+        <v>2646</v>
+      </c>
+      <c r="T9" s="48"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="49"/>
+    </row>
+    <row r="10" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="83" t="s">
+        <v>2662</v>
+      </c>
+      <c r="B10" s="50"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="51" t="s">
+        <v>2467</v>
+      </c>
+      <c r="N10" s="45"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="49"/>
+    </row>
+    <row r="11" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="83" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="44" t="s">
+        <v>2496</v>
+      </c>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="49"/>
+    </row>
+    <row r="12" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="83" t="s">
+        <v>2664</v>
+      </c>
+      <c r="B12" s="50"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="49"/>
+    </row>
+    <row r="13" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="83" t="s">
+        <v>2665</v>
+      </c>
+      <c r="B13" s="50"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="45"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="49"/>
+    </row>
+    <row r="14" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="83" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B14" s="50"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="45"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="49"/>
+    </row>
+    <row r="15" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="83" t="s">
+        <v>2667</v>
+      </c>
+      <c r="B15" s="50"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="49"/>
+    </row>
+    <row r="16" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="83" t="s">
+        <v>2668</v>
+      </c>
+      <c r="B16" s="50"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="45"/>
+      <c r="O16" s="54" t="s">
+        <v>2512</v>
+      </c>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="49"/>
+    </row>
+    <row r="17" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="83" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B17" s="50"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="45"/>
+      <c r="G17" s="51" t="s">
+        <v>2509</v>
+      </c>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="51" t="s">
+        <v>2542</v>
+      </c>
+      <c r="O17" s="46"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="49"/>
+    </row>
+    <row r="18" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="83" t="s">
+        <v>2670</v>
+      </c>
+      <c r="B18" s="50"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="51" t="s">
+        <v>2479</v>
+      </c>
+      <c r="J18" s="46"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="53" t="s">
+        <v>2504</v>
+      </c>
+      <c r="V18" s="56" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="83" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="49"/>
+    </row>
+    <row r="20" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="83" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B20" s="50"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="51" t="s">
+        <v>2535</v>
+      </c>
+      <c r="M20" s="45"/>
+      <c r="N20" s="51" t="s">
+        <v>2502</v>
+      </c>
+      <c r="O20" s="46"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="51" t="s">
+        <v>2651</v>
+      </c>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="56" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="83" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B21" s="50"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="51" t="s">
+        <v>2505</v>
+      </c>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="57" t="s">
+        <v>2500</v>
+      </c>
+      <c r="Q21" s="51" t="s">
+        <v>2634</v>
+      </c>
+      <c r="R21" s="48"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="53" t="s">
+        <v>2473</v>
+      </c>
+      <c r="U21" s="48"/>
+      <c r="V21" s="49"/>
+    </row>
+    <row r="22" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="83" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51" t="s">
+        <v>2515</v>
+      </c>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="51" t="s">
+        <v>2598</v>
+      </c>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="44" t="s">
+        <v>2638</v>
+      </c>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="53" t="s">
+        <v>2484</v>
+      </c>
+      <c r="T22" s="45"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="49"/>
+    </row>
+    <row r="23" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="83" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>2474</v>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="51" t="s">
+        <v>2517</v>
+      </c>
+      <c r="N23" s="45"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="49"/>
+    </row>
+    <row r="24" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="83" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B24" s="50"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="54" t="s">
+        <v>2459</v>
+      </c>
+      <c r="K24" s="44" t="s">
+        <v>2522</v>
+      </c>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="49"/>
+    </row>
+    <row r="25" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="83" t="s">
+        <v>2677</v>
+      </c>
+      <c r="B25" s="50"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="45"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="49"/>
+    </row>
+    <row r="26" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="83" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51" t="s">
+        <v>2477</v>
+      </c>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="51" t="s">
+        <v>2506</v>
+      </c>
+      <c r="I26" s="45"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="49"/>
+    </row>
+    <row r="27" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="83" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B27" s="50"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="58" t="s">
+        <v>2526</v>
+      </c>
+      <c r="K27" s="50"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="54" t="s">
+        <v>2463</v>
+      </c>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="49"/>
+    </row>
+    <row r="28" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="95" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B28" s="59"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="61" t="s">
+        <v>2465</v>
+      </c>
+      <c r="K28" s="59"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="65"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:S7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="19" width="6.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="103" t="s">
+        <v>2807</v>
+      </c>
+      <c r="B1" s="104" t="s">
+        <v>2655</v>
+      </c>
+      <c r="C1" s="104" t="s">
+        <v>2657</v>
+      </c>
+      <c r="D1" s="104" t="s">
+        <v>2660</v>
+      </c>
+      <c r="E1" s="104" t="s">
+        <v>2702</v>
+      </c>
+      <c r="F1" s="104" t="s">
+        <v>2703</v>
+      </c>
+      <c r="G1" s="104" t="s">
+        <v>2669</v>
+      </c>
+      <c r="H1" s="104" t="s">
+        <v>2670</v>
+      </c>
+      <c r="I1" s="104" t="s">
+        <v>2808</v>
+      </c>
+      <c r="J1" s="104" t="s">
+        <v>2809</v>
+      </c>
+      <c r="K1" s="104" t="s">
+        <v>2673</v>
+      </c>
+      <c r="L1" s="104" t="s">
+        <v>2810</v>
+      </c>
+      <c r="M1" s="104" t="s">
+        <v>2811</v>
+      </c>
+      <c r="N1" s="104" t="s">
+        <v>2708</v>
+      </c>
+      <c r="O1" s="104" t="s">
+        <v>2676</v>
+      </c>
+      <c r="P1" s="104" t="s">
+        <v>2677</v>
+      </c>
+      <c r="Q1" s="104" t="s">
+        <v>2709</v>
+      </c>
+      <c r="R1" s="104" t="s">
+        <v>2812</v>
+      </c>
+      <c r="S1" s="105" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="100" t="s">
+        <v>2710</v>
+      </c>
+      <c r="B2" s="101" t="s">
+        <v>2767</v>
+      </c>
+      <c r="C2" s="101" t="s">
+        <v>2768</v>
+      </c>
+      <c r="D2" s="101" t="s">
+        <v>2769</v>
+      </c>
+      <c r="E2" s="101" t="s">
+        <v>2770</v>
+      </c>
+      <c r="F2" s="101" t="s">
+        <v>2715</v>
+      </c>
+      <c r="G2" s="101" t="s">
+        <v>2771</v>
+      </c>
+      <c r="H2" s="101" t="s">
+        <v>2717</v>
+      </c>
+      <c r="I2" s="101" t="s">
+        <v>2718</v>
+      </c>
+      <c r="J2" s="101" t="s">
+        <v>2719</v>
+      </c>
+      <c r="K2" s="101" t="s">
+        <v>2720</v>
+      </c>
+      <c r="L2" s="101" t="s">
+        <v>2721</v>
+      </c>
+      <c r="M2" s="101" t="s">
+        <v>2772</v>
+      </c>
+      <c r="N2" s="101" t="s">
+        <v>2773</v>
+      </c>
+      <c r="O2" s="101" t="s">
+        <v>2774</v>
+      </c>
+      <c r="P2" s="101" t="s">
+        <v>2775</v>
+      </c>
+      <c r="Q2" s="101" t="s">
+        <v>2776</v>
+      </c>
+      <c r="R2" s="101" t="s">
+        <v>2777</v>
+      </c>
+      <c r="S2" s="102" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
+        <v>2729</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>2731</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>2779</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>2780</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>2735</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>2781</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>2737</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>2782</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>2783</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>2740</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>2784</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>2742</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>2743</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>2744</v>
+      </c>
+      <c r="Q3" s="33" t="s">
+        <v>2745</v>
+      </c>
+      <c r="R3" s="33" t="s">
+        <v>2746</v>
+      </c>
+      <c r="S3" s="35" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="34" t="s">
+        <v>2786</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>2749</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>2750</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>2787</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>2752</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>2788</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>2789</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>2790</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>2791</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>2757</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>2758</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>2792</v>
+      </c>
+      <c r="M4" s="33" t="s">
+        <v>2760</v>
+      </c>
+      <c r="N4" s="33" t="s">
+        <v>2761</v>
+      </c>
+      <c r="O4" s="33" t="s">
+        <v>2793</v>
+      </c>
+      <c r="P4" s="33" t="s">
+        <v>2794</v>
+      </c>
+      <c r="Q4" s="33" t="s">
+        <v>2764</v>
+      </c>
+      <c r="R4" s="33" t="s">
+        <v>2765</v>
+      </c>
+      <c r="S4" s="35" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="34" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>2506</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>2505</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>2499</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>2459</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>2477</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>2530</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>2796</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>2515</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>2797</v>
+      </c>
+      <c r="M5" s="33" t="s">
+        <v>2798</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>2465</v>
+      </c>
+      <c r="O5" s="33" t="s">
+        <v>2474</v>
+      </c>
+      <c r="P5" s="33" t="s">
+        <v>2624</v>
+      </c>
+      <c r="Q5" s="33" t="s">
+        <v>2509</v>
+      </c>
+      <c r="R5" s="33" t="s">
+        <v>2593</v>
+      </c>
+      <c r="S5" s="35" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="34" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>2799</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>2800</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>2458</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>2801</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>2502</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>2512</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="33" t="s">
+        <v>2467</v>
+      </c>
+      <c r="N6" s="33" t="s">
+        <v>2522</v>
+      </c>
+      <c r="O6" s="33" t="s">
+        <v>2601</v>
+      </c>
+      <c r="P6" s="33" t="s">
+        <v>2542</v>
+      </c>
+      <c r="Q6" s="33" t="s">
+        <v>2483</v>
+      </c>
+      <c r="R6" s="33" t="s">
+        <v>2485</v>
+      </c>
+      <c r="S6" s="35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="96" t="s">
+        <v>2802</v>
+      </c>
+      <c r="B7" s="97" t="s">
+        <v>2473</v>
+      </c>
+      <c r="C7" s="97" t="s">
+        <v>2631</v>
+      </c>
+      <c r="D7" s="97" t="s">
+        <v>2634</v>
+      </c>
+      <c r="E7" s="97" t="s">
+        <v>2504</v>
+      </c>
+      <c r="F7" s="97" t="s">
+        <v>2638</v>
+      </c>
+      <c r="G7" s="97" t="s">
+        <v>2604</v>
+      </c>
+      <c r="H7" s="97" t="s">
+        <v>2503</v>
+      </c>
+      <c r="I7" s="98"/>
+      <c r="J7" s="97" t="s">
+        <v>2803</v>
+      </c>
+      <c r="K7" s="97" t="s">
+        <v>2629</v>
+      </c>
+      <c r="L7" s="97" t="s">
+        <v>2471</v>
+      </c>
+      <c r="M7" s="97" t="s">
+        <v>2651</v>
+      </c>
+      <c r="N7" s="97" t="s">
+        <v>2500</v>
+      </c>
+      <c r="O7" s="97" t="s">
+        <v>2804</v>
+      </c>
+      <c r="P7" s="97" t="s">
+        <v>2646</v>
+      </c>
+      <c r="Q7" s="97" t="s">
+        <v>2805</v>
+      </c>
+      <c r="R7" s="97" t="s">
+        <v>2806</v>
+      </c>
+      <c r="S7" s="99" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="96" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/output/basis_character_new.xlsx
+++ b/output/basis_character_new.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3679" uniqueCount="2813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3680" uniqueCount="2814">
   <si>
     <t>Case4(2.11개)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -22529,12 +22529,16 @@
     <t>ㅍ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>뾆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -22654,7 +22658,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -22688,6 +22692,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF4BACC6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -23134,7 +23144,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -23465,6 +23475,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -23757,9 +23770,9 @@
       <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20">
       <c r="A1" s="109" t="s">
         <v>82</v>
       </c>
@@ -23791,10 +23804,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20">
       <c r="A2" s="109"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20">
       <c r="A3" s="109"/>
       <c r="B3" s="17" t="s">
         <v>92</v>
@@ -23836,7 +23849,7 @@
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20">
       <c r="A4" s="109"/>
       <c r="B4" s="10"/>
       <c r="C4" s="20"/>
@@ -23857,7 +23870,7 @@
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20">
       <c r="A5" s="109"/>
       <c r="B5" s="17" t="s">
         <v>102</v>
@@ -23899,7 +23912,7 @@
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20">
       <c r="A6" s="109"/>
       <c r="B6" s="10"/>
       <c r="C6" s="20"/>
@@ -23920,7 +23933,7 @@
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20">
       <c r="A7" s="109"/>
       <c r="B7" s="17" t="s">
         <v>110</v>
@@ -23962,7 +23975,7 @@
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20">
       <c r="A8" s="109"/>
       <c r="B8" s="10"/>
       <c r="C8" s="20"/>
@@ -23983,7 +23996,7 @@
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20">
       <c r="A9" s="109"/>
       <c r="B9" s="17" t="s">
         <v>118</v>
@@ -24025,7 +24038,7 @@
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20">
       <c r="A10" s="109"/>
       <c r="B10" s="10"/>
       <c r="C10" s="20"/>
@@ -24046,7 +24059,7 @@
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20">
       <c r="A11" s="109"/>
       <c r="B11" s="17" t="s">
         <v>126</v>
@@ -24088,7 +24101,7 @@
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20">
       <c r="A12" s="109"/>
       <c r="B12" s="10"/>
       <c r="C12" s="20"/>
@@ -24109,7 +24122,7 @@
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20">
       <c r="A13" s="109"/>
       <c r="B13" s="17" t="s">
         <v>132</v>
@@ -24151,7 +24164,7 @@
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20">
       <c r="A14" s="109"/>
       <c r="B14" s="10"/>
       <c r="C14" s="20"/>
@@ -24172,7 +24185,7 @@
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20">
       <c r="A15" s="109"/>
       <c r="B15" s="19" t="s">
         <v>140</v>
@@ -24214,7 +24227,7 @@
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20">
       <c r="A16" s="109"/>
       <c r="B16" s="10"/>
       <c r="C16" s="20"/>
@@ -24235,7 +24248,7 @@
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20">
       <c r="A17" s="109"/>
       <c r="B17" s="17" t="s">
         <v>148</v>
@@ -24277,7 +24290,7 @@
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20">
       <c r="A18" s="109"/>
       <c r="B18" s="10"/>
       <c r="C18" s="20"/>
@@ -24298,7 +24311,7 @@
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20">
       <c r="A19" s="109"/>
       <c r="B19" s="17" t="s">
         <v>156</v>
@@ -24340,7 +24353,7 @@
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20">
       <c r="A20" s="109"/>
       <c r="B20" s="10"/>
       <c r="C20" s="20"/>
@@ -24361,7 +24374,7 @@
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20">
       <c r="A21" s="109"/>
       <c r="B21" s="17" t="s">
         <v>163</v>
@@ -24403,7 +24416,7 @@
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20">
       <c r="A22" s="109"/>
       <c r="B22" s="10"/>
       <c r="C22" s="20"/>
@@ -24424,7 +24437,7 @@
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20">
       <c r="A23" s="109"/>
       <c r="B23" s="19" t="s">
         <v>172</v>
@@ -24466,7 +24479,7 @@
       <c r="S23" s="10"/>
       <c r="T23" s="10"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20">
       <c r="A24" s="109"/>
       <c r="B24" s="10"/>
       <c r="C24" s="20"/>
@@ -24487,7 +24500,7 @@
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20">
       <c r="A25" s="109"/>
       <c r="B25" s="17" t="s">
         <v>177</v>
@@ -24529,7 +24542,7 @@
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20">
       <c r="A26" s="109"/>
       <c r="B26" s="10"/>
       <c r="C26" s="20"/>
@@ -24550,7 +24563,7 @@
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20">
       <c r="A27" s="109"/>
       <c r="B27" s="19" t="s">
         <v>186</v>
@@ -24592,7 +24605,7 @@
       <c r="S27" s="10"/>
       <c r="T27" s="10"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20">
       <c r="A28" s="109"/>
       <c r="B28" s="10"/>
       <c r="C28" s="20"/>
@@ -24613,7 +24626,7 @@
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20">
       <c r="A29" s="109"/>
       <c r="B29" s="17" t="s">
         <v>195</v>
@@ -24655,7 +24668,7 @@
       <c r="S29" s="10"/>
       <c r="T29" s="10"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20">
       <c r="A30" s="109"/>
       <c r="B30" s="10"/>
       <c r="C30" s="20"/>
@@ -24676,7 +24689,7 @@
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20">
       <c r="A31" s="109"/>
       <c r="B31" s="17" t="s">
         <v>202</v>
@@ -24718,7 +24731,7 @@
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20">
       <c r="A32" s="109"/>
       <c r="B32" s="10"/>
       <c r="C32" s="20"/>
@@ -24739,7 +24752,7 @@
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:41">
       <c r="A33" s="109"/>
       <c r="B33" s="17" t="s">
         <v>210</v>
@@ -24781,7 +24794,7 @@
       <c r="S33" s="10"/>
       <c r="T33" s="10"/>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:41">
       <c r="A34" s="109"/>
       <c r="B34" s="10"/>
       <c r="C34" s="20"/>
@@ -24802,7 +24815,7 @@
       <c r="S34" s="10"/>
       <c r="T34" s="10"/>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:41">
       <c r="A35" s="109"/>
       <c r="B35" s="17" t="s">
         <v>218</v>
@@ -24844,7 +24857,7 @@
       <c r="S35" s="10"/>
       <c r="T35" s="10"/>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:41">
       <c r="A36" s="109"/>
       <c r="B36" s="10"/>
       <c r="C36" s="20"/>
@@ -24865,7 +24878,7 @@
       <c r="S36" s="10"/>
       <c r="T36" s="10"/>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:41">
       <c r="A37" s="109"/>
       <c r="B37" s="17" t="s">
         <v>226</v>
@@ -24907,7 +24920,7 @@
       <c r="S37" s="10"/>
       <c r="T37" s="10"/>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:41">
       <c r="A38" s="109"/>
       <c r="B38" s="10"/>
       <c r="C38" s="20"/>
@@ -24928,7 +24941,7 @@
       <c r="S38" s="10"/>
       <c r="T38" s="10"/>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:41">
       <c r="A39" s="109"/>
       <c r="B39" s="17" t="s">
         <v>234</v>
@@ -24970,7 +24983,7 @@
       <c r="S39" s="10"/>
       <c r="T39" s="10"/>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:41">
       <c r="A40" s="109"/>
       <c r="B40" s="10"/>
       <c r="C40" s="20"/>
@@ -24982,7 +24995,7 @@
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:41">
       <c r="B41" t="s">
         <v>242</v>
       </c>
@@ -25104,12 +25117,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:41">
       <c r="A42" s="109" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:41">
       <c r="A43" s="109"/>
       <c r="B43" t="s">
         <v>244</v>
@@ -25127,10 +25140,10 @@
         <v>248</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:41">
       <c r="A44" s="109"/>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:41">
       <c r="A45" s="109"/>
       <c r="B45" s="17" t="s">
         <v>249</v>
@@ -25175,7 +25188,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:41">
       <c r="A46" s="109"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -25183,7 +25196,7 @@
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:41">
       <c r="A47" s="109"/>
       <c r="B47" s="17" t="s">
         <v>254</v>
@@ -25228,7 +25241,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:41">
       <c r="A48" s="109"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -25236,7 +25249,7 @@
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15">
       <c r="A49" s="109"/>
       <c r="B49" s="19" t="s">
         <v>259</v>
@@ -25281,7 +25294,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15">
       <c r="A50" s="109"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -25289,7 +25302,7 @@
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15">
       <c r="A51" s="109"/>
       <c r="B51" s="17" t="s">
         <v>264</v>
@@ -25334,7 +25347,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15">
       <c r="A52" s="109"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -25342,7 +25355,7 @@
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15">
       <c r="A53" s="109"/>
       <c r="B53" s="19" t="s">
         <v>269</v>
@@ -25381,7 +25394,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15">
       <c r="A54" s="109"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -25389,7 +25402,7 @@
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15">
       <c r="A55" s="109"/>
       <c r="B55" s="17" t="s">
         <v>272</v>
@@ -25434,7 +25447,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15">
       <c r="A56" s="109"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -25442,7 +25455,7 @@
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15">
       <c r="A57" s="109"/>
       <c r="B57" s="17" t="s">
         <v>277</v>
@@ -25487,7 +25500,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15">
       <c r="A58" s="109"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -25495,7 +25508,7 @@
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15">
       <c r="A59" s="109"/>
       <c r="B59" s="17" t="s">
         <v>282</v>
@@ -25540,7 +25553,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15">
       <c r="A60" s="109"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -25548,7 +25561,7 @@
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15">
       <c r="A61" s="109"/>
       <c r="B61" s="19" t="s">
         <v>287</v>
@@ -25593,7 +25606,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15">
       <c r="A62" s="109"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -25601,7 +25614,7 @@
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15">
       <c r="A63" s="109"/>
       <c r="B63" s="17" t="s">
         <v>292</v>
@@ -25646,7 +25659,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15">
       <c r="A64" s="109"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -25654,7 +25667,7 @@
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15">
       <c r="A65" s="109"/>
       <c r="B65" s="17" t="s">
         <v>297</v>
@@ -25696,7 +25709,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15">
       <c r="A66" s="109"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -25704,7 +25717,7 @@
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15">
       <c r="A67" s="109"/>
       <c r="B67" s="17" t="s">
         <v>301</v>
@@ -25749,7 +25762,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15">
       <c r="A68" s="109"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -25757,7 +25770,7 @@
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15">
       <c r="A69" s="109"/>
       <c r="B69" s="17" t="s">
         <v>306</v>
@@ -25802,7 +25815,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15">
       <c r="A70" s="109"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -25810,7 +25823,7 @@
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15">
       <c r="A71" s="109"/>
       <c r="B71" s="17" t="s">
         <v>311</v>
@@ -25852,7 +25865,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15">
       <c r="A72" s="109"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -25860,7 +25873,7 @@
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15">
       <c r="A73" s="109"/>
       <c r="B73" s="17" t="s">
         <v>315</v>
@@ -25905,7 +25918,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15">
       <c r="A74" s="109"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -25913,7 +25926,7 @@
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15">
       <c r="A75" s="109"/>
       <c r="B75" s="19" t="s">
         <v>320</v>
@@ -25958,7 +25971,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15">
       <c r="A76" s="109"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -25966,7 +25979,7 @@
       <c r="E76" s="10"/>
       <c r="F76" s="10"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15">
       <c r="A77" s="109"/>
       <c r="B77" s="17" t="s">
         <v>325</v>
@@ -26011,7 +26024,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15">
       <c r="A78" s="109"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -26019,7 +26032,7 @@
       <c r="E78" s="10"/>
       <c r="F78" s="10"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15">
       <c r="A79" s="109"/>
       <c r="B79" s="17" t="s">
         <v>330</v>
@@ -26064,7 +26077,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15">
       <c r="A80" s="109"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -26072,7 +26085,7 @@
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
     </row>
-    <row r="81" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:41">
       <c r="A81" s="109"/>
       <c r="B81" s="17" t="s">
         <v>335</v>
@@ -26117,7 +26130,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="82" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:41">
       <c r="A82" s="109"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -26125,7 +26138,7 @@
       <c r="E82" s="10"/>
       <c r="F82" s="10"/>
     </row>
-    <row r="83" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:41">
       <c r="B83" t="s">
         <v>242</v>
       </c>
@@ -26247,12 +26260,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="84" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:41">
       <c r="A84" s="109" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="85" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:41">
       <c r="A85" s="109"/>
       <c r="B85" t="s">
         <v>341</v>
@@ -26276,10 +26289,10 @@
         <v>347</v>
       </c>
     </row>
-    <row r="86" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:41">
       <c r="A86" s="109"/>
     </row>
-    <row r="87" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:41">
       <c r="A87" s="109"/>
       <c r="B87" s="17" t="s">
         <v>348</v>
@@ -26330,7 +26343,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:41">
       <c r="A88" s="109"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -26340,7 +26353,7 @@
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
     </row>
-    <row r="89" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:41">
       <c r="A89" s="109"/>
       <c r="B89" s="17" t="s">
         <v>355</v>
@@ -26388,7 +26401,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="90" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:41">
       <c r="A90" s="109"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -26398,7 +26411,7 @@
       <c r="G90" s="10"/>
       <c r="H90" s="10"/>
     </row>
-    <row r="91" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:41">
       <c r="A91" s="109"/>
       <c r="B91" s="17" t="s">
         <v>361</v>
@@ -26446,7 +26459,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:41">
       <c r="A92" s="109"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -26456,7 +26469,7 @@
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
     </row>
-    <row r="93" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:41">
       <c r="A93" s="109"/>
       <c r="B93" s="19" t="s">
         <v>367</v>
@@ -26507,7 +26520,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:41">
       <c r="A94" s="109"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -26517,7 +26530,7 @@
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
     </row>
-    <row r="95" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:41">
       <c r="A95" s="109"/>
       <c r="B95" s="19" t="s">
         <v>374</v>
@@ -26565,7 +26578,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:41">
       <c r="A96" s="109"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -26575,7 +26588,7 @@
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17">
       <c r="A97" s="109"/>
       <c r="B97" s="17" t="s">
         <v>380</v>
@@ -26620,7 +26633,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17">
       <c r="A98" s="109"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -26630,7 +26643,7 @@
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17">
       <c r="A99" s="109"/>
       <c r="B99" s="17" t="s">
         <v>385</v>
@@ -26675,7 +26688,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17">
       <c r="A100" s="109"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -26685,7 +26698,7 @@
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17">
       <c r="A101" s="109"/>
       <c r="B101" s="17" t="s">
         <v>390</v>
@@ -26733,7 +26746,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17">
       <c r="A102" s="109"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -26743,7 +26756,7 @@
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17">
       <c r="A103" s="109"/>
       <c r="B103" s="17" t="s">
         <v>101</v>
@@ -26776,7 +26789,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17">
       <c r="A104" s="109"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -26786,7 +26799,7 @@
       <c r="G104" s="10"/>
       <c r="H104" s="10"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17">
       <c r="A105" s="109"/>
       <c r="B105" s="17" t="s">
         <v>397</v>
@@ -26834,7 +26847,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17">
       <c r="A106" s="109"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -26844,7 +26857,7 @@
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17">
       <c r="A107" s="109"/>
       <c r="B107" s="17" t="s">
         <v>403</v>
@@ -26895,7 +26908,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17">
       <c r="A108" s="109"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -26905,7 +26918,7 @@
       <c r="G108" s="10"/>
       <c r="H108" s="10"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17">
       <c r="A109" s="109"/>
       <c r="B109" s="17" t="s">
         <v>410</v>
@@ -26956,7 +26969,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17">
       <c r="A110" s="109"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -26966,7 +26979,7 @@
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17">
       <c r="A111" s="109"/>
       <c r="B111" s="17" t="s">
         <v>417</v>
@@ -27014,7 +27027,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17">
       <c r="A112" s="109"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -27024,7 +27037,7 @@
       <c r="G112" s="10"/>
       <c r="H112" s="10"/>
     </row>
-    <row r="113" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:99">
       <c r="A113" s="109"/>
       <c r="B113" s="17" t="s">
         <v>423</v>
@@ -27069,7 +27082,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:99">
       <c r="A114" s="109"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -27079,7 +27092,7 @@
       <c r="G114" s="10"/>
       <c r="H114" s="10"/>
     </row>
-    <row r="115" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:99">
       <c r="A115" s="109"/>
       <c r="B115" s="17" t="s">
         <v>428</v>
@@ -27124,7 +27137,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="116" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:99">
       <c r="A116" s="109"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -27134,7 +27147,7 @@
       <c r="G116" s="10"/>
       <c r="H116" s="10"/>
     </row>
-    <row r="117" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:99">
       <c r="A117" s="109"/>
       <c r="B117" s="17" t="s">
         <v>433</v>
@@ -27182,7 +27195,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="118" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:99">
       <c r="A118" s="109"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -27192,7 +27205,7 @@
       <c r="G118" s="10"/>
       <c r="H118" s="10"/>
     </row>
-    <row r="119" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:99">
       <c r="A119" s="109"/>
       <c r="B119" s="17" t="s">
         <v>439</v>
@@ -27243,7 +27256,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="120" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:99">
       <c r="A120" s="109"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -27253,7 +27266,7 @@
       <c r="G120" s="10"/>
       <c r="H120" s="10"/>
     </row>
-    <row r="121" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:99">
       <c r="A121" s="109"/>
       <c r="B121" s="19" t="s">
         <v>446</v>
@@ -27295,7 +27308,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="122" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:99">
       <c r="A122" s="109"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
@@ -27305,7 +27318,7 @@
       <c r="G122" s="10"/>
       <c r="H122" s="10"/>
     </row>
-    <row r="123" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:99">
       <c r="A123" s="109"/>
       <c r="B123" s="17" t="s">
         <v>450</v>
@@ -27356,7 +27369,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="124" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:99">
       <c r="A124" s="109"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -27366,7 +27379,7 @@
       <c r="G124" s="10"/>
       <c r="H124" s="10"/>
     </row>
-    <row r="125" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:99">
       <c r="A125" s="25"/>
       <c r="B125" t="s">
         <v>242</v>
@@ -27489,7 +27502,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="126" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:99">
       <c r="A126" s="108" t="s">
         <v>457</v>
       </c>
@@ -27592,7 +27605,7 @@
       <c r="CT126" s="10"/>
       <c r="CU126" s="10"/>
     </row>
-    <row r="127" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:99">
       <c r="A127" s="108"/>
       <c r="B127" s="10" t="s">
         <v>83</v>
@@ -27711,7 +27724,7 @@
       <c r="CT127" s="10"/>
       <c r="CU127" s="10"/>
     </row>
-    <row r="128" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:99">
       <c r="A128" s="108"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
@@ -27812,7 +27825,7 @@
       <c r="CT128" s="10"/>
       <c r="CU128" s="10"/>
     </row>
-    <row r="129" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:99">
       <c r="A129" s="108"/>
       <c r="B129" s="18" t="s">
         <v>458</v>
@@ -28071,7 +28084,7 @@
       <c r="CT129" s="10"/>
       <c r="CU129" s="10"/>
     </row>
-    <row r="130" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:99">
       <c r="A130" s="108"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
@@ -28172,7 +28185,7 @@
       <c r="CT130" s="10"/>
       <c r="CU130" s="10"/>
     </row>
-    <row r="131" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:99">
       <c r="A131" s="108"/>
       <c r="B131" s="17" t="s">
         <v>537</v>
@@ -28367,7 +28380,7 @@
       <c r="CT131" s="10"/>
       <c r="CU131" s="10"/>
     </row>
-    <row r="132" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:99">
       <c r="A132" s="108"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
@@ -28468,7 +28481,7 @@
       <c r="CT132" s="10"/>
       <c r="CU132" s="10"/>
     </row>
-    <row r="133" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:99">
       <c r="A133" s="108"/>
       <c r="B133" s="17" t="s">
         <v>584</v>
@@ -28703,7 +28716,7 @@
       <c r="CT133" s="10"/>
       <c r="CU133" s="10"/>
     </row>
-    <row r="134" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:99">
       <c r="A134" s="108"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
@@ -28804,7 +28817,7 @@
       <c r="CT134" s="10"/>
       <c r="CU134" s="10"/>
     </row>
-    <row r="135" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:99">
       <c r="A135" s="108"/>
       <c r="B135" s="17" t="s">
         <v>651</v>
@@ -29027,7 +29040,7 @@
       <c r="CT135" s="10"/>
       <c r="CU135" s="10"/>
     </row>
-    <row r="136" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:99">
       <c r="A136" s="108"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
@@ -29128,7 +29141,7 @@
       <c r="CT136" s="10"/>
       <c r="CU136" s="10"/>
     </row>
-    <row r="137" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:99">
       <c r="A137" s="108"/>
       <c r="B137" s="17" t="s">
         <v>712</v>
@@ -29315,7 +29328,7 @@
       <c r="CT137" s="10"/>
       <c r="CU137" s="10"/>
     </row>
-    <row r="138" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:99">
       <c r="A138" s="108"/>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
@@ -29416,7 +29429,7 @@
       <c r="CT138" s="10"/>
       <c r="CU138" s="10"/>
     </row>
-    <row r="139" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:99">
       <c r="A139" s="108"/>
       <c r="B139" s="17" t="s">
         <v>755</v>
@@ -29631,7 +29644,7 @@
       <c r="CT139" s="10"/>
       <c r="CU139" s="10"/>
     </row>
-    <row r="140" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:99">
       <c r="A140" s="108"/>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
@@ -29732,7 +29745,7 @@
       <c r="CT140" s="10"/>
       <c r="CU140" s="10"/>
     </row>
-    <row r="141" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:99">
       <c r="A141" s="108"/>
       <c r="B141" s="17" t="s">
         <v>812</v>
@@ -29959,7 +29972,7 @@
       <c r="CT141" s="10"/>
       <c r="CU141" s="10"/>
     </row>
-    <row r="142" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:99">
       <c r="A142" s="108"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
@@ -30060,7 +30073,7 @@
       <c r="CT142" s="10"/>
       <c r="CU142" s="10"/>
     </row>
-    <row r="143" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:99">
       <c r="A143" s="108"/>
       <c r="B143" s="18" t="s">
         <v>875</v>
@@ -30289,7 +30302,7 @@
       <c r="CT143" s="10"/>
       <c r="CU143" s="10"/>
     </row>
-    <row r="144" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:99">
       <c r="A144" s="108"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
@@ -30390,7 +30403,7 @@
       <c r="CT144" s="10"/>
       <c r="CU144" s="10"/>
     </row>
-    <row r="145" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:99">
       <c r="A145" s="108"/>
       <c r="B145" s="17" t="s">
         <v>939</v>
@@ -30575,7 +30588,7 @@
       <c r="CT145" s="10"/>
       <c r="CU145" s="10"/>
     </row>
-    <row r="146" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:99">
       <c r="A146" s="108"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
@@ -30676,7 +30689,7 @@
       <c r="CT146" s="10"/>
       <c r="CU146" s="10"/>
     </row>
-    <row r="147" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:99">
       <c r="A147" s="108"/>
       <c r="B147" s="17" t="s">
         <v>981</v>
@@ -30927,7 +30940,7 @@
       <c r="CT147" s="10"/>
       <c r="CU147" s="10"/>
     </row>
-    <row r="148" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:99">
       <c r="A148" s="108"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
@@ -31028,7 +31041,7 @@
       <c r="CT148" s="10"/>
       <c r="CU148" s="10"/>
     </row>
-    <row r="149" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:99">
       <c r="A149" s="108"/>
       <c r="B149" s="17" t="s">
         <v>1055</v>
@@ -31199,7 +31212,7 @@
       <c r="CT149" s="10"/>
       <c r="CU149" s="10"/>
     </row>
-    <row r="150" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:99">
       <c r="A150" s="108"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
@@ -31300,7 +31313,7 @@
       <c r="CT150" s="10"/>
       <c r="CU150" s="10"/>
     </row>
-    <row r="151" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:99">
       <c r="A151" s="108"/>
       <c r="B151" s="17" t="s">
         <v>1090</v>
@@ -31585,7 +31598,7 @@
       <c r="CT151" s="10"/>
       <c r="CU151" s="10"/>
     </row>
-    <row r="152" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:99">
       <c r="A152" s="108"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
@@ -31686,7 +31699,7 @@
       <c r="CT152" s="10"/>
       <c r="CU152" s="10"/>
     </row>
-    <row r="153" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:99">
       <c r="A153" s="108"/>
       <c r="B153" s="17" t="s">
         <v>1182</v>
@@ -31911,7 +31924,7 @@
       <c r="CT153" s="10"/>
       <c r="CU153" s="10"/>
     </row>
-    <row r="154" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:99">
       <c r="A154" s="108"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
@@ -32012,7 +32025,7 @@
       <c r="CT154" s="10"/>
       <c r="CU154" s="10"/>
     </row>
-    <row r="155" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:99">
       <c r="A155" s="108"/>
       <c r="B155" s="17" t="s">
         <v>1244</v>
@@ -32189,7 +32202,7 @@
       <c r="CT155" s="10"/>
       <c r="CU155" s="10"/>
     </row>
-    <row r="156" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:99">
       <c r="A156" s="108"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
@@ -32290,7 +32303,7 @@
       <c r="CT156" s="10"/>
       <c r="CU156" s="10"/>
     </row>
-    <row r="157" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:99">
       <c r="A157" s="108"/>
       <c r="B157" s="18" t="s">
         <v>1282</v>
@@ -32493,7 +32506,7 @@
       <c r="CT157" s="10"/>
       <c r="CU157" s="10"/>
     </row>
-    <row r="158" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:99">
       <c r="A158" s="108"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
@@ -32594,7 +32607,7 @@
       <c r="CT158" s="10"/>
       <c r="CU158" s="10"/>
     </row>
-    <row r="159" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:99">
       <c r="A159" s="108"/>
       <c r="B159" s="17" t="s">
         <v>1333</v>
@@ -32789,7 +32802,7 @@
       <c r="CT159" s="10"/>
       <c r="CU159" s="10"/>
     </row>
-    <row r="160" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:99">
       <c r="A160" s="108"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
@@ -32890,7 +32903,7 @@
       <c r="CT160" s="10"/>
       <c r="CU160" s="10"/>
     </row>
-    <row r="161" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:99">
       <c r="A161" s="108"/>
       <c r="B161" s="17" t="s">
         <v>1380</v>
@@ -33079,7 +33092,7 @@
       <c r="CT161" s="10"/>
       <c r="CU161" s="10"/>
     </row>
-    <row r="162" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:99">
       <c r="A162" s="108"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
@@ -33180,7 +33193,7 @@
       <c r="CT162" s="10"/>
       <c r="CU162" s="10"/>
     </row>
-    <row r="163" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:99">
       <c r="A163" s="108"/>
       <c r="B163" s="17" t="s">
         <v>1424</v>
@@ -33383,7 +33396,7 @@
       <c r="CT163" s="10"/>
       <c r="CU163" s="10"/>
     </row>
-    <row r="164" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:99">
       <c r="A164" s="108"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
@@ -33484,7 +33497,7 @@
       <c r="CT164" s="10"/>
       <c r="CU164" s="10"/>
     </row>
-    <row r="165" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:99">
       <c r="A165" s="108"/>
       <c r="B165" s="17" t="s">
         <v>1475</v>
@@ -33685,7 +33698,7 @@
       <c r="CT165" s="10"/>
       <c r="CU165" s="10"/>
     </row>
-    <row r="166" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:99">
       <c r="A166" s="108"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
@@ -33786,7 +33799,7 @@
       <c r="CT166" s="10"/>
       <c r="CU166" s="10"/>
     </row>
-    <row r="167" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:99">
       <c r="A167" s="10"/>
       <c r="B167" s="10" t="s">
         <v>242</v>
@@ -33967,7 +33980,7 @@
       <c r="CT167" s="10"/>
       <c r="CU167" s="10"/>
     </row>
-    <row r="168" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:99">
       <c r="A168" s="108" t="s">
         <v>1525</v>
       </c>
@@ -34070,7 +34083,7 @@
       <c r="CT168" s="10"/>
       <c r="CU168" s="10"/>
     </row>
-    <row r="169" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:99">
       <c r="A169" s="108"/>
       <c r="B169" s="10" t="s">
         <v>244</v>
@@ -34181,7 +34194,7 @@
       <c r="CT169" s="10"/>
       <c r="CU169" s="10"/>
     </row>
-    <row r="170" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:99">
       <c r="A170" s="108"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
@@ -34282,7 +34295,7 @@
       <c r="CT170" s="10"/>
       <c r="CU170" s="10"/>
     </row>
-    <row r="171" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:99">
       <c r="A171" s="108"/>
       <c r="B171" s="17" t="s">
         <v>1526</v>
@@ -34461,7 +34474,7 @@
       <c r="CT171" s="10"/>
       <c r="CU171" s="10"/>
     </row>
-    <row r="172" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:99">
       <c r="A172" s="108"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
@@ -34562,7 +34575,7 @@
       <c r="CT172" s="10"/>
       <c r="CU172" s="10"/>
     </row>
-    <row r="173" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:99">
       <c r="A173" s="108"/>
       <c r="B173" s="17" t="s">
         <v>1565</v>
@@ -34723,7 +34736,7 @@
       <c r="CT173" s="10"/>
       <c r="CU173" s="10"/>
     </row>
-    <row r="174" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:99">
       <c r="A174" s="108"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
@@ -34824,7 +34837,7 @@
       <c r="CT174" s="10"/>
       <c r="CU174" s="10"/>
     </row>
-    <row r="175" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:99">
       <c r="A175" s="108"/>
       <c r="B175" s="17" t="s">
         <v>1595</v>
@@ -35005,7 +35018,7 @@
       <c r="CT175" s="10"/>
       <c r="CU175" s="10"/>
     </row>
-    <row r="176" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:99">
       <c r="A176" s="108"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
@@ -35106,7 +35119,7 @@
       <c r="CT176" s="10"/>
       <c r="CU176" s="10"/>
     </row>
-    <row r="177" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:99">
       <c r="A177" s="108"/>
       <c r="B177" s="17" t="s">
         <v>1635</v>
@@ -35271,7 +35284,7 @@
       <c r="CT177" s="10"/>
       <c r="CU177" s="10"/>
     </row>
-    <row r="178" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:99">
       <c r="A178" s="108"/>
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
@@ -35372,7 +35385,7 @@
       <c r="CT178" s="10"/>
       <c r="CU178" s="10"/>
     </row>
-    <row r="179" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:99">
       <c r="A179" s="108"/>
       <c r="B179" s="17" t="s">
         <v>1667</v>
@@ -35507,7 +35520,7 @@
       <c r="CT179" s="10"/>
       <c r="CU179" s="10"/>
     </row>
-    <row r="180" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:99">
       <c r="A180" s="108"/>
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
@@ -35608,7 +35621,7 @@
       <c r="CT180" s="10"/>
       <c r="CU180" s="10"/>
     </row>
-    <row r="181" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:99">
       <c r="A181" s="108"/>
       <c r="B181" s="18" t="s">
         <v>1684</v>
@@ -35781,7 +35794,7 @@
       <c r="CT181" s="10"/>
       <c r="CU181" s="10"/>
     </row>
-    <row r="182" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:99">
       <c r="A182" s="108"/>
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
@@ -35882,7 +35895,7 @@
       <c r="CT182" s="10"/>
       <c r="CU182" s="10"/>
     </row>
-    <row r="183" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:99">
       <c r="A183" s="108"/>
       <c r="B183" s="18" t="s">
         <v>1720</v>
@@ -36051,7 +36064,7 @@
       <c r="CT183" s="10"/>
       <c r="CU183" s="10"/>
     </row>
-    <row r="184" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:99">
       <c r="A184" s="108"/>
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
@@ -36152,7 +36165,7 @@
       <c r="CT184" s="10"/>
       <c r="CU184" s="10"/>
     </row>
-    <row r="185" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:99">
       <c r="A185" s="108"/>
       <c r="B185" s="17" t="s">
         <v>1754</v>
@@ -36317,7 +36330,7 @@
       <c r="CT185" s="10"/>
       <c r="CU185" s="10"/>
     </row>
-    <row r="186" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:99">
       <c r="A186" s="108"/>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
@@ -36418,7 +36431,7 @@
       <c r="CT186" s="10"/>
       <c r="CU186" s="10"/>
     </row>
-    <row r="187" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:99">
       <c r="A187" s="108"/>
       <c r="B187" s="17" t="s">
         <v>1786</v>
@@ -36555,7 +36568,7 @@
       <c r="CT187" s="10"/>
       <c r="CU187" s="10"/>
     </row>
-    <row r="188" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:99">
       <c r="A188" s="108"/>
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
@@ -36656,7 +36669,7 @@
       <c r="CT188" s="10"/>
       <c r="CU188" s="10"/>
     </row>
-    <row r="189" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:99">
       <c r="A189" s="108"/>
       <c r="B189" s="17" t="s">
         <v>1804</v>
@@ -36839,7 +36852,7 @@
       <c r="CT189" s="10"/>
       <c r="CU189" s="10"/>
     </row>
-    <row r="190" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:99">
       <c r="A190" s="108"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
@@ -36940,7 +36953,7 @@
       <c r="CT190" s="10"/>
       <c r="CU190" s="10"/>
     </row>
-    <row r="191" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:99">
       <c r="A191" s="108"/>
       <c r="B191" s="17" t="s">
         <v>1845</v>
@@ -37085,7 +37098,7 @@
       <c r="CT191" s="10"/>
       <c r="CU191" s="10"/>
     </row>
-    <row r="192" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:99">
       <c r="A192" s="108"/>
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
@@ -37186,7 +37199,7 @@
       <c r="CT192" s="10"/>
       <c r="CU192" s="10"/>
     </row>
-    <row r="193" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:99">
       <c r="A193" s="108"/>
       <c r="B193" s="17" t="s">
         <v>1867</v>
@@ -37387,7 +37400,7 @@
       <c r="CT193" s="10"/>
       <c r="CU193" s="10"/>
     </row>
-    <row r="194" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:99">
       <c r="A194" s="108"/>
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
@@ -37488,7 +37501,7 @@
       <c r="CT194" s="10"/>
       <c r="CU194" s="10"/>
     </row>
-    <row r="195" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:99">
       <c r="A195" s="108"/>
       <c r="B195" s="17" t="s">
         <v>1917</v>
@@ -37655,7 +37668,7 @@
       <c r="CT195" s="10"/>
       <c r="CU195" s="10"/>
     </row>
-    <row r="196" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:99">
       <c r="A196" s="108"/>
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
@@ -37756,7 +37769,7 @@
       <c r="CT196" s="10"/>
       <c r="CU196" s="10"/>
     </row>
-    <row r="197" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:99">
       <c r="A197" s="108"/>
       <c r="B197" s="17" t="s">
         <v>1950</v>
@@ -37893,7 +37906,7 @@
       <c r="CT197" s="10"/>
       <c r="CU197" s="10"/>
     </row>
-    <row r="198" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:99">
       <c r="A198" s="108"/>
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
@@ -37994,7 +38007,7 @@
       <c r="CT198" s="10"/>
       <c r="CU198" s="10"/>
     </row>
-    <row r="199" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:99">
       <c r="A199" s="108"/>
       <c r="B199" s="17" t="s">
         <v>1968</v>
@@ -38147,7 +38160,7 @@
       <c r="CT199" s="10"/>
       <c r="CU199" s="10"/>
     </row>
-    <row r="200" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:99">
       <c r="A200" s="108"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
@@ -38248,7 +38261,7 @@
       <c r="CT200" s="10"/>
       <c r="CU200" s="10"/>
     </row>
-    <row r="201" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:99">
       <c r="A201" s="108"/>
       <c r="B201" s="17" t="s">
         <v>1994</v>
@@ -38395,7 +38408,7 @@
       <c r="CT201" s="10"/>
       <c r="CU201" s="10"/>
     </row>
-    <row r="202" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:99">
       <c r="A202" s="108"/>
       <c r="B202" s="10"/>
       <c r="C202" s="10"/>
@@ -38496,7 +38509,7 @@
       <c r="CT202" s="10"/>
       <c r="CU202" s="10"/>
     </row>
-    <row r="203" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:99">
       <c r="A203" s="108"/>
       <c r="B203" s="17" t="s">
         <v>2016</v>
@@ -38651,7 +38664,7 @@
       <c r="CT203" s="10"/>
       <c r="CU203" s="10"/>
     </row>
-    <row r="204" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:99">
       <c r="A204" s="108"/>
       <c r="B204" s="10"/>
       <c r="C204" s="10"/>
@@ -38751,7 +38764,7 @@
       <c r="CT204" s="10"/>
       <c r="CU204" s="10"/>
     </row>
-    <row r="205" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:99">
       <c r="A205" s="108"/>
       <c r="B205" s="17" t="s">
         <v>2043</v>
@@ -38912,7 +38925,7 @@
       <c r="CT205" s="10"/>
       <c r="CU205" s="10"/>
     </row>
-    <row r="206" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:99">
       <c r="A206" s="108"/>
       <c r="B206" s="10"/>
       <c r="C206" s="10"/>
@@ -39013,7 +39026,7 @@
       <c r="CT206" s="10"/>
       <c r="CU206" s="10"/>
     </row>
-    <row r="207" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:99">
       <c r="A207" s="108"/>
       <c r="B207" s="17" t="s">
         <v>2073</v>
@@ -39188,7 +39201,7 @@
       <c r="CT207" s="10"/>
       <c r="CU207" s="10"/>
     </row>
-    <row r="208" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:99">
       <c r="A208" s="108"/>
       <c r="B208" s="10"/>
       <c r="C208" s="10"/>
@@ -39289,7 +39302,7 @@
       <c r="CT208" s="10"/>
       <c r="CU208" s="10"/>
     </row>
-    <row r="209" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:99">
       <c r="A209" s="10"/>
       <c r="B209" s="10" t="s">
         <v>242</v>
@@ -39470,7 +39483,7 @@
       <c r="CT209" s="10"/>
       <c r="CU209" s="10"/>
     </row>
-    <row r="210" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:99">
       <c r="A210" s="108" t="s">
         <v>2110</v>
       </c>
@@ -39573,7 +39586,7 @@
       <c r="CT210" s="10"/>
       <c r="CU210" s="10"/>
     </row>
-    <row r="211" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:99">
       <c r="A211" s="108"/>
       <c r="B211" s="10" t="s">
         <v>341</v>
@@ -39688,7 +39701,7 @@
       <c r="CT211" s="10"/>
       <c r="CU211" s="10"/>
     </row>
-    <row r="212" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:99">
       <c r="A212" s="108"/>
       <c r="B212" s="10"/>
       <c r="C212" s="10"/>
@@ -39789,7 +39802,7 @@
       <c r="CT212" s="10"/>
       <c r="CU212" s="10"/>
     </row>
-    <row r="213" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:99">
       <c r="A213" s="108"/>
       <c r="B213" s="17" t="s">
         <v>2111</v>
@@ -39954,7 +39967,7 @@
       <c r="CT213" s="10"/>
       <c r="CU213" s="10"/>
     </row>
-    <row r="214" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:99">
       <c r="A214" s="108"/>
       <c r="B214" s="10"/>
       <c r="C214" s="10"/>
@@ -40055,7 +40068,7 @@
       <c r="CT214" s="10"/>
       <c r="CU214" s="10"/>
     </row>
-    <row r="215" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:99">
       <c r="A215" s="108"/>
       <c r="B215" s="17" t="s">
         <v>2143</v>
@@ -40204,7 +40217,7 @@
       <c r="CT215" s="10"/>
       <c r="CU215" s="10"/>
     </row>
-    <row r="216" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:99">
       <c r="A216" s="108"/>
       <c r="B216" s="10"/>
       <c r="C216" s="10"/>
@@ -40305,7 +40318,7 @@
       <c r="CT216" s="10"/>
       <c r="CU216" s="10"/>
     </row>
-    <row r="217" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:99">
       <c r="A217" s="108"/>
       <c r="B217" s="17" t="s">
         <v>2167</v>
@@ -40436,7 +40449,7 @@
       <c r="CT217" s="10"/>
       <c r="CU217" s="10"/>
     </row>
-    <row r="218" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:99">
       <c r="A218" s="108"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
@@ -40537,7 +40550,7 @@
       <c r="CT218" s="10"/>
       <c r="CU218" s="10"/>
     </row>
-    <row r="219" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:99">
       <c r="A219" s="108"/>
       <c r="B219" s="17" t="s">
         <v>2182</v>
@@ -40668,7 +40681,7 @@
       <c r="CT219" s="10"/>
       <c r="CU219" s="10"/>
     </row>
-    <row r="220" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:99">
       <c r="A220" s="108"/>
       <c r="B220" s="10"/>
       <c r="C220" s="10"/>
@@ -40769,7 +40782,7 @@
       <c r="CT220" s="10"/>
       <c r="CU220" s="10"/>
     </row>
-    <row r="221" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:99">
       <c r="A221" s="108"/>
       <c r="B221" s="17" t="s">
         <v>2197</v>
@@ -40892,7 +40905,7 @@
       <c r="CT221" s="10"/>
       <c r="CU221" s="10"/>
     </row>
-    <row r="222" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:99">
       <c r="A222" s="108"/>
       <c r="B222" s="10"/>
       <c r="C222" s="10"/>
@@ -40993,7 +41006,7 @@
       <c r="CT222" s="10"/>
       <c r="CU222" s="10"/>
     </row>
-    <row r="223" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:99">
       <c r="A223" s="108"/>
       <c r="B223" s="17" t="s">
         <v>2208</v>
@@ -41126,7 +41139,7 @@
       <c r="CT223" s="10"/>
       <c r="CU223" s="10"/>
     </row>
-    <row r="224" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:99">
       <c r="A224" s="108"/>
       <c r="B224" s="10"/>
       <c r="C224" s="10"/>
@@ -41227,7 +41240,7 @@
       <c r="CT224" s="10"/>
       <c r="CU224" s="10"/>
     </row>
-    <row r="225" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:99">
       <c r="A225" s="108"/>
       <c r="B225" s="17" t="s">
         <v>2224</v>
@@ -41356,7 +41369,7 @@
       <c r="CT225" s="10"/>
       <c r="CU225" s="10"/>
     </row>
-    <row r="226" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:99">
       <c r="A226" s="108"/>
       <c r="B226" s="10"/>
       <c r="C226" s="10"/>
@@ -41457,7 +41470,7 @@
       <c r="CT226" s="10"/>
       <c r="CU226" s="10"/>
     </row>
-    <row r="227" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:99">
       <c r="A227" s="108"/>
       <c r="B227" s="17" t="s">
         <v>2238</v>
@@ -41586,7 +41599,7 @@
       <c r="CT227" s="10"/>
       <c r="CU227" s="10"/>
     </row>
-    <row r="228" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:99">
       <c r="A228" s="108"/>
       <c r="B228" s="10"/>
       <c r="C228" s="10"/>
@@ -41687,7 +41700,7 @@
       <c r="CT228" s="10"/>
       <c r="CU228" s="10"/>
     </row>
-    <row r="229" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:99">
       <c r="A229" s="108"/>
       <c r="B229" s="10"/>
       <c r="C229" s="10"/>
@@ -41788,7 +41801,7 @@
       <c r="CT229" s="10"/>
       <c r="CU229" s="10"/>
     </row>
-    <row r="230" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:99">
       <c r="A230" s="108"/>
       <c r="B230" s="10"/>
       <c r="C230" s="10"/>
@@ -41889,7 +41902,7 @@
       <c r="CT230" s="10"/>
       <c r="CU230" s="10"/>
     </row>
-    <row r="231" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:99">
       <c r="A231" s="108"/>
       <c r="B231" s="17" t="s">
         <v>2252</v>
@@ -42044,7 +42057,7 @@
       <c r="CT231" s="10"/>
       <c r="CU231" s="10"/>
     </row>
-    <row r="232" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:99">
       <c r="A232" s="108"/>
       <c r="B232" s="10"/>
       <c r="C232" s="10"/>
@@ -42145,7 +42158,7 @@
       <c r="CT232" s="10"/>
       <c r="CU232" s="10"/>
     </row>
-    <row r="233" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:99">
       <c r="A233" s="108"/>
       <c r="B233" s="17" t="s">
         <v>2279</v>
@@ -42272,7 +42285,7 @@
       <c r="CT233" s="10"/>
       <c r="CU233" s="10"/>
     </row>
-    <row r="234" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:99">
       <c r="A234" s="108"/>
       <c r="B234" s="10"/>
       <c r="C234" s="10"/>
@@ -42373,7 +42386,7 @@
       <c r="CT234" s="10"/>
       <c r="CU234" s="10"/>
     </row>
-    <row r="235" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:99">
       <c r="A235" s="108"/>
       <c r="B235" s="17" t="s">
         <v>2292</v>
@@ -42562,7 +42575,7 @@
       <c r="CT235" s="10"/>
       <c r="CU235" s="10"/>
     </row>
-    <row r="236" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:99">
       <c r="A236" s="108"/>
       <c r="B236" s="10"/>
       <c r="C236" s="10"/>
@@ -42663,7 +42676,7 @@
       <c r="CT236" s="10"/>
       <c r="CU236" s="10"/>
     </row>
-    <row r="237" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:99">
       <c r="A237" s="108"/>
       <c r="B237" s="17" t="s">
         <v>2336</v>
@@ -42804,7 +42817,7 @@
       <c r="CT237" s="10"/>
       <c r="CU237" s="10"/>
     </row>
-    <row r="238" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:99">
       <c r="A238" s="108"/>
       <c r="B238" s="10"/>
       <c r="C238" s="10"/>
@@ -42905,7 +42918,7 @@
       <c r="CT238" s="10"/>
       <c r="CU238" s="10"/>
     </row>
-    <row r="239" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:99">
       <c r="A239" s="108"/>
       <c r="B239" s="17" t="s">
         <v>2356</v>
@@ -43026,7 +43039,7 @@
       <c r="CT239" s="10"/>
       <c r="CU239" s="10"/>
     </row>
-    <row r="240" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:99">
       <c r="A240" s="108"/>
       <c r="B240" s="10"/>
       <c r="C240" s="10"/>
@@ -43127,7 +43140,7 @@
       <c r="CT240" s="10"/>
       <c r="CU240" s="10"/>
     </row>
-    <row r="241" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:99">
       <c r="A241" s="108"/>
       <c r="B241" s="17" t="s">
         <v>2366</v>
@@ -43262,7 +43275,7 @@
       <c r="CT241" s="10"/>
       <c r="CU241" s="10"/>
     </row>
-    <row r="242" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:99">
       <c r="A242" s="108"/>
       <c r="B242" s="10"/>
       <c r="C242" s="10"/>
@@ -43363,7 +43376,7 @@
       <c r="CT242" s="10"/>
       <c r="CU242" s="10"/>
     </row>
-    <row r="243" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:99">
       <c r="A243" s="108"/>
       <c r="B243" s="17" t="s">
         <v>2383</v>
@@ -43500,7 +43513,7 @@
       <c r="CT243" s="10"/>
       <c r="CU243" s="10"/>
     </row>
-    <row r="244" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:99">
       <c r="A244" s="108"/>
       <c r="B244" s="10"/>
       <c r="C244" s="10"/>
@@ -43601,7 +43614,7 @@
       <c r="CT244" s="10"/>
       <c r="CU244" s="10"/>
     </row>
-    <row r="245" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:99">
       <c r="A245" s="108"/>
       <c r="B245" s="17" t="s">
         <v>2401</v>
@@ -43732,7 +43745,7 @@
       <c r="CT245" s="10"/>
       <c r="CU245" s="10"/>
     </row>
-    <row r="246" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:99">
       <c r="A246" s="108"/>
       <c r="B246" s="10"/>
       <c r="C246" s="10"/>
@@ -43833,7 +43846,7 @@
       <c r="CT246" s="10"/>
       <c r="CU246" s="10"/>
     </row>
-    <row r="247" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:99">
       <c r="A247" s="108"/>
       <c r="B247" s="17" t="s">
         <v>2416</v>
@@ -43948,7 +43961,7 @@
       <c r="CT247" s="10"/>
       <c r="CU247" s="10"/>
     </row>
-    <row r="248" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:99">
       <c r="A248" s="108"/>
       <c r="B248" s="10"/>
       <c r="C248" s="10"/>
@@ -44049,7 +44062,7 @@
       <c r="CT248" s="10"/>
       <c r="CU248" s="10"/>
     </row>
-    <row r="249" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:99">
       <c r="A249" s="108"/>
       <c r="B249" s="17" t="s">
         <v>2423</v>
@@ -44220,7 +44233,7 @@
       <c r="CT249" s="10"/>
       <c r="CU249" s="10"/>
     </row>
-    <row r="250" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:99">
       <c r="A250" s="108"/>
       <c r="B250" s="10"/>
       <c r="C250" s="10"/>
@@ -44321,7 +44334,7 @@
       <c r="CT250" s="10"/>
       <c r="CU250" s="10"/>
     </row>
-    <row r="251" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:99">
       <c r="A251" s="10"/>
       <c r="B251" s="10" t="s">
         <v>242</v>
@@ -44502,7 +44515,7 @@
       <c r="CT251" s="10"/>
       <c r="CU251" s="10"/>
     </row>
-    <row r="252" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:99">
       <c r="A252" s="10"/>
       <c r="B252" s="10"/>
       <c r="C252" s="10"/>
@@ -44603,7 +44616,7 @@
       <c r="CT252" s="10"/>
       <c r="CU252" s="10"/>
     </row>
-    <row r="253" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:99">
       <c r="A253" s="10"/>
       <c r="B253" s="10"/>
       <c r="C253" s="10"/>
@@ -44704,7 +44717,7 @@
       <c r="CT253" s="10"/>
       <c r="CU253" s="10"/>
     </row>
-    <row r="254" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:99">
       <c r="A254" s="10"/>
       <c r="B254" s="10"/>
       <c r="C254" s="10"/>
@@ -44805,7 +44818,7 @@
       <c r="CT254" s="10"/>
       <c r="CU254" s="10"/>
     </row>
-    <row r="255" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:99">
       <c r="A255" s="10"/>
       <c r="B255" s="10"/>
       <c r="C255" s="10"/>
@@ -44906,7 +44919,7 @@
       <c r="CT255" s="10"/>
       <c r="CU255" s="10"/>
     </row>
-    <row r="256" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:99">
       <c r="A256" s="10"/>
       <c r="B256" s="10"/>
       <c r="C256" s="10"/>
@@ -45007,7 +45020,7 @@
       <c r="CT256" s="10"/>
       <c r="CU256" s="10"/>
     </row>
-    <row r="257" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:99">
       <c r="A257" s="10"/>
       <c r="B257" s="10"/>
       <c r="C257" s="10"/>
@@ -45108,7 +45121,7 @@
       <c r="CT257" s="10"/>
       <c r="CU257" s="10"/>
     </row>
-    <row r="258" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:99">
       <c r="A258" s="10"/>
       <c r="B258" s="10"/>
       <c r="C258" s="10"/>
@@ -45209,7 +45222,7 @@
       <c r="CT258" s="10"/>
       <c r="CU258" s="10"/>
     </row>
-    <row r="259" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:99">
       <c r="A259" s="10"/>
       <c r="B259" s="10"/>
       <c r="C259" s="10"/>
@@ -45310,7 +45323,7 @@
       <c r="CT259" s="10"/>
       <c r="CU259" s="10"/>
     </row>
-    <row r="260" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:99">
       <c r="A260" s="10"/>
       <c r="B260" s="10"/>
       <c r="C260" s="10"/>
@@ -45411,7 +45424,7 @@
       <c r="CT260" s="10"/>
       <c r="CU260" s="10"/>
     </row>
-    <row r="261" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:99">
       <c r="A261" s="10"/>
       <c r="B261" s="10"/>
       <c r="C261" s="10"/>
@@ -45512,7 +45525,7 @@
       <c r="CT261" s="10"/>
       <c r="CU261" s="10"/>
     </row>
-    <row r="262" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:99">
       <c r="A262" s="10"/>
       <c r="B262" s="10"/>
       <c r="C262" s="10"/>
@@ -45613,7 +45626,7 @@
       <c r="CT262" s="10"/>
       <c r="CU262" s="10"/>
     </row>
-    <row r="263" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:99">
       <c r="A263" s="10"/>
       <c r="B263" s="10"/>
       <c r="C263" s="10"/>
@@ -45714,7 +45727,7 @@
       <c r="CT263" s="10"/>
       <c r="CU263" s="10"/>
     </row>
-    <row r="264" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:99">
       <c r="A264" s="10"/>
       <c r="B264" s="10"/>
       <c r="C264" s="10"/>
@@ -45815,7 +45828,7 @@
       <c r="CT264" s="10"/>
       <c r="CU264" s="10"/>
     </row>
-    <row r="265" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:99">
       <c r="A265" s="10"/>
       <c r="B265" s="10"/>
       <c r="C265" s="10"/>
@@ -45916,7 +45929,7 @@
       <c r="CT265" s="10"/>
       <c r="CU265" s="10"/>
     </row>
-    <row r="266" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:99">
       <c r="A266" s="10"/>
       <c r="B266" s="10"/>
       <c r="C266" s="10"/>
@@ -46017,7 +46030,7 @@
       <c r="CT266" s="10"/>
       <c r="CU266" s="10"/>
     </row>
-    <row r="267" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:99">
       <c r="A267" s="10"/>
       <c r="B267" s="10"/>
       <c r="C267" s="10"/>
@@ -46118,7 +46131,7 @@
       <c r="CT267" s="10"/>
       <c r="CU267" s="10"/>
     </row>
-    <row r="268" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:99">
       <c r="A268" s="10"/>
       <c r="B268" s="10"/>
       <c r="C268" s="10"/>
@@ -46219,7 +46232,7 @@
       <c r="CT268" s="10"/>
       <c r="CU268" s="10"/>
     </row>
-    <row r="269" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:99">
       <c r="A269" s="10"/>
       <c r="B269" s="10"/>
       <c r="C269" s="10"/>
@@ -46320,7 +46333,7 @@
       <c r="CT269" s="10"/>
       <c r="CU269" s="10"/>
     </row>
-    <row r="270" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:99">
       <c r="A270" s="10"/>
       <c r="B270" s="10"/>
       <c r="C270" s="10"/>
@@ -46421,7 +46434,7 @@
       <c r="CT270" s="10"/>
       <c r="CU270" s="10"/>
     </row>
-    <row r="271" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:99">
       <c r="A271" s="10"/>
       <c r="B271" s="10"/>
       <c r="C271" s="10"/>
@@ -46522,7 +46535,7 @@
       <c r="CT271" s="10"/>
       <c r="CU271" s="10"/>
     </row>
-    <row r="272" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:99">
       <c r="A272" s="10"/>
       <c r="B272" s="10"/>
       <c r="C272" s="10"/>
@@ -46623,7 +46636,7 @@
       <c r="CT272" s="10"/>
       <c r="CU272" s="10"/>
     </row>
-    <row r="273" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:99">
       <c r="A273" s="10"/>
       <c r="B273" s="10"/>
       <c r="C273" s="10"/>
@@ -46724,7 +46737,7 @@
       <c r="CT273" s="10"/>
       <c r="CU273" s="10"/>
     </row>
-    <row r="274" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:99">
       <c r="A274" s="10"/>
       <c r="B274" s="10"/>
       <c r="C274" s="10"/>
@@ -46825,7 +46838,7 @@
       <c r="CT274" s="10"/>
       <c r="CU274" s="10"/>
     </row>
-    <row r="275" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:99">
       <c r="A275" s="10"/>
       <c r="B275" s="10"/>
       <c r="C275" s="10"/>
@@ -46926,7 +46939,7 @@
       <c r="CT275" s="10"/>
       <c r="CU275" s="10"/>
     </row>
-    <row r="276" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:99">
       <c r="A276" s="10"/>
       <c r="B276" s="10"/>
       <c r="C276" s="10"/>
@@ -47027,7 +47040,7 @@
       <c r="CT276" s="10"/>
       <c r="CU276" s="10"/>
     </row>
-    <row r="277" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:99">
       <c r="A277" s="10"/>
       <c r="B277" s="10"/>
       <c r="C277" s="10"/>
@@ -47128,7 +47141,7 @@
       <c r="CT277" s="10"/>
       <c r="CU277" s="10"/>
     </row>
-    <row r="278" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:99">
       <c r="A278" s="10"/>
       <c r="B278" s="10"/>
       <c r="C278" s="10"/>
@@ -47229,7 +47242,7 @@
       <c r="CT278" s="10"/>
       <c r="CU278" s="10"/>
     </row>
-    <row r="279" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:99">
       <c r="A279" s="10"/>
       <c r="B279" s="10"/>
       <c r="C279" s="10"/>
@@ -47330,7 +47343,7 @@
       <c r="CT279" s="10"/>
       <c r="CU279" s="10"/>
     </row>
-    <row r="280" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:99">
       <c r="A280" s="10"/>
       <c r="B280" s="10"/>
       <c r="C280" s="10"/>
@@ -47431,7 +47444,7 @@
       <c r="CT280" s="10"/>
       <c r="CU280" s="10"/>
     </row>
-    <row r="281" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:99">
       <c r="A281" s="10"/>
       <c r="B281" s="10"/>
       <c r="C281" s="10"/>
@@ -47532,7 +47545,7 @@
       <c r="CT281" s="10"/>
       <c r="CU281" s="10"/>
     </row>
-    <row r="282" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:99">
       <c r="A282" s="10"/>
       <c r="B282" s="10"/>
       <c r="C282" s="10"/>
@@ -47633,7 +47646,7 @@
       <c r="CT282" s="10"/>
       <c r="CU282" s="10"/>
     </row>
-    <row r="283" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:99">
       <c r="A283" s="10"/>
       <c r="B283" s="10"/>
       <c r="C283" s="10"/>
@@ -47734,7 +47747,7 @@
       <c r="CT283" s="10"/>
       <c r="CU283" s="10"/>
     </row>
-    <row r="284" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:99">
       <c r="A284" s="10"/>
       <c r="B284" s="10"/>
       <c r="C284" s="10"/>
@@ -47835,7 +47848,7 @@
       <c r="CT284" s="10"/>
       <c r="CU284" s="10"/>
     </row>
-    <row r="285" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:99">
       <c r="A285" s="10"/>
       <c r="B285" s="10"/>
       <c r="C285" s="10"/>
@@ -47936,7 +47949,7 @@
       <c r="CT285" s="10"/>
       <c r="CU285" s="10"/>
     </row>
-    <row r="286" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:99">
       <c r="A286" s="10"/>
       <c r="B286" s="10"/>
       <c r="C286" s="10"/>
@@ -48037,7 +48050,7 @@
       <c r="CT286" s="10"/>
       <c r="CU286" s="10"/>
     </row>
-    <row r="287" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:99">
       <c r="A287" s="10"/>
       <c r="B287" s="10"/>
       <c r="C287" s="10"/>
@@ -48138,7 +48151,7 @@
       <c r="CT287" s="10"/>
       <c r="CU287" s="10"/>
     </row>
-    <row r="288" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:99">
       <c r="A288" s="10"/>
       <c r="B288" s="10"/>
       <c r="C288" s="10"/>
@@ -48239,7 +48252,7 @@
       <c r="CT288" s="10"/>
       <c r="CU288" s="10"/>
     </row>
-    <row r="289" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:99">
       <c r="A289" s="10"/>
       <c r="B289" s="10"/>
       <c r="C289" s="10"/>
@@ -48340,7 +48353,7 @@
       <c r="CT289" s="10"/>
       <c r="CU289" s="10"/>
     </row>
-    <row r="290" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:99">
       <c r="A290" s="10"/>
       <c r="B290" s="10"/>
       <c r="C290" s="10"/>
@@ -48441,7 +48454,7 @@
       <c r="CT290" s="10"/>
       <c r="CU290" s="10"/>
     </row>
-    <row r="291" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:99">
       <c r="A291" s="10"/>
       <c r="B291" s="10"/>
       <c r="C291" s="10"/>
@@ -48542,7 +48555,7 @@
       <c r="CT291" s="10"/>
       <c r="CU291" s="10"/>
     </row>
-    <row r="292" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:99">
       <c r="A292" s="10"/>
       <c r="B292" s="10"/>
       <c r="C292" s="10"/>
@@ -48643,7 +48656,7 @@
       <c r="CT292" s="10"/>
       <c r="CU292" s="10"/>
     </row>
-    <row r="293" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:99">
       <c r="A293" s="10"/>
       <c r="B293" s="10"/>
       <c r="C293" s="10"/>
@@ -48744,7 +48757,7 @@
       <c r="CT293" s="10"/>
       <c r="CU293" s="10"/>
     </row>
-    <row r="294" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:99">
       <c r="A294" s="10"/>
       <c r="B294" s="10"/>
       <c r="C294" s="10"/>
@@ -48845,7 +48858,7 @@
       <c r="CT294" s="10"/>
       <c r="CU294" s="10"/>
     </row>
-    <row r="295" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:99">
       <c r="A295" s="10"/>
       <c r="B295" s="10"/>
       <c r="C295" s="10"/>
@@ -48946,7 +48959,7 @@
       <c r="CT295" s="10"/>
       <c r="CU295" s="10"/>
     </row>
-    <row r="296" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:99">
       <c r="A296" s="10"/>
       <c r="B296" s="10"/>
       <c r="C296" s="10"/>
@@ -49047,7 +49060,7 @@
       <c r="CT296" s="10"/>
       <c r="CU296" s="10"/>
     </row>
-    <row r="297" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:99">
       <c r="A297" s="10"/>
       <c r="B297" s="10"/>
       <c r="C297" s="10"/>
@@ -49148,7 +49161,7 @@
       <c r="CT297" s="10"/>
       <c r="CU297" s="10"/>
     </row>
-    <row r="298" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:99">
       <c r="A298" s="10"/>
       <c r="B298" s="10"/>
       <c r="C298" s="10"/>
@@ -49249,7 +49262,7 @@
       <c r="CT298" s="10"/>
       <c r="CU298" s="10"/>
     </row>
-    <row r="299" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:99">
       <c r="A299" s="10"/>
       <c r="B299" s="10"/>
       <c r="C299" s="10"/>
@@ -49350,7 +49363,7 @@
       <c r="CT299" s="10"/>
       <c r="CU299" s="10"/>
     </row>
-    <row r="300" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:99">
       <c r="A300" s="10"/>
       <c r="B300" s="10"/>
       <c r="C300" s="10"/>
@@ -49451,7 +49464,7 @@
       <c r="CT300" s="10"/>
       <c r="CU300" s="10"/>
     </row>
-    <row r="301" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:99">
       <c r="A301" s="10"/>
       <c r="B301" s="10"/>
       <c r="C301" s="10"/>
@@ -49552,7 +49565,7 @@
       <c r="CT301" s="10"/>
       <c r="CU301" s="10"/>
     </row>
-    <row r="302" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:99">
       <c r="A302" s="10"/>
       <c r="B302" s="10"/>
       <c r="C302" s="10"/>
@@ -49653,7 +49666,7 @@
       <c r="CT302" s="10"/>
       <c r="CU302" s="10"/>
     </row>
-    <row r="303" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:99">
       <c r="A303" s="10"/>
       <c r="B303" s="10"/>
       <c r="C303" s="10"/>
@@ -49754,7 +49767,7 @@
       <c r="CT303" s="10"/>
       <c r="CU303" s="10"/>
     </row>
-    <row r="304" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:99">
       <c r="A304" s="10"/>
       <c r="B304" s="10"/>
       <c r="C304" s="10"/>
@@ -49855,7 +49868,7 @@
       <c r="CT304" s="10"/>
       <c r="CU304" s="10"/>
     </row>
-    <row r="305" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:99">
       <c r="A305" s="10"/>
       <c r="B305" s="10"/>
       <c r="C305" s="10"/>
@@ -49956,7 +49969,7 @@
       <c r="CT305" s="10"/>
       <c r="CU305" s="10"/>
     </row>
-    <row r="306" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:99">
       <c r="A306" s="10"/>
       <c r="B306" s="10"/>
       <c r="C306" s="10"/>
@@ -50057,7 +50070,7 @@
       <c r="CT306" s="10"/>
       <c r="CU306" s="10"/>
     </row>
-    <row r="307" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:99">
       <c r="A307" s="10"/>
       <c r="B307" s="10"/>
       <c r="C307" s="10"/>
@@ -50158,7 +50171,7 @@
       <c r="CT307" s="10"/>
       <c r="CU307" s="10"/>
     </row>
-    <row r="308" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:99">
       <c r="A308" s="10"/>
       <c r="B308" s="10"/>
       <c r="C308" s="10"/>
@@ -50259,7 +50272,7 @@
       <c r="CT308" s="10"/>
       <c r="CU308" s="10"/>
     </row>
-    <row r="309" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:99">
       <c r="A309" s="10"/>
       <c r="B309" s="10"/>
       <c r="C309" s="10"/>
@@ -50360,7 +50373,7 @@
       <c r="CT309" s="10"/>
       <c r="CU309" s="10"/>
     </row>
-    <row r="310" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:99">
       <c r="A310" s="10"/>
       <c r="B310" s="10"/>
       <c r="C310" s="10"/>
@@ -50461,7 +50474,7 @@
       <c r="CT310" s="10"/>
       <c r="CU310" s="10"/>
     </row>
-    <row r="311" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:99">
       <c r="A311" s="10"/>
       <c r="B311" s="10"/>
       <c r="C311" s="10"/>
@@ -50562,7 +50575,7 @@
       <c r="CT311" s="10"/>
       <c r="CU311" s="10"/>
     </row>
-    <row r="312" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:99">
       <c r="A312" s="10"/>
       <c r="B312" s="10"/>
       <c r="C312" s="10"/>
@@ -50663,7 +50676,7 @@
       <c r="CT312" s="10"/>
       <c r="CU312" s="10"/>
     </row>
-    <row r="313" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:99">
       <c r="A313" s="10"/>
       <c r="B313" s="10"/>
       <c r="C313" s="10"/>
@@ -50764,7 +50777,7 @@
       <c r="CT313" s="10"/>
       <c r="CU313" s="10"/>
     </row>
-    <row r="314" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:99">
       <c r="A314" s="10"/>
       <c r="B314" s="10"/>
       <c r="C314" s="10"/>
@@ -50865,7 +50878,7 @@
       <c r="CT314" s="10"/>
       <c r="CU314" s="10"/>
     </row>
-    <row r="315" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:99">
       <c r="A315" s="10"/>
       <c r="B315" s="10"/>
       <c r="C315" s="10"/>
@@ -50966,7 +50979,7 @@
       <c r="CT315" s="10"/>
       <c r="CU315" s="10"/>
     </row>
-    <row r="316" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:99">
       <c r="A316" s="10"/>
       <c r="B316" s="10"/>
       <c r="C316" s="10"/>
@@ -51067,7 +51080,7 @@
       <c r="CT316" s="10"/>
       <c r="CU316" s="10"/>
     </row>
-    <row r="317" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:99">
       <c r="A317" s="10"/>
       <c r="B317" s="10"/>
       <c r="C317" s="10"/>
@@ -51168,7 +51181,7 @@
       <c r="CT317" s="10"/>
       <c r="CU317" s="10"/>
     </row>
-    <row r="318" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:99">
       <c r="A318" s="10"/>
       <c r="B318" s="10"/>
       <c r="C318" s="10"/>
@@ -51269,7 +51282,7 @@
       <c r="CT318" s="10"/>
       <c r="CU318" s="10"/>
     </row>
-    <row r="319" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:99">
       <c r="A319" s="10"/>
       <c r="B319" s="10"/>
       <c r="C319" s="10"/>
@@ -51370,7 +51383,7 @@
       <c r="CT319" s="10"/>
       <c r="CU319" s="10"/>
     </row>
-    <row r="320" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:99">
       <c r="A320" s="10"/>
       <c r="B320" s="10"/>
       <c r="C320" s="10"/>
@@ -51471,7 +51484,7 @@
       <c r="CT320" s="10"/>
       <c r="CU320" s="10"/>
     </row>
-    <row r="321" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:81">
       <c r="B321" s="10"/>
       <c r="C321" s="10"/>
       <c r="D321" s="10"/>
@@ -51553,7 +51566,7 @@
       <c r="CB321" s="10"/>
       <c r="CC321" s="10"/>
     </row>
-    <row r="322" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:81">
       <c r="B322" s="10"/>
       <c r="C322" s="10"/>
       <c r="D322" s="10"/>
@@ -51635,7 +51648,7 @@
       <c r="CB322" s="10"/>
       <c r="CC322" s="10"/>
     </row>
-    <row r="323" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:81">
       <c r="B323" s="10"/>
       <c r="C323" s="10"/>
       <c r="D323" s="10"/>
@@ -51717,7 +51730,7 @@
       <c r="CB323" s="10"/>
       <c r="CC323" s="10"/>
     </row>
-    <row r="324" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:81">
       <c r="B324" s="10"/>
       <c r="C324" s="10"/>
       <c r="D324" s="10"/>
@@ -51817,13 +51830,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24">
       <c r="A1" s="1"/>
       <c r="B1" s="109" t="s">
         <v>0</v>
@@ -51855,7 +51868,7 @@
       <c r="W1" s="109"/>
       <c r="X1" s="109"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>2595</v>
@@ -51923,7 +51936,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24">
       <c r="A3" s="4" t="s">
         <v>2625</v>
       </c>
@@ -51959,7 +51972,7 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24">
       <c r="A4" s="5" t="s">
         <v>2596</v>
       </c>
@@ -51991,7 +52004,7 @@
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -52021,7 +52034,7 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24">
       <c r="A6" s="4" t="s">
         <v>2644</v>
       </c>
@@ -52057,7 +52070,7 @@
       </c>
       <c r="X6" s="3"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -52087,7 +52100,7 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -52117,7 +52130,7 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24">
       <c r="A9" s="5" t="s">
         <v>2531</v>
       </c>
@@ -52149,7 +52162,7 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24">
       <c r="A10" s="4" t="s">
         <v>2648</v>
       </c>
@@ -52185,7 +52198,7 @@
       <c r="W10" s="6"/>
       <c r="X10" s="3"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24">
       <c r="A11" s="5" t="s">
         <v>2468</v>
       </c>
@@ -52215,7 +52228,7 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24">
       <c r="A12" s="5" t="s">
         <v>2497</v>
       </c>
@@ -52245,7 +52258,7 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -52274,7 +52287,7 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -52303,7 +52316,7 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -52333,7 +52346,7 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24">
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
@@ -52355,14 +52368,16 @@
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
+      <c r="S16" s="110" t="s">
+        <v>2813</v>
+      </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:57">
       <c r="A17" s="5" t="s">
         <v>2514</v>
       </c>
@@ -52394,7 +52409,7 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:57">
       <c r="A18" s="4" t="s">
         <v>2543</v>
       </c>
@@ -52428,7 +52443,7 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:57">
       <c r="A19" s="4" t="s">
         <v>2541</v>
       </c>
@@ -52462,7 +52477,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:57">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
@@ -52492,7 +52507,7 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:57">
       <c r="A21" s="4" t="s">
         <v>2536</v>
       </c>
@@ -52528,7 +52543,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:57">
       <c r="A22" s="5" t="s">
         <v>2636</v>
       </c>
@@ -52564,7 +52579,7 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:57">
       <c r="A23" s="4" t="s">
         <v>2642</v>
       </c>
@@ -52600,7 +52615,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:57">
       <c r="A24" s="5" t="s">
         <v>2520</v>
       </c>
@@ -52632,7 +52647,7 @@
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:57">
       <c r="A25" s="5" t="s">
         <v>2525</v>
       </c>
@@ -52664,7 +52679,7 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:57">
       <c r="A26" s="5" t="s">
         <v>22</v>
       </c>
@@ -52694,7 +52709,7 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:57">
       <c r="A27" s="5" t="s">
         <v>2508</v>
       </c>
@@ -52726,7 +52741,7 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:57">
       <c r="A28" s="5" t="s">
         <v>2528</v>
       </c>
@@ -52758,7 +52773,7 @@
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:57">
       <c r="A29" s="5" t="s">
         <v>2466</v>
       </c>
@@ -52791,12 +52806,12 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:57">
       <c r="AY30" t="s">
         <v>2621</v>
       </c>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:57">
       <c r="AW31" t="s">
         <v>2478</v>
       </c>
@@ -52807,7 +52822,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:57">
       <c r="A32" s="1"/>
       <c r="B32" s="11" t="s">
         <v>16</v>
@@ -52978,7 +52993,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="33" spans="1:59" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:59" ht="409.5">
       <c r="A33" s="12" t="s">
         <v>71</v>
       </c>
@@ -53153,7 +53168,7 @@
       <c r="BF33" s="31"/>
       <c r="BG33" s="31"/>
     </row>
-    <row r="34" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:59">
       <c r="AL34" t="s">
         <v>2573</v>
       </c>
@@ -53161,7 +53176,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="37" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:59">
       <c r="A37" s="29"/>
       <c r="B37" s="109" t="s">
         <v>0</v>
@@ -53193,7 +53208,7 @@
       <c r="W37" s="109"/>
       <c r="X37" s="109"/>
     </row>
-    <row r="38" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:59">
       <c r="A38" s="28"/>
       <c r="B38" s="4" t="s">
         <v>2595</v>
@@ -53261,7 +53276,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="39" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:59">
       <c r="A39" s="4" t="s">
         <v>2586</v>
       </c>
@@ -53295,7 +53310,7 @@
       <c r="W39" s="28"/>
       <c r="X39" s="28"/>
     </row>
-    <row r="40" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:59">
       <c r="A40" s="5" t="s">
         <v>2596</v>
       </c>
@@ -53327,7 +53342,7 @@
       <c r="W40" s="28"/>
       <c r="X40" s="28"/>
     </row>
-    <row r="41" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:59">
       <c r="A41" s="5" t="s">
         <v>4</v>
       </c>
@@ -53357,7 +53372,7 @@
       <c r="W41" s="28"/>
       <c r="X41" s="28"/>
     </row>
-    <row r="42" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:59">
       <c r="A42" s="4" t="s">
         <v>2606</v>
       </c>
@@ -53389,7 +53404,7 @@
       <c r="W42" s="28"/>
       <c r="X42" s="28"/>
     </row>
-    <row r="43" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:59">
       <c r="A43" s="5" t="s">
         <v>6</v>
       </c>
@@ -53419,7 +53434,7 @@
       <c r="W43" s="28"/>
       <c r="X43" s="28"/>
     </row>
-    <row r="44" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:59">
       <c r="A44" s="5" t="s">
         <v>8</v>
       </c>
@@ -53449,7 +53464,7 @@
       <c r="W44" s="28"/>
       <c r="X44" s="28"/>
     </row>
-    <row r="45" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:59">
       <c r="A45" s="5" t="s">
         <v>2582</v>
       </c>
@@ -53481,7 +53496,7 @@
       <c r="W45" s="28"/>
       <c r="X45" s="28"/>
     </row>
-    <row r="46" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:59">
       <c r="A46" s="4" t="s">
         <v>2602</v>
       </c>
@@ -53513,7 +53528,7 @@
       <c r="W46" s="6"/>
       <c r="X46" s="28"/>
     </row>
-    <row r="47" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:59">
       <c r="A47" s="5" t="s">
         <v>2468</v>
       </c>
@@ -53543,7 +53558,7 @@
       <c r="W47" s="28"/>
       <c r="X47" s="28"/>
     </row>
-    <row r="48" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:59">
       <c r="A48" s="5" t="s">
         <v>2547</v>
       </c>
@@ -53573,7 +53588,7 @@
       <c r="W48" s="28"/>
       <c r="X48" s="28"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24">
       <c r="A49" s="5" t="s">
         <v>10</v>
       </c>
@@ -53603,7 +53618,7 @@
       <c r="W49" s="28"/>
       <c r="X49" s="28"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:24">
       <c r="A50" s="5" t="s">
         <v>12</v>
       </c>
@@ -53632,7 +53647,7 @@
       <c r="W50" s="28"/>
       <c r="X50" s="28"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24">
       <c r="A51" s="5" t="s">
         <v>14</v>
       </c>
@@ -53662,7 +53677,7 @@
       <c r="W51" s="28"/>
       <c r="X51" s="28"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24">
       <c r="A52" s="5" t="s">
         <v>16</v>
       </c>
@@ -53691,7 +53706,7 @@
       <c r="W52" s="28"/>
       <c r="X52" s="28"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:24">
       <c r="A53" s="5" t="s">
         <v>2514</v>
       </c>
@@ -53723,7 +53738,7 @@
       <c r="W53" s="28"/>
       <c r="X53" s="28"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:24">
       <c r="A54" s="4" t="s">
         <v>2543</v>
       </c>
@@ -53757,7 +53772,7 @@
       <c r="W54" s="28"/>
       <c r="X54" s="28"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24">
       <c r="A55" s="4" t="s">
         <v>2541</v>
       </c>
@@ -53791,7 +53806,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:24">
       <c r="A56" s="5" t="s">
         <v>20</v>
       </c>
@@ -53821,7 +53836,7 @@
       <c r="W56" s="28"/>
       <c r="X56" s="28"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:24">
       <c r="A57" s="4" t="s">
         <v>2584</v>
       </c>
@@ -53855,7 +53870,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:24">
       <c r="A58" s="5" t="s">
         <v>2562</v>
       </c>
@@ -53889,7 +53904,7 @@
       <c r="W58" s="28"/>
       <c r="X58" s="28"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:24">
       <c r="A59" s="4" t="s">
         <v>2599</v>
       </c>
@@ -53923,7 +53938,7 @@
       <c r="W59" s="28"/>
       <c r="X59" s="28"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:24">
       <c r="A60" s="5" t="s">
         <v>2520</v>
       </c>
@@ -53955,7 +53970,7 @@
       <c r="W60" s="28"/>
       <c r="X60" s="28"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:24">
       <c r="A61" s="5" t="s">
         <v>2577</v>
       </c>
@@ -53987,7 +54002,7 @@
       <c r="W61" s="28"/>
       <c r="X61" s="28"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:24">
       <c r="A62" s="5" t="s">
         <v>22</v>
       </c>
@@ -54017,7 +54032,7 @@
       <c r="W62" s="28"/>
       <c r="X62" s="28"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:24">
       <c r="A63" s="5" t="s">
         <v>2566</v>
       </c>
@@ -54049,7 +54064,7 @@
       <c r="W63" s="28"/>
       <c r="X63" s="28"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:24">
       <c r="A64" s="5" t="s">
         <v>2528</v>
       </c>
@@ -54081,7 +54096,7 @@
       <c r="W64" s="28"/>
       <c r="X64" s="28"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:24">
       <c r="A65" s="5" t="s">
         <v>2466</v>
       </c>
@@ -54137,12 +54152,12 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="22" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="18" thickBot="1">
       <c r="A1" s="84"/>
       <c r="B1" s="85" t="s">
         <v>2681</v>
@@ -54208,7 +54223,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="18" thickTop="1">
       <c r="A2" s="92" t="s">
         <v>2654</v>
       </c>
@@ -54240,7 +54255,7 @@
         <v>2748</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="17.25">
       <c r="A3" s="93" t="s">
         <v>2655</v>
       </c>
@@ -54272,7 +54287,7 @@
       <c r="U3" s="48"/>
       <c r="V3" s="49"/>
     </row>
-    <row r="4" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="17.25">
       <c r="A4" s="93" t="s">
         <v>2657</v>
       </c>
@@ -54304,7 +54319,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="17.25">
       <c r="A5" s="93" t="s">
         <v>2660</v>
       </c>
@@ -54336,7 +54351,7 @@
       <c r="U5" s="48"/>
       <c r="V5" s="49"/>
     </row>
-    <row r="6" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="17.25">
       <c r="A6" s="93" t="s">
         <v>2702</v>
       </c>
@@ -54368,7 +54383,7 @@
       <c r="U6" s="48"/>
       <c r="V6" s="49"/>
     </row>
-    <row r="7" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="17.25">
       <c r="A7" s="93" t="s">
         <v>2703</v>
       </c>
@@ -54400,7 +54415,7 @@
       <c r="U7" s="48"/>
       <c r="V7" s="49"/>
     </row>
-    <row r="8" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="17.25">
       <c r="A8" s="93" t="s">
         <v>2669</v>
       </c>
@@ -54432,7 +54447,7 @@
       <c r="U8" s="48"/>
       <c r="V8" s="49"/>
     </row>
-    <row r="9" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="17.25">
       <c r="A9" s="93" t="s">
         <v>2670</v>
       </c>
@@ -54464,7 +54479,7 @@
       <c r="U9" s="55"/>
       <c r="V9" s="49"/>
     </row>
-    <row r="10" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="17.25">
       <c r="A10" s="93" t="s">
         <v>2704</v>
       </c>
@@ -54496,7 +54511,7 @@
       <c r="U10" s="48"/>
       <c r="V10" s="49"/>
     </row>
-    <row r="11" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="17.25">
       <c r="A11" s="93" t="s">
         <v>2705</v>
       </c>
@@ -54528,7 +54543,7 @@
       <c r="U11" s="48"/>
       <c r="V11" s="49"/>
     </row>
-    <row r="12" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="17.25">
       <c r="A12" s="93" t="s">
         <v>2673</v>
       </c>
@@ -54560,7 +54575,7 @@
       <c r="U12" s="48"/>
       <c r="V12" s="49"/>
     </row>
-    <row r="13" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="17.25">
       <c r="A13" s="93" t="s">
         <v>2706</v>
       </c>
@@ -54592,7 +54607,7 @@
       <c r="U13" s="48"/>
       <c r="V13" s="49"/>
     </row>
-    <row r="14" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="17.25">
       <c r="A14" s="93" t="s">
         <v>2707</v>
       </c>
@@ -54624,7 +54639,7 @@
       <c r="U14" s="48"/>
       <c r="V14" s="49"/>
     </row>
-    <row r="15" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="17.25">
       <c r="A15" s="93" t="s">
         <v>2708</v>
       </c>
@@ -54656,7 +54671,7 @@
       </c>
       <c r="V15" s="49"/>
     </row>
-    <row r="16" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="17.25">
       <c r="A16" s="93" t="s">
         <v>2676</v>
       </c>
@@ -54688,7 +54703,7 @@
       </c>
       <c r="V16" s="49"/>
     </row>
-    <row r="17" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="17.25">
       <c r="A17" s="93" t="s">
         <v>2677</v>
       </c>
@@ -54720,7 +54735,7 @@
       <c r="U17" s="48"/>
       <c r="V17" s="49"/>
     </row>
-    <row r="18" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="17.25">
       <c r="A18" s="93" t="s">
         <v>2709</v>
       </c>
@@ -54752,7 +54767,7 @@
       <c r="U18" s="48"/>
       <c r="V18" s="49"/>
     </row>
-    <row r="19" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="17.25">
       <c r="A19" s="93" t="s">
         <v>2679</v>
       </c>
@@ -54784,7 +54799,7 @@
       <c r="U19" s="48"/>
       <c r="V19" s="49"/>
     </row>
-    <row r="20" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" ht="18" thickBot="1">
       <c r="A20" s="94" t="s">
         <v>2680</v>
       </c>
@@ -54816,7 +54831,7 @@
       <c r="U20" s="91"/>
       <c r="V20" s="65"/>
     </row>
-    <row r="21" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" ht="17.25">
       <c r="A21" s="77"/>
       <c r="B21" s="78"/>
       <c r="C21" s="78"/>
@@ -54840,7 +54855,7 @@
       <c r="U21" s="79"/>
       <c r="V21" s="79"/>
     </row>
-    <row r="22" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="17.25">
       <c r="A22" s="77"/>
       <c r="B22" s="78"/>
       <c r="C22" s="78"/>
@@ -54864,7 +54879,7 @@
       <c r="U22" s="79"/>
       <c r="V22" s="79"/>
     </row>
-    <row r="23" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="17.25">
       <c r="A23" s="77"/>
       <c r="B23" s="78"/>
       <c r="C23" s="78"/>
@@ -54888,7 +54903,7 @@
       <c r="U23" s="79"/>
       <c r="V23" s="79"/>
     </row>
-    <row r="24" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="17.25">
       <c r="A24" s="77"/>
       <c r="B24" s="78"/>
       <c r="C24" s="78"/>
@@ -54912,7 +54927,7 @@
       <c r="U24" s="79"/>
       <c r="V24" s="79"/>
     </row>
-    <row r="25" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="17.25">
       <c r="A25" s="77"/>
       <c r="B25" s="78"/>
       <c r="C25" s="78"/>
@@ -54936,7 +54951,7 @@
       <c r="U25" s="79"/>
       <c r="V25" s="79"/>
     </row>
-    <row r="26" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="17.25">
       <c r="A26" s="77"/>
       <c r="B26" s="78"/>
       <c r="C26" s="78"/>
@@ -54960,7 +54975,7 @@
       <c r="U26" s="79"/>
       <c r="V26" s="79"/>
     </row>
-    <row r="27" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="17.25">
       <c r="A27" s="77"/>
       <c r="B27" s="78"/>
       <c r="C27" s="78"/>
@@ -54984,7 +54999,7 @@
       <c r="U27" s="79"/>
       <c r="V27" s="79"/>
     </row>
-    <row r="28" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" ht="17.25">
       <c r="A28" s="77"/>
       <c r="B28" s="78"/>
       <c r="C28" s="78"/>
@@ -55026,12 +55041,12 @@
       <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="22" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="18" thickBot="1">
       <c r="A1" s="70"/>
       <c r="B1" s="71" t="s">
         <v>2681</v>
@@ -55097,7 +55112,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="18" thickTop="1">
       <c r="A2" s="82" t="s">
         <v>2654</v>
       </c>
@@ -55131,7 +55146,7 @@
       <c r="U2" s="41"/>
       <c r="V2" s="43"/>
     </row>
-    <row r="3" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="17.25">
       <c r="A3" s="83" t="s">
         <v>2655</v>
       </c>
@@ -55161,7 +55176,7 @@
       <c r="U3" s="48"/>
       <c r="V3" s="49"/>
     </row>
-    <row r="4" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="17.25">
       <c r="A4" s="83" t="s">
         <v>2656</v>
       </c>
@@ -55189,7 +55204,7 @@
       <c r="U4" s="48"/>
       <c r="V4" s="49"/>
     </row>
-    <row r="5" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="17.25">
       <c r="A5" s="83" t="s">
         <v>2657</v>
       </c>
@@ -55223,7 +55238,7 @@
       </c>
       <c r="V5" s="49"/>
     </row>
-    <row r="6" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="17.25">
       <c r="A6" s="83" t="s">
         <v>2658</v>
       </c>
@@ -55251,7 +55266,7 @@
       <c r="U6" s="48"/>
       <c r="V6" s="49"/>
     </row>
-    <row r="7" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="17.25">
       <c r="A7" s="83" t="s">
         <v>2659</v>
       </c>
@@ -55279,7 +55294,7 @@
       <c r="U7" s="48"/>
       <c r="V7" s="49"/>
     </row>
-    <row r="8" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="17.25">
       <c r="A8" s="83" t="s">
         <v>2660</v>
       </c>
@@ -55309,7 +55324,7 @@
       <c r="U8" s="48"/>
       <c r="V8" s="49"/>
     </row>
-    <row r="9" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="17.25">
       <c r="A9" s="83" t="s">
         <v>2661</v>
       </c>
@@ -55343,7 +55358,7 @@
       <c r="U9" s="55"/>
       <c r="V9" s="49"/>
     </row>
-    <row r="10" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="17.25">
       <c r="A10" s="83" t="s">
         <v>2662</v>
       </c>
@@ -55371,7 +55386,7 @@
       <c r="U10" s="48"/>
       <c r="V10" s="49"/>
     </row>
-    <row r="11" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="17.25">
       <c r="A11" s="83" t="s">
         <v>2663</v>
       </c>
@@ -55399,7 +55414,7 @@
       <c r="U11" s="48"/>
       <c r="V11" s="49"/>
     </row>
-    <row r="12" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="17.25">
       <c r="A12" s="83" t="s">
         <v>2664</v>
       </c>
@@ -55427,7 +55442,7 @@
       <c r="U12" s="48"/>
       <c r="V12" s="49"/>
     </row>
-    <row r="13" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="17.25">
       <c r="A13" s="83" t="s">
         <v>2665</v>
       </c>
@@ -55455,7 +55470,7 @@
       <c r="U13" s="48"/>
       <c r="V13" s="49"/>
     </row>
-    <row r="14" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="17.25">
       <c r="A14" s="83" t="s">
         <v>2666</v>
       </c>
@@ -55483,7 +55498,7 @@
       <c r="U14" s="48"/>
       <c r="V14" s="49"/>
     </row>
-    <row r="15" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="17.25">
       <c r="A15" s="83" t="s">
         <v>2667</v>
       </c>
@@ -55511,7 +55526,7 @@
       <c r="U15" s="48"/>
       <c r="V15" s="49"/>
     </row>
-    <row r="16" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="17.25">
       <c r="A16" s="83" t="s">
         <v>2668</v>
       </c>
@@ -55541,7 +55556,7 @@
       <c r="U16" s="48"/>
       <c r="V16" s="49"/>
     </row>
-    <row r="17" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="17.25">
       <c r="A17" s="83" t="s">
         <v>2669</v>
       </c>
@@ -55573,7 +55588,7 @@
       <c r="U17" s="48"/>
       <c r="V17" s="49"/>
     </row>
-    <row r="18" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="17.25">
       <c r="A18" s="83" t="s">
         <v>2670</v>
       </c>
@@ -55605,7 +55620,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="17.25">
       <c r="A19" s="83" t="s">
         <v>2671</v>
       </c>
@@ -55633,7 +55648,7 @@
       <c r="U19" s="48"/>
       <c r="V19" s="49"/>
     </row>
-    <row r="20" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="17.25">
       <c r="A20" s="83" t="s">
         <v>2672</v>
       </c>
@@ -55667,7 +55682,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" ht="17.25">
       <c r="A21" s="83" t="s">
         <v>2673</v>
       </c>
@@ -55701,7 +55716,7 @@
       <c r="U21" s="48"/>
       <c r="V21" s="49"/>
     </row>
-    <row r="22" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="17.25">
       <c r="A22" s="83" t="s">
         <v>2674</v>
       </c>
@@ -55735,7 +55750,7 @@
       <c r="U22" s="48"/>
       <c r="V22" s="49"/>
     </row>
-    <row r="23" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="17.25">
       <c r="A23" s="83" t="s">
         <v>2675</v>
       </c>
@@ -55765,7 +55780,7 @@
       <c r="U23" s="48"/>
       <c r="V23" s="49"/>
     </row>
-    <row r="24" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="17.25">
       <c r="A24" s="83" t="s">
         <v>2676</v>
       </c>
@@ -55795,7 +55810,7 @@
       <c r="U24" s="48"/>
       <c r="V24" s="49"/>
     </row>
-    <row r="25" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="17.25">
       <c r="A25" s="83" t="s">
         <v>2677</v>
       </c>
@@ -55823,7 +55838,7 @@
       <c r="U25" s="48"/>
       <c r="V25" s="49"/>
     </row>
-    <row r="26" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="17.25">
       <c r="A26" s="83" t="s">
         <v>2678</v>
       </c>
@@ -55853,7 +55868,7 @@
       <c r="U26" s="48"/>
       <c r="V26" s="49"/>
     </row>
-    <row r="27" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="17.25">
       <c r="A27" s="83" t="s">
         <v>2679</v>
       </c>
@@ -55883,7 +55898,7 @@
       <c r="U27" s="48"/>
       <c r="V27" s="49"/>
     </row>
-    <row r="28" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" ht="18" thickBot="1">
       <c r="A28" s="95" t="s">
         <v>2680</v>
       </c>
@@ -55929,12 +55944,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="19" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="18" customHeight="1" thickBot="1">
       <c r="A1" s="103" t="s">
         <v>2807</v>
       </c>
@@ -55993,7 +56008,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="18" customHeight="1" thickTop="1">
       <c r="A2" s="100" t="s">
         <v>2710</v>
       </c>
@@ -56052,7 +56067,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="18" customHeight="1">
       <c r="A3" s="34" t="s">
         <v>2729</v>
       </c>
@@ -56111,7 +56126,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="18" customHeight="1">
       <c r="A4" s="34" t="s">
         <v>2786</v>
       </c>
@@ -56170,7 +56185,7 @@
         <v>2766</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="18" customHeight="1">
       <c r="A5" s="34" t="s">
         <v>2795</v>
       </c>
@@ -56229,7 +56244,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="18" customHeight="1">
       <c r="A6" s="34" t="s">
         <v>2517</v>
       </c>
@@ -56288,7 +56303,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="18" customHeight="1" thickBot="1">
       <c r="A7" s="96" t="s">
         <v>2802</v>
       </c>
